--- a/5.68.xlsx
+++ b/5.68.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\wit\slipper_rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385BF13A-48EB-411C-A0C5-C6339E4E72D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CDFEC1-84AB-4A2A-809F-8F3B82D4DA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="8490" windowWidth="20490" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dรามอินทรา" sheetId="16" r:id="rId1"/>
@@ -513,7 +513,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="407">
   <si>
     <t>ลำดับ</t>
   </si>
@@ -1049,9 +1049,6 @@
     <t>หนิง</t>
   </si>
   <si>
-    <t>ค่าล่วงเวลา (ชั่วโมง)คูณ 3</t>
-  </si>
-  <si>
     <t>ค่าล่วงเวลา (ชั่วโมง) คูณ 3</t>
   </si>
   <si>
@@ -1088,9 +1085,6 @@
     <t>รุ่งทวี ศรีงาม</t>
   </si>
   <si>
-    <t>Dนนทบุรี</t>
-  </si>
-  <si>
     <t>mayurudee2528@gmail.com</t>
   </si>
   <si>
@@ -1740,6 +1734,9 @@
   </si>
   <si>
     <t>susuwin1900@gmail.com</t>
+  </si>
+  <si>
+    <t>Dครัวกลาง</t>
   </si>
 </sst>
 </file>
@@ -3581,1148 +3578,6 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="TH Sarabun New"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="TH Sarabun New"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="TH Sarabun New"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <name val="TH SarabunPSK"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="TH SarabunPSK"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="TH SarabunPSK"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="TH SarabunPSK"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="TH SarabunPSK"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="TH SarabunPSK"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="TH SarabunPSK"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="TH SarabunPSK"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="TH SarabunPSK"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="TH SarabunPSK"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="TH SarabunPSK"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="TH SarabunPSK"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="TH SarabunPSK"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <name val="TH SarabunPSK"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <name val="TH SarabunPSK"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="TH SarabunPSK"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="TH SarabunPSK"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="TH SarabunPSK"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="TH SarabunPSK"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF505050"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="TH SarabunPSK"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="TH SarabunPSK"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="TH SarabunPSK"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF505050"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF505050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF505050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="TH SarabunPSK"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF505050"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF505050"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF505050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF505050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="TH SarabunPSK"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="TH SarabunPSK"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Angsana New"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <name val="Angsana New"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <name val="Angsana New"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="TH SarabunPSK"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF505050"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF505050"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF505050"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
         <name val="TH SarabunPSK"/>
@@ -8169,6 +7024,1148 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="TH Sarabun New"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="TH Sarabun New"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="TH Sarabun New"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <name val="TH SarabunPSK"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="TH SarabunPSK"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="TH SarabunPSK"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="TH SarabunPSK"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="TH SarabunPSK"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="TH SarabunPSK"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="TH SarabunPSK"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="TH SarabunPSK"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="TH SarabunPSK"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="TH SarabunPSK"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="TH SarabunPSK"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="TH SarabunPSK"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="TH SarabunPSK"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <name val="TH SarabunPSK"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <name val="TH SarabunPSK"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="TH SarabunPSK"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="TH SarabunPSK"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="TH SarabunPSK"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="TH SarabunPSK"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF505050"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="TH SarabunPSK"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="TH SarabunPSK"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="TH SarabunPSK"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF505050"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF505050"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF505050"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="TH SarabunPSK"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF505050"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF505050"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF505050"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF505050"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="TH SarabunPSK"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="TH SarabunPSK"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Angsana New"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <name val="Angsana New"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <name val="Angsana New"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="TH SarabunPSK"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF505050"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF505050"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF505050"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -8735,207 +8732,207 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C2ECA32F-917C-4E58-9A2A-2542CA8BF0D3}" name="Tableram" displayName="Tableram" ref="A2:AG32" totalsRowShown="0">
   <autoFilter ref="A2:AG32" xr:uid="{629FA26A-1396-421F-B022-E198F5080DED}"/>
   <tableColumns count="33">
-    <tableColumn id="1" xr3:uid="{1A0BCF3F-6C93-4087-A239-93E9DDD66CAB}" name="ลำดับ" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{FE3FB0A6-7890-457A-B940-DA143F3CEA9B}" name="ชื่อ-นามสกุล" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{B2108BA0-0EFB-48A1-ACCD-F8FA939BC958}" name="ชื่อเล่น" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{10421A38-0C38-4454-944C-1AEE89AE0D3E}" name="ตำแหน่ง" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{9E900886-F2CC-449F-8375-4F3376CC9B43}" name="อัตราเงินเดือน" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{D255F47B-3C48-4AF6-9254-0EDCA8D1017E}" name="ค่าตำแหน่ง" dataDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{50CB790D-57EA-40CE-A4AD-5D61ADAD008E}" name="โอที/วัน" dataDxfId="27">
+    <tableColumn id="1" xr3:uid="{1A0BCF3F-6C93-4087-A239-93E9DDD66CAB}" name="ลำดับ" dataDxfId="134"/>
+    <tableColumn id="2" xr3:uid="{FE3FB0A6-7890-457A-B940-DA143F3CEA9B}" name="ชื่อ-นามสกุล" dataDxfId="133"/>
+    <tableColumn id="3" xr3:uid="{B2108BA0-0EFB-48A1-ACCD-F8FA939BC958}" name="ชื่อเล่น" dataDxfId="132"/>
+    <tableColumn id="4" xr3:uid="{10421A38-0C38-4454-944C-1AEE89AE0D3E}" name="ตำแหน่ง" dataDxfId="131"/>
+    <tableColumn id="5" xr3:uid="{9E900886-F2CC-449F-8375-4F3376CC9B43}" name="อัตราเงินเดือน" dataDxfId="130"/>
+    <tableColumn id="6" xr3:uid="{D255F47B-3C48-4AF6-9254-0EDCA8D1017E}" name="ค่าตำแหน่ง" dataDxfId="129"/>
+    <tableColumn id="7" xr3:uid="{50CB790D-57EA-40CE-A4AD-5D61ADAD008E}" name="โอที/วัน" dataDxfId="128">
       <calculatedColumnFormula>(E3/30)*AB3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{F45D6E16-E3C8-4F3F-92A1-6085DFAA0D57}" name="โอที/ชม." dataDxfId="26">
+    <tableColumn id="8" xr3:uid="{F45D6E16-E3C8-4F3F-92A1-6085DFAA0D57}" name="โอที/ชม." dataDxfId="127">
       <calculatedColumnFormula>(((E3/30)/8*1.5))*AC3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{849BA61A-5213-435A-8005-1535065983C8}" name="โอที/ชม. X 3" dataDxfId="25">
+    <tableColumn id="9" xr3:uid="{849BA61A-5213-435A-8005-1535065983C8}" name="โอที/ชม. X 3" dataDxfId="126">
       <calculatedColumnFormula>(((E3/30)/8*3))*AD3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{D7E3A6DF-ACCB-44EF-9C93-15CBB82A70AF}" name="เบี้ยขยัน" dataDxfId="24"/>
-    <tableColumn id="11" xr3:uid="{17647986-DEFA-4CC1-B30E-22097846E1DF}" name="เบิก" dataDxfId="23"/>
-    <tableColumn id="12" xr3:uid="{E2FE1AEF-858F-4456-80CF-DE311A6B6FBD}" name="ปกส." dataDxfId="22"/>
-    <tableColumn id="13" xr3:uid="{A2745F0E-0062-4CC9-A5BB-BE6FE7E67E2A}" name="ยอดจ่ายเงินกู้" dataDxfId="21"/>
-    <tableColumn id="14" xr3:uid="{EE74E64A-9324-4169-982C-A6876388BB6A}" name="เงินกู้ค้าง" dataDxfId="20"/>
-    <tableColumn id="15" xr3:uid="{B1B59FDB-05A9-42E8-B179-04815B08DB67}" name="สวัสดิการอื่นๆ" dataDxfId="19"/>
-    <tableColumn id="16" xr3:uid="{3D698114-C2AA-47BB-A0D2-19832E097BAE}" name="หนี้" dataDxfId="18"/>
-    <tableColumn id="17" xr3:uid="{B7EDFF5C-451A-4CCF-A4E4-72E6D7D18E3F}" name="สาย" dataDxfId="17"/>
-    <tableColumn id="18" xr3:uid="{7885B4C9-0B43-4E82-AC34-F2A58D1A402D}" name="ลา" dataDxfId="16">
+    <tableColumn id="10" xr3:uid="{D7E3A6DF-ACCB-44EF-9C93-15CBB82A70AF}" name="เบี้ยขยัน" dataDxfId="125"/>
+    <tableColumn id="11" xr3:uid="{17647986-DEFA-4CC1-B30E-22097846E1DF}" name="เบิก" dataDxfId="124"/>
+    <tableColumn id="12" xr3:uid="{E2FE1AEF-858F-4456-80CF-DE311A6B6FBD}" name="ปกส." dataDxfId="123"/>
+    <tableColumn id="13" xr3:uid="{A2745F0E-0062-4CC9-A5BB-BE6FE7E67E2A}" name="ยอดจ่ายเงินกู้" dataDxfId="122"/>
+    <tableColumn id="14" xr3:uid="{EE74E64A-9324-4169-982C-A6876388BB6A}" name="เงินกู้ค้าง" dataDxfId="121"/>
+    <tableColumn id="15" xr3:uid="{B1B59FDB-05A9-42E8-B179-04815B08DB67}" name="สวัสดิการอื่นๆ" dataDxfId="120"/>
+    <tableColumn id="16" xr3:uid="{3D698114-C2AA-47BB-A0D2-19832E097BAE}" name="หนี้" dataDxfId="119"/>
+    <tableColumn id="17" xr3:uid="{B7EDFF5C-451A-4CCF-A4E4-72E6D7D18E3F}" name="สาย" dataDxfId="118"/>
+    <tableColumn id="18" xr3:uid="{7885B4C9-0B43-4E82-AC34-F2A58D1A402D}" name="ลา" dataDxfId="117">
       <calculatedColumnFormula>(E3/30)*IF(W3=0,0,W3) + (E3/30)*IF(Z3=0,0,Z3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{BAE848A4-309C-425B-A558-099C1E29DE7B}" name="ยอดเป้า" dataDxfId="15"/>
-    <tableColumn id="20" xr3:uid="{64139DB3-6086-44C5-BF81-5003C5C44D1E}" name="โบนัส" dataDxfId="14"/>
-    <tableColumn id="21" xr3:uid="{2CF6FB75-E5C6-4EB5-A398-9A05BEF45561}" name="รายได้สุทธิ" dataDxfId="13">
+    <tableColumn id="19" xr3:uid="{BAE848A4-309C-425B-A558-099C1E29DE7B}" name="ยอดเป้า" dataDxfId="116"/>
+    <tableColumn id="20" xr3:uid="{64139DB3-6086-44C5-BF81-5003C5C44D1E}" name="โบนัส" dataDxfId="115"/>
+    <tableColumn id="21" xr3:uid="{2CF6FB75-E5C6-4EB5-A398-9A05BEF45561}" name="รายได้สุทธิ" dataDxfId="114">
       <calculatedColumnFormula>ROUND(E3+F3+G3+H3+I3+J3-K3-L3-M3+O3-P3-Q3-R3+S3+T3,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{BF0F14C4-6780-45C3-9270-CA34E4A341E3}" name="Email" dataDxfId="12" dataCellStyle="Hyperlink"/>
-    <tableColumn id="23" xr3:uid="{0D23400A-4CDA-4CA9-A02B-22DE43A44E73}" name="ขาด (วัน)" dataDxfId="11"/>
-    <tableColumn id="24" xr3:uid="{F8F35F7E-A90D-4BAD-988E-B6B3E52E746E}" name="สาย (นาที)" dataDxfId="10"/>
-    <tableColumn id="25" xr3:uid="{47BC153C-2648-44C6-80E8-C9230DD3B436}" name="ลาป่วย (วัน)" dataDxfId="9"/>
-    <tableColumn id="26" xr3:uid="{8C382495-AD71-40C6-B109-1019628D396C}" name="ลากิจ (วัน)" dataDxfId="8"/>
-    <tableColumn id="27" xr3:uid="{37A39A68-1A7D-4C0B-9929-FF3115914B37}" name="ลาพักร้อน (วัน)" dataDxfId="7"/>
-    <tableColumn id="28" xr3:uid="{0B59D583-53E9-4022-AF6F-7DB67D3DB62E}" name="OT (วัน)" dataDxfId="6"/>
-    <tableColumn id="29" xr3:uid="{625B4CD7-74F6-4486-8CC8-0C7B01BBB4AB}" name="ค่าล่วงเวลา (ชั่วโมง)" dataDxfId="5"/>
-    <tableColumn id="30" xr3:uid="{E14D529D-8F13-4A4D-91B6-674FF5599ACC}" name="ค่าล่วงเวลา (ชั่วโมง)คูณ 3" dataDxfId="4"/>
-    <tableColumn id="31" xr3:uid="{8661A9F6-E3FF-4459-8449-E382A02BB8D7}" name="ภาษา" dataDxfId="3"/>
-    <tableColumn id="32" xr3:uid="{F22A6CD7-E88A-400C-9457-E90815A29975}" name="เงินสด" dataDxfId="2"/>
-    <tableColumn id="33" xr3:uid="{1239F988-6A08-4700-8523-4999AC847690}" name="Promtpay" dataDxfId="1"/>
+    <tableColumn id="22" xr3:uid="{BF0F14C4-6780-45C3-9270-CA34E4A341E3}" name="Email" dataDxfId="113" dataCellStyle="Hyperlink"/>
+    <tableColumn id="23" xr3:uid="{0D23400A-4CDA-4CA9-A02B-22DE43A44E73}" name="ขาด (วัน)" dataDxfId="112"/>
+    <tableColumn id="24" xr3:uid="{F8F35F7E-A90D-4BAD-988E-B6B3E52E746E}" name="สาย (นาที)" dataDxfId="111"/>
+    <tableColumn id="25" xr3:uid="{47BC153C-2648-44C6-80E8-C9230DD3B436}" name="ลาป่วย (วัน)" dataDxfId="110"/>
+    <tableColumn id="26" xr3:uid="{8C382495-AD71-40C6-B109-1019628D396C}" name="ลากิจ (วัน)" dataDxfId="109"/>
+    <tableColumn id="27" xr3:uid="{37A39A68-1A7D-4C0B-9929-FF3115914B37}" name="ลาพักร้อน (วัน)" dataDxfId="108"/>
+    <tableColumn id="28" xr3:uid="{0B59D583-53E9-4022-AF6F-7DB67D3DB62E}" name="OT (วัน)" dataDxfId="107"/>
+    <tableColumn id="29" xr3:uid="{625B4CD7-74F6-4486-8CC8-0C7B01BBB4AB}" name="ค่าล่วงเวลา (ชั่วโมง)" dataDxfId="106"/>
+    <tableColumn id="30" xr3:uid="{E14D529D-8F13-4A4D-91B6-674FF5599ACC}" name="ค่าล่วงเวลา (ชั่วโมง) คูณ 3" dataDxfId="105"/>
+    <tableColumn id="31" xr3:uid="{8661A9F6-E3FF-4459-8449-E382A02BB8D7}" name="ภาษา" dataDxfId="104"/>
+    <tableColumn id="32" xr3:uid="{F22A6CD7-E88A-400C-9457-E90815A29975}" name="เงินสด" dataDxfId="103"/>
+    <tableColumn id="33" xr3:uid="{1239F988-6A08-4700-8523-4999AC847690}" name="Promtpay" dataDxfId="102"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DA25F737-7D5B-4CFB-8F44-D5D5D8144A0E}" name="Tablenon" displayName="Tablenon" ref="A2:AG34" totalsRowShown="0" dataDxfId="134" tableBorderDxfId="133">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DA25F737-7D5B-4CFB-8F44-D5D5D8144A0E}" name="Tablenon" displayName="Tablenon" ref="A2:AG34" totalsRowShown="0" dataDxfId="101" tableBorderDxfId="100">
   <autoFilter ref="A2:AG34" xr:uid="{DCC3355D-252F-4B3B-8E32-CEF6D730DAD5}"/>
   <tableColumns count="33">
-    <tableColumn id="1" xr3:uid="{7D3E0FBB-D0D4-4E1F-BD43-F5ED4BA1F71D}" name="ลำดับ" dataDxfId="132"/>
-    <tableColumn id="2" xr3:uid="{37DB0284-B5BC-481F-B6A7-AA38FC42304B}" name="ชื่อ-นามสกุล" dataDxfId="131"/>
-    <tableColumn id="3" xr3:uid="{EEF175A1-68D1-474B-BC43-2818CB6501A8}" name="ชื่อเล่น" dataDxfId="130"/>
-    <tableColumn id="4" xr3:uid="{0D8FEEB3-134A-4A30-8920-E967DB8F15ED}" name="ตำแหน่ง" dataDxfId="129"/>
-    <tableColumn id="5" xr3:uid="{70A7A33C-C2FA-45AF-B03D-BC042C633D84}" name="อัตราเงินเดือน" dataDxfId="128"/>
-    <tableColumn id="6" xr3:uid="{F06686A6-7D95-4E6C-B94E-2285FB8B6CFB}" name="ค่าตำแหน่ง" dataDxfId="127"/>
-    <tableColumn id="7" xr3:uid="{5950BAD3-92BE-41C3-A62A-15E39EFC0F2B}" name="โอที/วัน" dataDxfId="126">
+    <tableColumn id="1" xr3:uid="{7D3E0FBB-D0D4-4E1F-BD43-F5ED4BA1F71D}" name="ลำดับ" dataDxfId="99"/>
+    <tableColumn id="2" xr3:uid="{37DB0284-B5BC-481F-B6A7-AA38FC42304B}" name="ชื่อ-นามสกุล" dataDxfId="98"/>
+    <tableColumn id="3" xr3:uid="{EEF175A1-68D1-474B-BC43-2818CB6501A8}" name="ชื่อเล่น" dataDxfId="97"/>
+    <tableColumn id="4" xr3:uid="{0D8FEEB3-134A-4A30-8920-E967DB8F15ED}" name="ตำแหน่ง" dataDxfId="96"/>
+    <tableColumn id="5" xr3:uid="{70A7A33C-C2FA-45AF-B03D-BC042C633D84}" name="อัตราเงินเดือน" dataDxfId="95"/>
+    <tableColumn id="6" xr3:uid="{F06686A6-7D95-4E6C-B94E-2285FB8B6CFB}" name="ค่าตำแหน่ง" dataDxfId="94"/>
+    <tableColumn id="7" xr3:uid="{5950BAD3-92BE-41C3-A62A-15E39EFC0F2B}" name="โอที/วัน" dataDxfId="93">
       <calculatedColumnFormula>(E3/30)*AB3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{07E0E82D-F1EE-477D-9E0B-C672CDF4A288}" name="โอที/ชม." dataDxfId="125">
+    <tableColumn id="8" xr3:uid="{07E0E82D-F1EE-477D-9E0B-C672CDF4A288}" name="โอที/ชม." dataDxfId="92">
       <calculatedColumnFormula>(((E3/30)/8*1.5))*AC3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E0EA84C4-FCF3-4B36-A0D8-2266ACEE6005}" name="โอที/ชม. X 3" dataDxfId="124">
+    <tableColumn id="9" xr3:uid="{E0EA84C4-FCF3-4B36-A0D8-2266ACEE6005}" name="โอที/ชม. X 3" dataDxfId="91">
       <calculatedColumnFormula>(((E3/30)/8*3))*AD3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{6441BAA9-6ABD-4029-8D26-80313DFBFC7D}" name="เบี้ยขยัน" dataDxfId="123"/>
-    <tableColumn id="11" xr3:uid="{45261E94-0388-43EF-8BD4-8354552A2CAC}" name="เบิก" dataDxfId="122"/>
-    <tableColumn id="12" xr3:uid="{D4FFC2E5-FA35-4853-B696-67B20DB08F15}" name="ปกส." dataDxfId="121"/>
-    <tableColumn id="13" xr3:uid="{7224FA69-D5C1-4F71-AD55-C6C245E739DF}" name="ยอดจ่ายเงินกู้" dataDxfId="120"/>
-    <tableColumn id="14" xr3:uid="{FC8400D0-432D-45AD-BADB-AEEA9AC8B708}" name="เงินกู้ค้าง" dataDxfId="119"/>
-    <tableColumn id="15" xr3:uid="{2F7F2F95-4B68-403A-9156-EFF1354C6334}" name="สวัสดิการอื่นๆ" dataDxfId="118"/>
-    <tableColumn id="16" xr3:uid="{8C1F02C2-0165-4F3B-AB20-6DD6D65493ED}" name="หนี้" dataDxfId="117"/>
-    <tableColumn id="17" xr3:uid="{DF3626F1-E962-41C3-88E7-E4D2C4AA08AF}" name="สาย" dataDxfId="116"/>
-    <tableColumn id="18" xr3:uid="{A7125C46-5677-4777-9E78-85EF602DCE95}" name="ลา" dataDxfId="115">
+    <tableColumn id="10" xr3:uid="{6441BAA9-6ABD-4029-8D26-80313DFBFC7D}" name="เบี้ยขยัน" dataDxfId="90"/>
+    <tableColumn id="11" xr3:uid="{45261E94-0388-43EF-8BD4-8354552A2CAC}" name="เบิก" dataDxfId="89"/>
+    <tableColumn id="12" xr3:uid="{D4FFC2E5-FA35-4853-B696-67B20DB08F15}" name="ปกส." dataDxfId="88"/>
+    <tableColumn id="13" xr3:uid="{7224FA69-D5C1-4F71-AD55-C6C245E739DF}" name="ยอดจ่ายเงินกู้" dataDxfId="87"/>
+    <tableColumn id="14" xr3:uid="{FC8400D0-432D-45AD-BADB-AEEA9AC8B708}" name="เงินกู้ค้าง" dataDxfId="86"/>
+    <tableColumn id="15" xr3:uid="{2F7F2F95-4B68-403A-9156-EFF1354C6334}" name="สวัสดิการอื่นๆ" dataDxfId="85"/>
+    <tableColumn id="16" xr3:uid="{8C1F02C2-0165-4F3B-AB20-6DD6D65493ED}" name="หนี้" dataDxfId="84"/>
+    <tableColumn id="17" xr3:uid="{DF3626F1-E962-41C3-88E7-E4D2C4AA08AF}" name="สาย" dataDxfId="83"/>
+    <tableColumn id="18" xr3:uid="{A7125C46-5677-4777-9E78-85EF602DCE95}" name="ลา" dataDxfId="82">
       <calculatedColumnFormula>(E3/30)*IF(W3=0,0,W3) + (E3/30)*IF(Z3=0,0,Z3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{8936C2F6-A5BD-4480-A1EC-03FDA82C3A99}" name="ยอดเป้า" dataDxfId="114"/>
-    <tableColumn id="20" xr3:uid="{07CFA2F6-8853-4D40-8851-289ED7DCE746}" name="โบนัส" dataDxfId="113"/>
-    <tableColumn id="21" xr3:uid="{7EE98EBB-9A8B-4880-B65B-E92FBD97D89D}" name="รายได้สุทธิ" dataDxfId="112">
+    <tableColumn id="19" xr3:uid="{8936C2F6-A5BD-4480-A1EC-03FDA82C3A99}" name="ยอดเป้า" dataDxfId="81"/>
+    <tableColumn id="20" xr3:uid="{07CFA2F6-8853-4D40-8851-289ED7DCE746}" name="โบนัส" dataDxfId="80"/>
+    <tableColumn id="21" xr3:uid="{7EE98EBB-9A8B-4880-B65B-E92FBD97D89D}" name="รายได้สุทธิ" dataDxfId="79">
       <calculatedColumnFormula>ROUND(E3+F3+G3+H3+I3+J3-K3-L3-M3+O3-P3-Q3-R3+S3+T3,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{77A9B62F-8F05-496C-B3BD-CB85BC7F5882}" name="Email" dataDxfId="111" dataCellStyle="Hyperlink"/>
-    <tableColumn id="23" xr3:uid="{390D0246-6C9B-4A53-8ABB-A67F157091C6}" name="ขาด (วัน)" dataDxfId="110"/>
-    <tableColumn id="24" xr3:uid="{58EBC00B-0E9B-49DA-9B37-B7F4A2271D1F}" name="สาย (นาที)" dataDxfId="109"/>
-    <tableColumn id="25" xr3:uid="{AC444164-4B9B-4C13-9E2E-C335D09D2795}" name="ลาป่วย (วัน)" dataDxfId="108"/>
-    <tableColumn id="26" xr3:uid="{088FCF6D-AA97-403A-A736-69D562B4DBA6}" name="ลากิจ (วัน)" dataDxfId="107"/>
-    <tableColumn id="27" xr3:uid="{A6FC5F9E-6EE0-4062-915D-459C62014D47}" name="ลาพักร้อน (วัน)" dataDxfId="106"/>
-    <tableColumn id="28" xr3:uid="{7736EB6A-F01C-4868-8200-0BEA28E6086E}" name="OT (วัน)" dataDxfId="105"/>
-    <tableColumn id="29" xr3:uid="{D0166E26-F020-475D-911A-EDF55FE79AF8}" name="ค่าล่วงเวลา (ชั่วโมง)" dataDxfId="104"/>
-    <tableColumn id="30" xr3:uid="{8C6A5FD4-1500-4495-8EF4-74E313CBE428}" name="ค่าล่วงเวลา (ชั่วโมง) คูณ 3" dataDxfId="103"/>
-    <tableColumn id="31" xr3:uid="{42F5F0FD-2FD4-4AAD-AD7B-7ACE8DE153A3}" name="ภาษา" dataDxfId="102"/>
-    <tableColumn id="32" xr3:uid="{83A9A38D-706B-4FE2-864E-EC3533FE3BD8}" name="เงินสด" dataDxfId="101"/>
-    <tableColumn id="33" xr3:uid="{5A9001A7-EE48-46A4-9E29-01EC7BA1ADF5}" name="Promtpay" dataDxfId="100"/>
+    <tableColumn id="22" xr3:uid="{77A9B62F-8F05-496C-B3BD-CB85BC7F5882}" name="Email" dataDxfId="78" dataCellStyle="Hyperlink"/>
+    <tableColumn id="23" xr3:uid="{390D0246-6C9B-4A53-8ABB-A67F157091C6}" name="ขาด (วัน)" dataDxfId="77"/>
+    <tableColumn id="24" xr3:uid="{58EBC00B-0E9B-49DA-9B37-B7F4A2271D1F}" name="สาย (นาที)" dataDxfId="76"/>
+    <tableColumn id="25" xr3:uid="{AC444164-4B9B-4C13-9E2E-C335D09D2795}" name="ลาป่วย (วัน)" dataDxfId="75"/>
+    <tableColumn id="26" xr3:uid="{088FCF6D-AA97-403A-A736-69D562B4DBA6}" name="ลากิจ (วัน)" dataDxfId="74"/>
+    <tableColumn id="27" xr3:uid="{A6FC5F9E-6EE0-4062-915D-459C62014D47}" name="ลาพักร้อน (วัน)" dataDxfId="73"/>
+    <tableColumn id="28" xr3:uid="{7736EB6A-F01C-4868-8200-0BEA28E6086E}" name="OT (วัน)" dataDxfId="72"/>
+    <tableColumn id="29" xr3:uid="{D0166E26-F020-475D-911A-EDF55FE79AF8}" name="ค่าล่วงเวลา (ชั่วโมง)" dataDxfId="71"/>
+    <tableColumn id="30" xr3:uid="{8C6A5FD4-1500-4495-8EF4-74E313CBE428}" name="ค่าล่วงเวลา (ชั่วโมง) คูณ 3" dataDxfId="70"/>
+    <tableColumn id="31" xr3:uid="{42F5F0FD-2FD4-4AAD-AD7B-7ACE8DE153A3}" name="ภาษา" dataDxfId="69"/>
+    <tableColumn id="32" xr3:uid="{83A9A38D-706B-4FE2-864E-EC3533FE3BD8}" name="เงินสด" dataDxfId="68"/>
+    <tableColumn id="33" xr3:uid="{5A9001A7-EE48-46A4-9E29-01EC7BA1ADF5}" name="Promtpay" dataDxfId="67"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{028C37C9-6DF9-496E-A1E1-9F78C2984660}" name="Tablekitchen" displayName="Tablekitchen" ref="A2:AG7" totalsRowShown="0" tableBorderDxfId="99">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{028C37C9-6DF9-496E-A1E1-9F78C2984660}" name="Tablekitchen" displayName="Tablekitchen" ref="A2:AG7" totalsRowShown="0" tableBorderDxfId="66">
   <autoFilter ref="A2:AG7" xr:uid="{028C37C9-6DF9-496E-A1E1-9F78C2984660}"/>
   <tableColumns count="33">
-    <tableColumn id="1" xr3:uid="{387D7529-86AD-4053-B9D5-5AB2B2C27415}" name="ลำดับ" dataDxfId="98"/>
-    <tableColumn id="2" xr3:uid="{B6D6C624-1B24-45FE-A168-A03D35287AEF}" name="ชื่อ-นามสกุล" dataDxfId="97"/>
-    <tableColumn id="3" xr3:uid="{BC4B1383-7BDC-4E68-885A-02EC61265231}" name="ชื่อเล่น" dataDxfId="96"/>
-    <tableColumn id="4" xr3:uid="{E4687A52-2395-413A-A29B-577C6684E012}" name="ตำแหน่ง" dataDxfId="95"/>
-    <tableColumn id="5" xr3:uid="{F84902C2-4BE7-4B53-B750-114D24CA00AA}" name="อัตราเงินเดือน" dataDxfId="94"/>
-    <tableColumn id="6" xr3:uid="{E2CD10DB-262E-484D-8DB1-4E126B605616}" name="ค่าตำแหน่ง" dataDxfId="93"/>
-    <tableColumn id="7" xr3:uid="{16F3A9CF-D23C-46CC-B274-D35790A4EDF1}" name="โอที/วัน" dataDxfId="92">
+    <tableColumn id="1" xr3:uid="{387D7529-86AD-4053-B9D5-5AB2B2C27415}" name="ลำดับ" dataDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{B6D6C624-1B24-45FE-A168-A03D35287AEF}" name="ชื่อ-นามสกุล" dataDxfId="64"/>
+    <tableColumn id="3" xr3:uid="{BC4B1383-7BDC-4E68-885A-02EC61265231}" name="ชื่อเล่น" dataDxfId="63"/>
+    <tableColumn id="4" xr3:uid="{E4687A52-2395-413A-A29B-577C6684E012}" name="ตำแหน่ง" dataDxfId="62"/>
+    <tableColumn id="5" xr3:uid="{F84902C2-4BE7-4B53-B750-114D24CA00AA}" name="อัตราเงินเดือน" dataDxfId="61"/>
+    <tableColumn id="6" xr3:uid="{E2CD10DB-262E-484D-8DB1-4E126B605616}" name="ค่าตำแหน่ง" dataDxfId="60"/>
+    <tableColumn id="7" xr3:uid="{16F3A9CF-D23C-46CC-B274-D35790A4EDF1}" name="โอที/วัน" dataDxfId="59">
       <calculatedColumnFormula>(E3/30)*AB3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{0215BBBF-231D-494F-AEDD-D7817DAADD66}" name="โอที/ชม." dataDxfId="91">
+    <tableColumn id="8" xr3:uid="{0215BBBF-231D-494F-AEDD-D7817DAADD66}" name="โอที/ชม." dataDxfId="58">
       <calculatedColumnFormula>(((E3/30)/8*1.5))*AC3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{DEA3AD00-09A8-422C-A27C-4E91410CD3D6}" name="โอที/ชม. X 3" dataDxfId="90">
+    <tableColumn id="9" xr3:uid="{DEA3AD00-09A8-422C-A27C-4E91410CD3D6}" name="โอที/ชม. X 3" dataDxfId="57">
       <calculatedColumnFormula>(((E3/30)/8*3))*AD3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{B80ECD1A-8859-4F3A-A2E8-E698A6EEF569}" name="เบี้ยขยัน" dataDxfId="89"/>
-    <tableColumn id="11" xr3:uid="{D45602D7-5000-4430-AEF4-02E6C448D604}" name="เบิก" dataDxfId="88"/>
-    <tableColumn id="12" xr3:uid="{27C96855-B195-407B-84AC-663225675214}" name="ปกส." dataDxfId="87"/>
-    <tableColumn id="13" xr3:uid="{4E4A7907-C0D0-4832-820E-37AAFFEDB248}" name="ยอดจ่ายเงินกู้" dataDxfId="86"/>
+    <tableColumn id="10" xr3:uid="{B80ECD1A-8859-4F3A-A2E8-E698A6EEF569}" name="เบี้ยขยัน" dataDxfId="56"/>
+    <tableColumn id="11" xr3:uid="{D45602D7-5000-4430-AEF4-02E6C448D604}" name="เบิก" dataDxfId="55"/>
+    <tableColumn id="12" xr3:uid="{27C96855-B195-407B-84AC-663225675214}" name="ปกส." dataDxfId="54"/>
+    <tableColumn id="13" xr3:uid="{4E4A7907-C0D0-4832-820E-37AAFFEDB248}" name="ยอดจ่ายเงินกู้" dataDxfId="53"/>
     <tableColumn id="14" xr3:uid="{40EB00A6-B20E-48B9-A382-EBF7ECA7E298}" name="เงินกู้ค้าง"/>
-    <tableColumn id="15" xr3:uid="{2DD3183B-DDC7-4524-A3CE-5C089511ED8F}" name="สวัสดิการอื่นๆ" dataDxfId="85"/>
-    <tableColumn id="16" xr3:uid="{1F43F780-7217-4645-A22B-1A6AEDD19A9E}" name="หนี้" dataDxfId="84">
+    <tableColumn id="15" xr3:uid="{2DD3183B-DDC7-4524-A3CE-5C089511ED8F}" name="สวัสดิการอื่นๆ" dataDxfId="52"/>
+    <tableColumn id="16" xr3:uid="{1F43F780-7217-4645-A22B-1A6AEDD19A9E}" name="หนี้" dataDxfId="51">
       <calculatedColumnFormula>194+730</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{A1010184-47B0-4463-9578-53DA7ED32A69}" name="สาย" dataDxfId="83"/>
-    <tableColumn id="18" xr3:uid="{A3DEEE77-CC6B-40C3-9CE6-B8A505D5CF73}" name="ลา" dataDxfId="82">
+    <tableColumn id="17" xr3:uid="{A1010184-47B0-4463-9578-53DA7ED32A69}" name="สาย" dataDxfId="50"/>
+    <tableColumn id="18" xr3:uid="{A3DEEE77-CC6B-40C3-9CE6-B8A505D5CF73}" name="ลา" dataDxfId="49">
       <calculatedColumnFormula>(E3/30)*IF(W3=0,0,W3) + (E3/30)*IF(Z3=0,0,Z3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{3A7290A5-5418-41C0-A024-EC955D8F0DC8}" name="ยอดเป้า" dataDxfId="81"/>
-    <tableColumn id="20" xr3:uid="{1851E29D-63FD-480A-A27F-5AD293ABE175}" name="โบนัส" dataDxfId="80"/>
-    <tableColumn id="21" xr3:uid="{631754EB-1B41-42D8-809B-FAE3024F825D}" name="รายได้สุทธิ" dataDxfId="79">
+    <tableColumn id="19" xr3:uid="{3A7290A5-5418-41C0-A024-EC955D8F0DC8}" name="ยอดเป้า" dataDxfId="48"/>
+    <tableColumn id="20" xr3:uid="{1851E29D-63FD-480A-A27F-5AD293ABE175}" name="โบนัส" dataDxfId="47"/>
+    <tableColumn id="21" xr3:uid="{631754EB-1B41-42D8-809B-FAE3024F825D}" name="รายได้สุทธิ" dataDxfId="46">
       <calculatedColumnFormula>ROUND(E3+F3+G3+H3+I3+J3-K3-L3-M3+O3-P3-Q3-R3+S3+T3,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{E99CBD41-513F-42A6-BE15-3CD8924F5063}" name="Email" dataDxfId="78" dataCellStyle="Hyperlink"/>
-    <tableColumn id="23" xr3:uid="{37A719F1-18D2-4293-A20C-B8ABE86DF74A}" name="ขาด (วัน)" dataDxfId="77"/>
-    <tableColumn id="24" xr3:uid="{0E9AE2FD-B721-4AE2-AD03-017D4DBBF33C}" name="สาย (นาที)" dataDxfId="76"/>
-    <tableColumn id="25" xr3:uid="{F582BB53-5D96-49AE-98CA-EB7BA2A1965D}" name="ลาป่วย (วัน)" dataDxfId="75"/>
-    <tableColumn id="26" xr3:uid="{96508B4B-6689-4CD7-ACE4-25A664E62B93}" name="ลากิจ (วัน)" dataDxfId="74"/>
-    <tableColumn id="27" xr3:uid="{46C8D8A1-A62F-4597-B3D8-8767FE01243F}" name="ลาพักร้อน (วัน)" dataDxfId="73"/>
-    <tableColumn id="28" xr3:uid="{9347F2D6-3D04-40F6-883E-00812EDE197A}" name="OT (วัน)" dataDxfId="72"/>
-    <tableColumn id="29" xr3:uid="{4AF9E6BE-1639-481F-9E81-D50CAF609314}" name="ค่าล่วงเวลา (ชั่วโมง)" dataDxfId="71"/>
-    <tableColumn id="30" xr3:uid="{8D276733-A69D-4C95-8150-6911CDA00777}" name="ค่าล่วงเวลา (ชั่วโมง) คูณ 3" dataDxfId="70"/>
-    <tableColumn id="31" xr3:uid="{57486D7B-202B-42F5-9EFA-0F39370E065A}" name="ภาษา" dataDxfId="69"/>
-    <tableColumn id="32" xr3:uid="{E3620C91-4979-48C3-8B77-0E4361BA187A}" name="เงินสด" dataDxfId="68"/>
-    <tableColumn id="33" xr3:uid="{4DFEB92A-4EC8-4082-A19F-B7AEDF7CDBA2}" name="Promtpay" dataDxfId="67"/>
+    <tableColumn id="22" xr3:uid="{E99CBD41-513F-42A6-BE15-3CD8924F5063}" name="Email" dataDxfId="45" dataCellStyle="Hyperlink"/>
+    <tableColumn id="23" xr3:uid="{37A719F1-18D2-4293-A20C-B8ABE86DF74A}" name="ขาด (วัน)" dataDxfId="44"/>
+    <tableColumn id="24" xr3:uid="{0E9AE2FD-B721-4AE2-AD03-017D4DBBF33C}" name="สาย (นาที)" dataDxfId="43"/>
+    <tableColumn id="25" xr3:uid="{F582BB53-5D96-49AE-98CA-EB7BA2A1965D}" name="ลาป่วย (วัน)" dataDxfId="42"/>
+    <tableColumn id="26" xr3:uid="{96508B4B-6689-4CD7-ACE4-25A664E62B93}" name="ลากิจ (วัน)" dataDxfId="41"/>
+    <tableColumn id="27" xr3:uid="{46C8D8A1-A62F-4597-B3D8-8767FE01243F}" name="ลาพักร้อน (วัน)" dataDxfId="40"/>
+    <tableColumn id="28" xr3:uid="{9347F2D6-3D04-40F6-883E-00812EDE197A}" name="OT (วัน)" dataDxfId="39"/>
+    <tableColumn id="29" xr3:uid="{4AF9E6BE-1639-481F-9E81-D50CAF609314}" name="ค่าล่วงเวลา (ชั่วโมง)" dataDxfId="38"/>
+    <tableColumn id="30" xr3:uid="{8D276733-A69D-4C95-8150-6911CDA00777}" name="ค่าล่วงเวลา (ชั่วโมง) คูณ 3" dataDxfId="37"/>
+    <tableColumn id="31" xr3:uid="{57486D7B-202B-42F5-9EFA-0F39370E065A}" name="ภาษา" dataDxfId="36"/>
+    <tableColumn id="32" xr3:uid="{E3620C91-4979-48C3-8B77-0E4361BA187A}" name="เงินสด" dataDxfId="35"/>
+    <tableColumn id="33" xr3:uid="{4DFEB92A-4EC8-4082-A19F-B7AEDF7CDBA2}" name="Promtpay" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{01854875-877E-4542-BBD5-179A387D9ED9}" name="Tablekul" displayName="Tablekul" ref="A2:AG31" totalsRowShown="0" tableBorderDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{01854875-877E-4542-BBD5-179A387D9ED9}" name="Tablekul" displayName="Tablekul" ref="A2:AG31" totalsRowShown="0" tableBorderDxfId="33">
   <autoFilter ref="A2:AG31" xr:uid="{843C64D5-7B08-41DF-8DE1-0561833BA112}"/>
   <tableColumns count="33">
-    <tableColumn id="1" xr3:uid="{6A8622F1-F309-4473-BD1B-FDA2BAAAC76C}" name="ลำดับ" dataDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{B7F5592C-6B1A-4546-8343-2D6F3CE67FD0}" name="ชื่อ-นามสกุล" dataDxfId="64"/>
-    <tableColumn id="3" xr3:uid="{A182E924-E319-48A9-AF3D-BED6BD4A711B}" name="ชื่อเล่น" dataDxfId="63"/>
-    <tableColumn id="4" xr3:uid="{77E25CB0-234B-4B6B-9129-AFDA8FF30F6F}" name="ตำแหน่ง" dataDxfId="62"/>
-    <tableColumn id="5" xr3:uid="{1ECF95C8-2866-4187-8CE0-06F190DDD049}" name="อัตราเงินเดือน" dataDxfId="61"/>
-    <tableColumn id="6" xr3:uid="{B4237519-F541-467E-85CC-252372F17EBB}" name="ค่าตำแหน่ง" dataDxfId="60"/>
-    <tableColumn id="7" xr3:uid="{51476C95-D794-4F31-9738-4D59D7EC75FD}" name="โอที/วัน" dataDxfId="59">
+    <tableColumn id="1" xr3:uid="{6A8622F1-F309-4473-BD1B-FDA2BAAAC76C}" name="ลำดับ" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{B7F5592C-6B1A-4546-8343-2D6F3CE67FD0}" name="ชื่อ-นามสกุล" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{A182E924-E319-48A9-AF3D-BED6BD4A711B}" name="ชื่อเล่น" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{77E25CB0-234B-4B6B-9129-AFDA8FF30F6F}" name="ตำแหน่ง" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{1ECF95C8-2866-4187-8CE0-06F190DDD049}" name="อัตราเงินเดือน" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{B4237519-F541-467E-85CC-252372F17EBB}" name="ค่าตำแหน่ง" dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{51476C95-D794-4F31-9738-4D59D7EC75FD}" name="โอที/วัน" dataDxfId="26">
       <calculatedColumnFormula>(E3/30)*AB3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{076C257C-FD61-4624-A0C0-ADE03076A00F}" name="โอที/ชม." dataDxfId="58">
+    <tableColumn id="8" xr3:uid="{076C257C-FD61-4624-A0C0-ADE03076A00F}" name="โอที/ชม." dataDxfId="25">
       <calculatedColumnFormula>(((E3/30)/8*1.5))*AC3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{9E138BE5-8ECA-4B6B-8211-A9B728F4AAF9}" name="โอที/ชม. X 3" dataDxfId="57">
+    <tableColumn id="9" xr3:uid="{9E138BE5-8ECA-4B6B-8211-A9B728F4AAF9}" name="โอที/ชม. X 3" dataDxfId="24">
       <calculatedColumnFormula>(((E3/30)/8*3))*AD3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{4067E3FC-2989-41C8-A05D-8341A79ABF76}" name="เบี้ยขยัน" dataDxfId="56"/>
-    <tableColumn id="11" xr3:uid="{3A9E61CC-38F4-44FF-9793-0DFFF6029E24}" name="เบิก" dataDxfId="55"/>
-    <tableColumn id="12" xr3:uid="{2790AFD0-F911-47EE-AD83-6FD1CAB9DB73}" name="ปกส." dataDxfId="54"/>
-    <tableColumn id="13" xr3:uid="{EEBD4AA1-FBE5-45A7-B503-AD87DADD0EE4}" name="ยอดจ่ายเงินกู้" dataDxfId="53"/>
-    <tableColumn id="14" xr3:uid="{1B119CF5-EEEF-48FD-B590-0FD33D2CBCB4}" name="เงินกู้ค้าง" dataDxfId="52"/>
+    <tableColumn id="10" xr3:uid="{4067E3FC-2989-41C8-A05D-8341A79ABF76}" name="เบี้ยขยัน" dataDxfId="23"/>
+    <tableColumn id="11" xr3:uid="{3A9E61CC-38F4-44FF-9793-0DFFF6029E24}" name="เบิก" dataDxfId="22"/>
+    <tableColumn id="12" xr3:uid="{2790AFD0-F911-47EE-AD83-6FD1CAB9DB73}" name="ปกส." dataDxfId="21"/>
+    <tableColumn id="13" xr3:uid="{EEBD4AA1-FBE5-45A7-B503-AD87DADD0EE4}" name="ยอดจ่ายเงินกู้" dataDxfId="20"/>
+    <tableColumn id="14" xr3:uid="{1B119CF5-EEEF-48FD-B590-0FD33D2CBCB4}" name="เงินกู้ค้าง" dataDxfId="19"/>
     <tableColumn id="15" xr3:uid="{EFB3EF18-F347-49D6-806C-12BDC7369358}" name="สวัสดิการอื่นๆ"/>
-    <tableColumn id="16" xr3:uid="{E2B392E9-96EF-4919-929B-98745D615ECE}" name="หนี้" dataDxfId="51"/>
-    <tableColumn id="17" xr3:uid="{53AB59AC-40AD-4363-8053-7B3DCD60D399}" name="สาย" dataDxfId="50"/>
-    <tableColumn id="18" xr3:uid="{D45CA715-B54E-471C-82C5-2E3E23D4F2E6}" name="ลา" dataDxfId="49">
+    <tableColumn id="16" xr3:uid="{E2B392E9-96EF-4919-929B-98745D615ECE}" name="หนี้" dataDxfId="18"/>
+    <tableColumn id="17" xr3:uid="{53AB59AC-40AD-4363-8053-7B3DCD60D399}" name="สาย" dataDxfId="17"/>
+    <tableColumn id="18" xr3:uid="{D45CA715-B54E-471C-82C5-2E3E23D4F2E6}" name="ลา" dataDxfId="16">
       <calculatedColumnFormula>(E3/30)*IF(W3=0,0,W3) + (E3/30)*IF(Z3=0,0,Z3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{8F474D37-8BED-4D57-913D-65067E26A3D4}" name="ยอดเป้า" dataDxfId="48"/>
-    <tableColumn id="20" xr3:uid="{87A93449-7916-4B14-A367-E8233A94C460}" name="โบนัส" dataDxfId="47"/>
-    <tableColumn id="21" xr3:uid="{4C82D04F-A16E-40FE-B62C-158702C1E753}" name="รายได้สุทธิ" dataDxfId="46">
+    <tableColumn id="19" xr3:uid="{8F474D37-8BED-4D57-913D-65067E26A3D4}" name="ยอดเป้า" dataDxfId="15"/>
+    <tableColumn id="20" xr3:uid="{87A93449-7916-4B14-A367-E8233A94C460}" name="โบนัส" dataDxfId="14"/>
+    <tableColumn id="21" xr3:uid="{4C82D04F-A16E-40FE-B62C-158702C1E753}" name="รายได้สุทธิ" dataDxfId="13">
       <calculatedColumnFormula>ROUND(E3+F3+G3+H3+I3+J3-K3-L3-M3+O3-P3-Q3-R3+S3+T3,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{77B371E8-9660-4CD7-9B7E-41F6C0489AEB}" name="Email" dataDxfId="45" dataCellStyle="Hyperlink"/>
-    <tableColumn id="23" xr3:uid="{6909F05D-4D8C-4047-BC11-9F5AEFE32456}" name="ขาด (วัน)" dataDxfId="44"/>
-    <tableColumn id="24" xr3:uid="{A45D82DD-9126-4094-9928-7787D55B1F8B}" name="สาย (นาที)" dataDxfId="43"/>
-    <tableColumn id="25" xr3:uid="{5D20BF77-5CA3-4C33-AE35-0C4CC2A347C3}" name="ลาป่วย (วัน)" dataDxfId="42"/>
-    <tableColumn id="26" xr3:uid="{40DBC4EB-8C96-4140-A3F9-396A7CA4A7EA}" name="ลากิจ (วัน)" dataDxfId="41"/>
-    <tableColumn id="27" xr3:uid="{F0034960-8907-44B8-AC15-0DF00A2EB869}" name="ลาพักร้อน (วัน)" dataDxfId="40"/>
-    <tableColumn id="28" xr3:uid="{EF06EAA6-28D2-4C22-8B4F-C74887FE143A}" name="OT (วัน)" dataDxfId="39"/>
-    <tableColumn id="29" xr3:uid="{4958DDC3-7100-43BC-835B-E521430F259C}" name="ค่าล่วงเวลา (ชั่วโมง)" dataDxfId="38"/>
-    <tableColumn id="30" xr3:uid="{E7AA3431-8398-418A-A08F-12A75896BCDA}" name="ค่าล่วงเวลา (ชั่วโมง) คูณ 3" dataDxfId="37"/>
-    <tableColumn id="31" xr3:uid="{1FD90E24-51F0-4A27-89FF-09680C60081B}" name="ภาษา" dataDxfId="36"/>
-    <tableColumn id="32" xr3:uid="{78500FA9-489B-41F7-885C-A7D8978BB64E}" name="เงินสด" dataDxfId="35"/>
-    <tableColumn id="33" xr3:uid="{F659282D-219F-4997-BD36-1B6FADD7F949}" name="Promtpay" dataDxfId="34"/>
+    <tableColumn id="22" xr3:uid="{77B371E8-9660-4CD7-9B7E-41F6C0489AEB}" name="Email" dataDxfId="12" dataCellStyle="Hyperlink"/>
+    <tableColumn id="23" xr3:uid="{6909F05D-4D8C-4047-BC11-9F5AEFE32456}" name="ขาด (วัน)" dataDxfId="11"/>
+    <tableColumn id="24" xr3:uid="{A45D82DD-9126-4094-9928-7787D55B1F8B}" name="สาย (นาที)" dataDxfId="10"/>
+    <tableColumn id="25" xr3:uid="{5D20BF77-5CA3-4C33-AE35-0C4CC2A347C3}" name="ลาป่วย (วัน)" dataDxfId="9"/>
+    <tableColumn id="26" xr3:uid="{40DBC4EB-8C96-4140-A3F9-396A7CA4A7EA}" name="ลากิจ (วัน)" dataDxfId="8"/>
+    <tableColumn id="27" xr3:uid="{F0034960-8907-44B8-AC15-0DF00A2EB869}" name="ลาพักร้อน (วัน)" dataDxfId="7"/>
+    <tableColumn id="28" xr3:uid="{EF06EAA6-28D2-4C22-8B4F-C74887FE143A}" name="OT (วัน)" dataDxfId="6"/>
+    <tableColumn id="29" xr3:uid="{4958DDC3-7100-43BC-835B-E521430F259C}" name="ค่าล่วงเวลา (ชั่วโมง)" dataDxfId="5"/>
+    <tableColumn id="30" xr3:uid="{E7AA3431-8398-418A-A08F-12A75896BCDA}" name="ค่าล่วงเวลา (ชั่วโมง) คูณ 3" dataDxfId="4"/>
+    <tableColumn id="31" xr3:uid="{1FD90E24-51F0-4A27-89FF-09680C60081B}" name="ภาษา" dataDxfId="3"/>
+    <tableColumn id="32" xr3:uid="{78500FA9-489B-41F7-885C-A7D8978BB64E}" name="เงินสด" dataDxfId="2"/>
+    <tableColumn id="33" xr3:uid="{F659282D-219F-4997-BD36-1B6FADD7F949}" name="Promtpay" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9240,8 +9237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8443C034-91D0-4014-AB74-94A9A8317BF4}">
   <dimension ref="A1:AG39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="73" workbookViewId="0">
-      <selection activeCell="V33" sqref="V33"/>
+    <sheetView showGridLines="0" topLeftCell="V1" zoomScaleNormal="100" zoomScaleSheetLayoutView="73" workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.5" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9266,7 +9263,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="31.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="374" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B1" s="375"/>
     </row>
@@ -9296,7 +9293,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J2" s="26" t="s">
         <v>8</v>
@@ -9365,15 +9362,15 @@
         <v>28</v>
       </c>
       <c r="AF2" s="96" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AG2" s="182" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="102">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="B3" s="98" t="s">
         <v>29</v>
@@ -9602,7 +9599,7 @@
       </c>
       <c r="AF5" s="22"/>
       <c r="AG5" s="186" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -9681,7 +9678,7 @@
       </c>
       <c r="AF6" s="22"/>
       <c r="AG6" s="186" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
@@ -9762,7 +9759,7 @@
       </c>
       <c r="AF7" s="22"/>
       <c r="AG7" s="186" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -9841,7 +9838,7 @@
       </c>
       <c r="AF8" s="22"/>
       <c r="AG8" s="186" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -9996,7 +9993,7 @@
       </c>
       <c r="AF10" s="22"/>
       <c r="AG10" s="186" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -10004,7 +10001,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="343" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C11" s="101" t="s">
         <v>65</v>
@@ -10055,7 +10052,7 @@
         <v>11931</v>
       </c>
       <c r="V11" s="41" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
@@ -10440,7 +10437,7 @@
         <v>12749</v>
       </c>
       <c r="V16" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
@@ -10459,7 +10456,7 @@
       </c>
       <c r="AF16" s="22"/>
       <c r="AG16" s="186" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -10538,7 +10535,7 @@
       </c>
       <c r="AF17" s="22"/>
       <c r="AG17" s="186" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
@@ -10593,7 +10590,7 @@
         <v>15954</v>
       </c>
       <c r="V18" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="W18" s="4"/>
       <c r="X18" s="4">
@@ -10614,7 +10611,7 @@
       </c>
       <c r="AF18" s="22"/>
       <c r="AG18" s="183" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
@@ -10622,7 +10619,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="98" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C19" s="101" t="s">
         <v>176</v>
@@ -10671,7 +10668,7 @@
         <v>11478</v>
       </c>
       <c r="V19" s="35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
@@ -10690,7 +10687,7 @@
       </c>
       <c r="AF19" s="22"/>
       <c r="AG19" s="183" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
@@ -10698,10 +10695,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="98" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C20" s="101" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D20" s="98" t="s">
         <v>45</v>
@@ -10747,7 +10744,7 @@
         <v>14484</v>
       </c>
       <c r="V20" s="35" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="W20" s="4"/>
       <c r="X20" s="4"/>
@@ -10772,10 +10769,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="98" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C21" s="101" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D21" s="98" t="s">
         <v>45</v>
@@ -10821,7 +10818,7 @@
         <v>9056</v>
       </c>
       <c r="V21" s="35" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="W21" s="4"/>
       <c r="X21" s="4">
@@ -10848,10 +10845,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="99" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C22" s="101" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D22" s="98" t="s">
         <v>45</v>
@@ -10897,7 +10894,7 @@
         <v>9675</v>
       </c>
       <c r="V22" s="35" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="W22" s="4"/>
       <c r="X22" s="4"/>
@@ -10918,7 +10915,7 @@
       </c>
       <c r="AF22" s="22"/>
       <c r="AG22" s="183" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
@@ -10926,10 +10923,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="98" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C23" s="101" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D23" s="98" t="s">
         <v>45</v>
@@ -10977,7 +10974,7 @@
         <v>11373</v>
       </c>
       <c r="V23" s="35" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
@@ -10996,7 +10993,7 @@
       </c>
       <c r="AF23" s="22"/>
       <c r="AG23" s="183" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
@@ -11004,10 +11001,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="98" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C24" s="101" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D24" s="98" t="s">
         <v>36</v>
@@ -11055,7 +11052,7 @@
         <v>5674</v>
       </c>
       <c r="V24" s="35" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="W24" s="4"/>
       <c r="X24" s="4">
@@ -11084,10 +11081,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="230" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C25" s="231" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D25" s="242"/>
       <c r="E25" s="245">
@@ -11156,10 +11153,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="99" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C26" s="101" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D26" s="98"/>
       <c r="E26" s="14">
@@ -11203,7 +11200,7 @@
         <v>11100</v>
       </c>
       <c r="V26" s="35" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="W26" s="4"/>
       <c r="X26" s="4">
@@ -11224,7 +11221,7 @@
       </c>
       <c r="AF26" s="22"/>
       <c r="AG26" s="186" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="27" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
@@ -11232,10 +11229,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="99" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C27" s="101" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D27" s="98"/>
       <c r="E27" s="14">
@@ -11281,7 +11278,7 @@
         <v>9300</v>
       </c>
       <c r="V27" s="35" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
@@ -11300,7 +11297,7 @@
       </c>
       <c r="AF27" s="22"/>
       <c r="AG27" s="186" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="28" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
@@ -11308,10 +11305,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="99" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C28" s="101" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D28" s="98" t="s">
         <v>36</v>
@@ -11357,7 +11354,7 @@
         <v>16816</v>
       </c>
       <c r="V28" s="35" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="W28" s="4"/>
       <c r="X28" s="4"/>
@@ -11382,10 +11379,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="99" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C29" s="101" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D29" s="98"/>
       <c r="E29" s="14">
@@ -11431,7 +11428,7 @@
         <v>9313</v>
       </c>
       <c r="V29" s="35" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="W29" s="4"/>
       <c r="X29" s="4">
@@ -11454,7 +11451,7 @@
       </c>
       <c r="AF29" s="22"/>
       <c r="AG29" s="186" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="30" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
@@ -11462,10 +11459,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="219" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C30" s="220" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D30" s="100"/>
       <c r="E30" s="17">
@@ -11507,7 +11504,7 @@
         <v>7750</v>
       </c>
       <c r="V30" s="264" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="W30" s="203"/>
       <c r="X30" s="203"/>
@@ -11528,7 +11525,7 @@
       </c>
       <c r="AF30" s="201"/>
       <c r="AG30" s="186" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="31" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
@@ -11536,10 +11533,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="281" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C31" s="282" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D31" s="283"/>
       <c r="E31" s="323">
@@ -11608,10 +11605,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="219" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C32" s="220" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D32" s="100"/>
       <c r="E32" s="17">
@@ -11653,7 +11650,7 @@
         <v>16565</v>
       </c>
       <c r="V32" s="264" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="W32" s="203"/>
       <c r="X32" s="203">
@@ -11674,7 +11671,7 @@
       </c>
       <c r="AF32" s="201"/>
       <c r="AG32" s="186" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="33" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
@@ -11776,7 +11773,7 @@
     </row>
     <row r="37" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="148" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C37" s="205">
         <f>SUMIFS(U3:U32,AF3:AF32,1)</f>
@@ -11785,7 +11782,7 @@
     </row>
     <row r="38" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="148" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C38" s="212">
         <f>IF((U34-SUMIF(L3:L32,"&gt;0",U3:V32)-C37)&gt;0,U34-SUMIF(L3:L32,"&gt;0",U3:V32)-C37,0)</f>
@@ -11860,8 +11857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4247B402-9A2F-446F-8149-9E1374670F1A}">
   <dimension ref="A1:AH41"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="U25" sqref="U25"/>
+    <sheetView showGridLines="0" topLeftCell="S1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="AD15" sqref="AD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="20.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11900,7 +11897,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="374" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B1" s="375"/>
     </row>
@@ -11930,7 +11927,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>8</v>
@@ -11993,16 +11990,16 @@
         <v>27</v>
       </c>
       <c r="AD2" s="105" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AE2" s="8" t="s">
         <v>28</v>
       </c>
       <c r="AF2" s="96" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AG2" s="182" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -12016,7 +12013,7 @@
         <v>76</v>
       </c>
       <c r="D3" s="98" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E3" s="112">
         <f>13650+410+352</f>
@@ -12247,7 +12244,7 @@
       </c>
       <c r="AF5" s="22"/>
       <c r="AG5" s="341" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="6" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -12416,7 +12413,7 @@
         <v>101</v>
       </c>
       <c r="D8" s="98" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E8" s="112">
         <f>13000+260</f>
@@ -12499,7 +12496,7 @@
         <v>104</v>
       </c>
       <c r="D9" s="100" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E9" s="112">
         <v>14000</v>
@@ -12616,7 +12613,7 @@
         <v>13546</v>
       </c>
       <c r="V10" s="126" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="W10" s="278"/>
       <c r="X10" s="278"/>
@@ -12639,7 +12636,7 @@
       </c>
       <c r="AF10" s="22"/>
       <c r="AG10" s="187" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -12653,7 +12650,7 @@
         <v>107</v>
       </c>
       <c r="D11" s="98" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E11" s="112">
         <v>13000</v>
@@ -12694,7 +12691,7 @@
         <v>14785</v>
       </c>
       <c r="V11" s="126" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="W11" s="278"/>
       <c r="X11" s="278"/>
@@ -12721,13 +12718,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="98" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C12" s="101" t="s">
         <v>137</v>
       </c>
       <c r="D12" s="98" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E12" s="112">
         <v>13000</v>
@@ -12768,7 +12765,7 @@
         <v>17435</v>
       </c>
       <c r="V12" s="126" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="W12" s="278"/>
       <c r="X12" s="278"/>
@@ -12789,7 +12786,7 @@
       </c>
       <c r="AF12" s="22"/>
       <c r="AG12" s="187" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="13" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12797,7 +12794,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="98" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C13" s="101" t="s">
         <v>136</v>
@@ -12881,7 +12878,7 @@
         <v>139</v>
       </c>
       <c r="D14" s="98" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E14" s="112">
         <f>12000+180</f>
@@ -12959,7 +12956,7 @@
         <v>145</v>
       </c>
       <c r="C15" s="101" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D15" s="98" t="s">
         <v>66</v>
@@ -13009,7 +13006,7 @@
         <v>3985</v>
       </c>
       <c r="V15" s="126" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="W15" s="278"/>
       <c r="X15" s="278">
@@ -13109,7 +13106,7 @@
       </c>
       <c r="AF16" s="22"/>
       <c r="AG16" s="187" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13117,13 +13114,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="150" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C17" s="147" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D17" s="140" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E17" s="151">
         <v>12000</v>
@@ -13166,7 +13163,7 @@
         <v>3500</v>
       </c>
       <c r="V17" s="222" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="W17" s="304">
         <v>15</v>
@@ -13196,13 +13193,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="308" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C18" s="309" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D18" s="98" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E18" s="112">
         <v>12000</v>
@@ -13247,7 +13244,7 @@
         <v>7078</v>
       </c>
       <c r="V18" s="126" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W18" s="278"/>
       <c r="X18" s="278"/>
@@ -13274,10 +13271,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="230" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C19" s="231" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D19" s="232" t="s">
         <v>36</v>
@@ -13350,10 +13347,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="99" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C20" s="101" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D20" s="98" t="s">
         <v>66</v>
@@ -13401,7 +13398,7 @@
         <v>10855</v>
       </c>
       <c r="V20" s="126" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="W20" s="278"/>
       <c r="X20" s="278">
@@ -13430,10 +13427,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="99" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C21" s="101" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D21" s="98" t="s">
         <v>36</v>
@@ -13477,7 +13474,7 @@
         <v>9400</v>
       </c>
       <c r="V21" s="126" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="W21" s="278"/>
       <c r="X21" s="278"/>
@@ -13498,10 +13495,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="99" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C22" s="101" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D22" s="98" t="s">
         <v>36</v>
@@ -13543,7 +13540,7 @@
         <v>13850</v>
       </c>
       <c r="V22" s="126" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="W22" s="278"/>
       <c r="X22" s="278"/>
@@ -13566,7 +13563,7 @@
       </c>
       <c r="AF22" s="22"/>
       <c r="AG22" s="187" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23" spans="1:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13574,10 +13571,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="150" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C23" s="147" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D23" s="140" t="s">
         <v>66</v>
@@ -13625,7 +13622,7 @@
         <v>11755</v>
       </c>
       <c r="V23" s="222" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="W23" s="304"/>
       <c r="X23" s="304"/>
@@ -13654,13 +13651,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="99" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C24" s="101" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D24" s="98" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E24" s="112">
         <v>12000</v>
@@ -13705,7 +13702,7 @@
         <v>6958</v>
       </c>
       <c r="V24" s="126" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="W24" s="278"/>
       <c r="X24" s="278"/>
@@ -13732,10 +13729,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="99" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C25" s="101" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D25" s="98" t="s">
         <v>36</v>
@@ -13779,7 +13776,7 @@
         <v>4800</v>
       </c>
       <c r="V25" s="126" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="W25" s="278">
         <v>12</v>
@@ -13798,10 +13795,10 @@
       </c>
       <c r="AF25" s="22"/>
       <c r="AG25" s="187" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="AH25" s="348" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="26" spans="1:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13809,10 +13806,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="99" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C26" s="101" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D26" s="98" t="s">
         <v>36</v>
@@ -13854,7 +13851,7 @@
         <v>14325</v>
       </c>
       <c r="V26" s="126" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="W26" s="278"/>
       <c r="X26" s="278"/>
@@ -13875,7 +13872,7 @@
       </c>
       <c r="AF26" s="22"/>
       <c r="AG26" s="187" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13883,13 +13880,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="99" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C27" s="101" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D27" s="98" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E27" s="112">
         <v>12000</v>
@@ -13934,7 +13931,7 @@
         <v>8625</v>
       </c>
       <c r="V27" s="126" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="W27" s="278"/>
       <c r="X27" s="278"/>
@@ -13961,13 +13958,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="99" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C28" s="101" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D28" s="98" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E28" s="112">
         <v>12000</v>
@@ -14008,7 +14005,7 @@
         <v>12536</v>
       </c>
       <c r="V28" s="126" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="W28" s="278"/>
       <c r="X28" s="278"/>
@@ -14029,7 +14026,7 @@
       </c>
       <c r="AF28" s="22"/>
       <c r="AG28" s="187" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="29" spans="1:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14037,10 +14034,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="99" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C29" s="101" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D29" s="98" t="s">
         <v>36</v>
@@ -14086,7 +14083,7 @@
         <v>13575</v>
       </c>
       <c r="V29" s="126" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="W29" s="310"/>
       <c r="X29" s="278"/>
@@ -14115,10 +14112,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="99" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C30" s="101" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D30" s="98" t="s">
         <v>36</v>
@@ -14160,7 +14157,7 @@
         <v>14125</v>
       </c>
       <c r="V30" s="126" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="W30" s="278"/>
       <c r="X30" s="278"/>
@@ -14181,7 +14178,7 @@
       </c>
       <c r="AF30" s="22"/>
       <c r="AG30" s="190" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="31" spans="1:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14189,13 +14186,13 @@
         <v>31</v>
       </c>
       <c r="B31" s="281" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C31" s="282" t="s">
         <v>137</v>
       </c>
       <c r="D31" s="283" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E31" s="288">
         <v>12000</v>
@@ -14234,7 +14231,7 @@
         <v>12325</v>
       </c>
       <c r="V31" s="289" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="W31" s="306"/>
       <c r="X31" s="306"/>
@@ -14263,13 +14260,13 @@
         <v>29</v>
       </c>
       <c r="B32" s="230" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C32" s="231" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D32" s="232" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E32" s="233">
         <v>12000</v>
@@ -14316,7 +14313,7 @@
         <v>5125</v>
       </c>
       <c r="V32" s="238" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="W32" s="305"/>
       <c r="X32" s="305"/>
@@ -14345,13 +14342,13 @@
         <v>30</v>
       </c>
       <c r="B33" s="297" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C33" s="298" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D33" s="268" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E33" s="269">
         <v>12000</v>
@@ -14392,7 +14389,7 @@
         <v>12125</v>
       </c>
       <c r="V33" s="289" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="W33" s="306"/>
       <c r="X33" s="306"/>
@@ -14421,10 +14418,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="219" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C34" s="220" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D34" s="100" t="s">
         <v>66</v>
@@ -14464,7 +14461,7 @@
         <v>13325</v>
       </c>
       <c r="V34" s="199" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="W34" s="355"/>
       <c r="X34" s="355"/>
@@ -14485,7 +14482,7 @@
       </c>
       <c r="AF34" s="201"/>
       <c r="AG34" s="190" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="35" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14581,7 +14578,7 @@
     </row>
     <row r="39" spans="1:33" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="148" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C39" s="205">
         <f>SUMIFS(U3:U34,AF3:AF34,1)</f>
@@ -14591,7 +14588,7 @@
     </row>
     <row r="40" spans="1:33" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="148" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C40" s="212">
         <f>IF((U36-SUMIF(L3:L34,"&gt;0",U3:U34)-C39)&gt;0,U36-SUMIF(L3:L34,"&gt;0",U3:U34)-C39,0)</f>
@@ -14665,8 +14662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012D2D09-7742-49BE-88CC-06136868BAF2}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="56" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+    <sheetView showGridLines="0" topLeftCell="W1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="56" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="20.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14707,7 +14704,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="374" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B1" s="375"/>
       <c r="D1" s="5" t="s">
@@ -14741,7 +14738,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>8</v>
@@ -14804,16 +14801,16 @@
         <v>27</v>
       </c>
       <c r="AD2" s="105" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AE2" s="8" t="s">
         <v>28</v>
       </c>
       <c r="AF2" s="166" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AG2" s="182" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -14827,7 +14824,7 @@
         <v>72</v>
       </c>
       <c r="D3" s="98" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E3" s="112">
         <f>15750+473+345</f>
@@ -14908,7 +14905,7 @@
         <v>74</v>
       </c>
       <c r="D4" s="98" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E4" s="112">
         <f>15600+312+319</f>
@@ -14983,13 +14980,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="98" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C5" s="98" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D5" s="145" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E5" s="112">
         <f>15141+303</f>
@@ -15056,13 +15053,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="98" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C6" s="98" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D6" s="98" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E6" s="112">
         <f>15141+379</f>
@@ -15110,7 +15107,7 @@
         <v>8512</v>
       </c>
       <c r="V6" s="41" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="W6" s="121"/>
       <c r="X6" s="121"/>
@@ -15137,7 +15134,7 @@
         <v>154</v>
       </c>
       <c r="D7" s="99" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E7" s="112">
         <v>13000</v>
@@ -15182,7 +15179,7 @@
         <v>3450</v>
       </c>
       <c r="V7" s="41" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="W7" s="121"/>
       <c r="X7" s="121"/>
@@ -15281,7 +15278,7 @@
     </row>
     <row r="11" spans="1:33" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="148" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C11" s="149">
         <f>SUMIFS(U2:U7,AF2:AF7,1)</f>
@@ -15292,7 +15289,7 @@
     </row>
     <row r="12" spans="1:33" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="148" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C12" s="149">
         <f>IF((U8-SUMIF(L2:L7,"&gt;0",U2:V7)-C11)&gt;0,U8-SUMIF(L2:L7,"&gt;0",U2:V7)-C11,0)</f>
@@ -15436,8 +15433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034D65E4-C91B-4E94-88A2-8CBF471DE0E8}">
   <dimension ref="A1:AH42"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="78" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="V1" zoomScaleNormal="100" zoomScaleSheetLayoutView="78" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="20.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15478,7 +15475,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="374" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B1" s="375"/>
       <c r="D1" s="5" t="s">
@@ -15512,7 +15509,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>8</v>
@@ -15575,16 +15572,16 @@
         <v>27</v>
       </c>
       <c r="AD2" s="105" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AE2" s="8" t="s">
         <v>28</v>
       </c>
       <c r="AF2" s="166" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AG2" s="182" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
@@ -15679,7 +15676,7 @@
         <v>96</v>
       </c>
       <c r="D4" s="98" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E4" s="112">
         <f>15000+450+309</f>
@@ -15802,7 +15799,7 @@
         <v>13929</v>
       </c>
       <c r="V5" s="126" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="W5" s="121"/>
       <c r="X5" s="121"/>
@@ -15876,7 +15873,7 @@
         <v>13468</v>
       </c>
       <c r="V6" s="119" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="W6" s="121"/>
       <c r="X6" s="121"/>
@@ -15895,7 +15892,7 @@
       </c>
       <c r="AF6" s="167"/>
       <c r="AG6" s="189" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -15969,7 +15966,7 @@
       </c>
       <c r="AF7" s="167"/>
       <c r="AG7" s="189" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -16050,7 +16047,7 @@
       </c>
       <c r="AF8" s="167"/>
       <c r="AG8" s="189" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -16129,7 +16126,7 @@
       </c>
       <c r="AF9" s="167"/>
       <c r="AG9" s="189" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -16208,7 +16205,7 @@
       </c>
       <c r="AF10" s="167"/>
       <c r="AG10" s="189" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -16216,10 +16213,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="99" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C11" s="101" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D11" s="98" t="s">
         <v>66</v>
@@ -16267,7 +16264,7 @@
         <v>8357</v>
       </c>
       <c r="V11" s="126" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="W11" s="121"/>
       <c r="X11" s="121"/>
@@ -16290,13 +16287,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="99" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C12" s="101" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D12" s="98" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E12" s="112">
         <v>12000</v>
@@ -16339,7 +16336,7 @@
         <v>12544</v>
       </c>
       <c r="V12" s="126" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="W12" s="121"/>
       <c r="X12" s="121"/>
@@ -16362,13 +16359,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="99" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C13" s="101" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D13" s="98" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E13" s="112">
         <v>13000</v>
@@ -16413,7 +16410,7 @@
         <v>10661</v>
       </c>
       <c r="V13" s="126" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="W13" s="121"/>
       <c r="X13" s="121"/>
@@ -16436,10 +16433,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="99" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C14" s="101" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D14" s="98" t="s">
         <v>36</v>
@@ -16485,7 +16482,7 @@
         <v>8100</v>
       </c>
       <c r="V14" s="126" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="W14" s="121"/>
       <c r="X14" s="121"/>
@@ -16502,7 +16499,7 @@
       </c>
       <c r="AF14" s="167"/>
       <c r="AG14" s="188" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16510,13 +16507,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="99" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C15" s="101" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D15" s="98" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E15" s="112">
         <v>12000</v>
@@ -16561,7 +16558,7 @@
         <v>8050</v>
       </c>
       <c r="V15" s="126" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="W15" s="121"/>
       <c r="X15" s="121"/>
@@ -16578,7 +16575,7 @@
       </c>
       <c r="AF15" s="167"/>
       <c r="AG15" s="189" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="16" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16586,10 +16583,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="99" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C16" s="101" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D16" s="98" t="s">
         <v>45</v>
@@ -16631,7 +16628,7 @@
         <v>13700</v>
       </c>
       <c r="V16" s="126" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="W16" s="121"/>
       <c r="X16" s="121"/>
@@ -16648,7 +16645,7 @@
       </c>
       <c r="AF16" s="167"/>
       <c r="AG16" s="189" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16656,13 +16653,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="150" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C17" s="147" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D17" s="140" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E17" s="151">
         <v>12000</v>
@@ -16709,7 +16706,7 @@
         <v>5394</v>
       </c>
       <c r="V17" s="222" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="W17" s="223"/>
       <c r="X17" s="223">
@@ -16738,10 +16735,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="99" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C18" s="101" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D18" s="98" t="s">
         <v>36</v>
@@ -16785,7 +16782,7 @@
         <v>3156</v>
       </c>
       <c r="V18" s="126" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="W18" s="121">
         <v>10</v>
@@ -16802,10 +16799,10 @@
       </c>
       <c r="AF18" s="167"/>
       <c r="AG18" s="189" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AH18" s="348" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -16813,10 +16810,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="230" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C19" s="231" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D19" s="232" t="s">
         <v>36</v>
@@ -16893,13 +16890,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="150" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C20" s="147" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D20" s="140" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E20" s="151">
         <v>12000</v>
@@ -16967,10 +16964,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="99" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C21" s="101" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D21" s="98" t="s">
         <v>66</v>
@@ -17014,7 +17011,7 @@
         <v>15333</v>
       </c>
       <c r="V21" s="126" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="W21" s="121"/>
       <c r="X21" s="121">
@@ -17033,7 +17030,7 @@
       </c>
       <c r="AF21" s="167"/>
       <c r="AG21" s="189" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -17041,13 +17038,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="99" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C22" s="101" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D22" s="98" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E22" s="112">
         <v>13500</v>
@@ -17084,7 +17081,7 @@
         <v>6750</v>
       </c>
       <c r="V22" s="126" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="W22" s="121">
         <v>15</v>
@@ -17101,10 +17098,10 @@
       </c>
       <c r="AF22" s="167"/>
       <c r="AG22" s="189" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AH22" s="348" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="23" spans="1:34" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -17189,10 +17186,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="99" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C24" s="101" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D24" s="98"/>
       <c r="E24" s="112">
@@ -17234,7 +17231,7 @@
         <v>11800</v>
       </c>
       <c r="V24" s="126" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="W24" s="121"/>
       <c r="X24" s="121"/>
@@ -17253,7 +17250,7 @@
       </c>
       <c r="AF24" s="167"/>
       <c r="AG24" s="188" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="25" spans="1:34" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -17261,10 +17258,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="281" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C25" s="282" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D25" s="283"/>
       <c r="E25" s="284">
@@ -17308,7 +17305,7 @@
         <v>7560</v>
       </c>
       <c r="V25" s="289" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="W25" s="290"/>
       <c r="X25" s="290"/>
@@ -17333,10 +17330,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="99" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C26" s="101" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D26" s="98"/>
       <c r="E26" s="112">
@@ -17376,7 +17373,7 @@
         <v>14867</v>
       </c>
       <c r="V26" s="126" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="W26" s="121"/>
       <c r="X26" s="121"/>
@@ -17393,7 +17390,7 @@
       </c>
       <c r="AF26" s="167"/>
       <c r="AG26" s="188" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="27" spans="1:34" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -17401,10 +17398,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="219" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C27" s="220" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D27" s="100"/>
       <c r="E27" s="127">
@@ -17450,7 +17447,7 @@
         <v>10206</v>
       </c>
       <c r="V27" s="199" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="W27" s="200"/>
       <c r="X27" s="200"/>
@@ -17467,7 +17464,7 @@
       </c>
       <c r="AF27" s="204"/>
       <c r="AG27" s="188" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="28" spans="1:34" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -17475,10 +17472,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="99" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C28" s="101" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D28" s="98"/>
       <c r="E28" s="112">
@@ -17520,7 +17517,7 @@
         <v>11300</v>
       </c>
       <c r="V28" s="126" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="W28" s="121"/>
       <c r="X28" s="121"/>
@@ -17537,7 +17534,7 @@
       </c>
       <c r="AF28" s="167"/>
       <c r="AG28" s="189" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="29" spans="1:34" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -17545,10 +17542,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="219" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C29" s="220" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D29" s="100"/>
       <c r="E29" s="127">
@@ -17588,7 +17585,7 @@
         <v>13800</v>
       </c>
       <c r="V29" s="199" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="W29" s="200"/>
       <c r="X29" s="200"/>
@@ -17605,7 +17602,7 @@
       </c>
       <c r="AF29" s="204"/>
       <c r="AG29" s="188" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="30" spans="1:34" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -17613,10 +17610,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="99" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C30" s="101" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D30" s="98"/>
       <c r="E30" s="112">
@@ -17658,7 +17655,7 @@
         <v>8600</v>
       </c>
       <c r="V30" s="126" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="W30" s="121"/>
       <c r="X30" s="121"/>
@@ -17677,7 +17674,7 @@
       </c>
       <c r="AF30" s="167"/>
       <c r="AG30" s="339" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="31" spans="1:34" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -17685,10 +17682,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="219" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C31" s="220" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D31" s="100"/>
       <c r="E31" s="127">
@@ -17728,7 +17725,7 @@
         <v>9800</v>
       </c>
       <c r="V31" s="349" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="W31" s="200"/>
       <c r="X31" s="200">
@@ -17749,7 +17746,7 @@
       </c>
       <c r="AF31" s="204"/>
       <c r="AG31" s="188" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="32" spans="1:34" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -17846,7 +17843,7 @@
     </row>
     <row r="36" spans="2:33" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="148" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C36" s="205">
         <f>SUMIFS(U2:U31,AF2:AF31,1)</f>
@@ -17859,7 +17856,7 @@
     </row>
     <row r="37" spans="2:33" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="148" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C37" s="212">
         <f>IF((U33-SUMIF(L3:L31,"&gt;0",U3:U31)-C36)&gt;0,U33-SUMIF(L3:L31,"&gt;0",U3:U31)-C36,0)</f>
@@ -17936,8 +17933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F691C9-CDB2-4271-8E94-2D02EB93E3B1}">
   <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A15" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView showGridLines="0" topLeftCell="A11" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -18010,7 +18007,7 @@
         <v>112</v>
       </c>
       <c r="C4" s="60" t="s">
-        <v>190</v>
+        <v>406</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -18021,7 +18018,7 @@
         <v>113</v>
       </c>
       <c r="C5" s="60">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -18036,7 +18033,7 @@
       </c>
       <c r="C6" s="60" t="str">
         <f ca="1">IF(VLOOKUP(C5,INDIRECT(C4&amp;"!A3:AZ51"),2)=0,"-",VLOOKUP(C5,INDIRECT(C4&amp;"!A3:AZ51"),2))</f>
-        <v>น.ส นภัส เนตรสว่าง</v>
+        <v>นางสาว รัชนี รอดภิบัติ</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -18048,7 +18045,7 @@
       </c>
       <c r="C7" s="60" t="str">
         <f ca="1">IF(VLOOKUP(C5,INDIRECT(C4&amp;"!A3:AZ51"),4)=0,"-",VLOOKUP(C5,INDIRECT(C4&amp;"!A3:AZ51"),4))</f>
-        <v>บริการ</v>
+        <v>ครัวกลาง</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -18103,7 +18100,7 @@
       </c>
       <c r="C11" s="75">
         <f ca="1">VLOOKUP(C5,INDIRECT(C4&amp;"!A3:AZ51"),5)</f>
-        <v>12000</v>
+        <v>16568</v>
       </c>
       <c r="D11" s="76"/>
       <c r="E11" s="77"/>
@@ -18134,9 +18131,9 @@
       <c r="B12" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="75" t="str">
+      <c r="C12" s="75">
         <f ca="1">IF(VLOOKUP(C5,INDIRECT(C4&amp;"!A3:AZ51"),6)=0,"-",VLOOKUP(C5,INDIRECT(C4&amp;"!A3:AZ51"),6))</f>
-        <v>-</v>
+        <v>1500</v>
       </c>
       <c r="D12" s="71"/>
       <c r="F12" s="74" t="s">
@@ -18144,7 +18141,7 @@
       </c>
       <c r="G12" s="75">
         <f ca="1">IF(VLOOKUP(C5,INDIRECT(C4&amp;"!A3:AZ51"),12)=0,"-",VLOOKUP(C5,INDIRECT(C4&amp;"!A3:AZ51"),12))</f>
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="H12" s="77"/>
       <c r="I12" s="70"/>
@@ -18168,7 +18165,7 @@
       </c>
       <c r="C13" s="75">
         <f ca="1">IF(VLOOKUP(C5,INDIRECT(C4&amp;"!A3:AZ51"),7)=0,"-",VLOOKUP(C5,INDIRECT(C4&amp;"!A3:AZ51"),7))</f>
-        <v>800</v>
+        <v>552.26666666666665</v>
       </c>
       <c r="D13" s="71"/>
       <c r="F13" s="74" t="s">
@@ -18184,9 +18181,9 @@
       <c r="K13" s="74" t="s">
         <v>123</v>
       </c>
-      <c r="L13" s="77">
+      <c r="L13" s="77" t="str">
         <f ca="1">IF(VLOOKUP(C5,INDIRECT(C4&amp;"!A3:AZ51"),25)=0,"-",VLOOKUP(C5,INDIRECT(C4&amp;"!A3:AZ51"),25))</f>
-        <v>2.5</v>
+        <v>-</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>99</v>
@@ -18198,9 +18195,9 @@
       <c r="B14" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="C14" s="75">
+      <c r="C14" s="75" t="str">
         <f ca="1">IF(VLOOKUP(C5,INDIRECT(C4&amp;"!A3:AZ51"),8)=0,"-",VLOOKUP(C5,INDIRECT(C4&amp;"!A3:AZ51"),8))</f>
-        <v>225</v>
+        <v>-</v>
       </c>
       <c r="D14" s="71"/>
       <c r="F14" s="74" t="s">
@@ -18216,9 +18213,9 @@
       <c r="K14" s="74" t="s">
         <v>125</v>
       </c>
-      <c r="L14" s="77" t="str">
+      <c r="L14" s="77">
         <f ca="1">IF(VLOOKUP(C5,INDIRECT(C4&amp;"!A3:AZ51"),26)=0,"-",VLOOKUP(C5,INDIRECT(C4&amp;"!A3:AZ51"),26))</f>
-        <v>-</v>
+        <v>2</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>99</v>
@@ -18228,19 +18225,19 @@
     <row r="15" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="70"/>
       <c r="B15" s="74" t="s">
-        <v>180</v>
-      </c>
-      <c r="C15" s="75">
+        <v>179</v>
+      </c>
+      <c r="C15" s="75" t="str">
         <f ca="1">IF(VLOOKUP(C5,INDIRECT(C4&amp;"!A3:AZ51"),9)=0,"-",VLOOKUP(C5,INDIRECT(C4&amp;"!A3:AZ51"),9))</f>
-        <v>150</v>
+        <v>-</v>
       </c>
       <c r="D15" s="71"/>
       <c r="F15" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="75" t="str">
+      <c r="G15" s="75">
         <f ca="1">IF(VLOOKUP(C5,INDIRECT(C4&amp;"!A3:AZ51"),18)=0,"-",VLOOKUP(C5,INDIRECT(C4&amp;"!A3:AZ51"),18))</f>
-        <v>-</v>
+        <v>1104.5333333333333</v>
       </c>
       <c r="H15" s="77"/>
       <c r="I15" s="70"/>
@@ -18248,9 +18245,9 @@
       <c r="K15" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="L15" s="77" t="str">
+      <c r="L15" s="77">
         <f ca="1">IF(VLOOKUP(C5,INDIRECT(C4&amp;"!A3:AZ51"),27)=0,"-",VLOOKUP(C5,INDIRECT(C4&amp;"!A3:AZ51"),27))</f>
-        <v>-</v>
+        <v>4</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>99</v>
@@ -18270,9 +18267,9 @@
       <c r="F16" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="75" t="str">
+      <c r="G16" s="75">
         <f ca="1">IF(VLOOKUP(C5,INDIRECT(C4&amp;"!A3:AZ51"),16)=0,"-",VLOOKUP(C5,INDIRECT(C4&amp;"!A3:AZ51"),16))</f>
-        <v>-</v>
+        <v>3441</v>
       </c>
       <c r="H16" s="77"/>
       <c r="I16" s="70"/>
@@ -18282,7 +18279,7 @@
       </c>
       <c r="L16" s="77">
         <f ca="1">IF(VLOOKUP(C5,INDIRECT(C4&amp;"!A3:AZ51"),28)=0,"-",VLOOKUP(C5,INDIRECT(C4&amp;"!A3:AZ51"),28))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>99</v>
@@ -18296,7 +18293,7 @@
       </c>
       <c r="C17" s="75">
         <f ca="1">IF(VLOOKUP(C5,INDIRECT(C4&amp;"!A3:AZ51"),15)=0,"-",VLOOKUP(C5,INDIRECT(C4&amp;"!A3:AZ51"),15))</f>
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="D17" s="71"/>
       <c r="F17" s="74" t="s">
@@ -18312,9 +18309,9 @@
       <c r="K17" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="L17" s="77">
+      <c r="L17" s="77" t="str">
         <f ca="1">IF(VLOOKUP(C5,INDIRECT(C4&amp;"!A3:AZ51"),29)=0,"-",VLOOKUP(C5,INDIRECT(C4&amp;"!A3:AZ51"),29))</f>
-        <v>3</v>
+        <v>-</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>128</v>
@@ -18335,11 +18332,11 @@
       <c r="I18" s="70"/>
       <c r="J18" s="70"/>
       <c r="K18" s="74" t="s">
-        <v>181</v>
-      </c>
-      <c r="L18" s="77">
+        <v>180</v>
+      </c>
+      <c r="L18" s="77" t="str">
         <f ca="1">IF(VLOOKUP(C5,INDIRECT(C4&amp;"!A3:AZ51"),30)=0,"-",VLOOKUP(C5,INDIRECT(C4&amp;"!A3:AZ51"),30))</f>
-        <v>1</v>
+        <v>-</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>128</v>
@@ -18384,7 +18381,7 @@
       </c>
       <c r="C21" s="85">
         <f ca="1">SUM(C11:C20)</f>
-        <v>14175</v>
+        <v>21420.266666666666</v>
       </c>
       <c r="D21" s="86"/>
       <c r="E21" s="83"/>
@@ -18393,7 +18390,7 @@
       </c>
       <c r="G21" s="87">
         <f ca="1">SUM(G11:G16)</f>
-        <v>600</v>
+        <v>5295.5333333333328</v>
       </c>
       <c r="H21" s="88"/>
       <c r="I21" s="70"/>
@@ -18404,7 +18401,7 @@
       <c r="B22" s="90"/>
       <c r="C22" s="91">
         <f ca="1">SUM(C12:C21)</f>
-        <v>16350</v>
+        <v>26272.533333333333</v>
       </c>
       <c r="D22" s="82"/>
       <c r="E22" s="80"/>
@@ -18420,7 +18417,7 @@
       </c>
       <c r="C23" s="85">
         <f ca="1">IF(VLOOKUP(C5,INDIRECT(C4&amp;"!A3:AZ51"),21)=0,"-",VLOOKUP(C5,INDIRECT(C4&amp;"!A3:AZ51"),21))</f>
-        <v>13575</v>
+        <v>16125</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="5.45" customHeight="1" x14ac:dyDescent="0.45">
@@ -18514,6 +18511,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -18521,8 +18519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D08DD7D5-4FF8-404F-91B4-AEC3E56C51ED}">
   <dimension ref="A1:W73"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView topLeftCell="I9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="27" x14ac:dyDescent="0.6"/>
@@ -18554,7 +18552,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="30.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="334" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C1" s="169"/>
       <c r="D1" s="170"/>
@@ -18569,67 +18567,67 @@
         <v>0</v>
       </c>
       <c r="B2" s="171" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C2" s="171" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="171" t="s">
+        <v>241</v>
+      </c>
+      <c r="E2" s="171" t="s">
+        <v>242</v>
+      </c>
+      <c r="G2" s="171" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="171" t="s">
         <v>243</v>
-      </c>
-      <c r="E2" s="171" t="s">
-        <v>244</v>
-      </c>
-      <c r="G2" s="171" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="171" t="s">
-        <v>245</v>
       </c>
       <c r="I2" s="171" t="s">
         <v>2</v>
       </c>
       <c r="J2" s="171" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K2" s="171" t="s">
+        <v>242</v>
+      </c>
+      <c r="M2" s="171" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="171" t="s">
         <v>244</v>
-      </c>
-      <c r="M2" s="171" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="171" t="s">
-        <v>246</v>
       </c>
       <c r="O2" s="171" t="s">
         <v>2</v>
       </c>
       <c r="P2" s="171" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="Q2" s="171" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="S2" s="171" t="s">
         <v>0</v>
       </c>
       <c r="T2" s="171" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="U2" s="171" t="s">
         <v>2</v>
       </c>
       <c r="V2" s="171" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="W2" s="171" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="172" cm="1">
         <f t="array" ref="A3:A32">Tableram[ลำดับ]</f>
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="B3" s="335" t="str" cm="1">
         <f t="array" ref="B3:B32">Tableram[ชื่อ-นามสกุล]</f>

--- a/5.68.xlsx
+++ b/5.68.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\wit\slipper_rework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/littlebirdd/Desktop/project/slipper_rework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDE163E-6D47-4472-B415-1D13BFAAF20C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBDECC6-66BF-3B4C-A831-8FC55A1F7C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="34200" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dรามอินทรา" sheetId="16" r:id="rId1"/>
@@ -513,7 +513,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="382">
   <si>
     <t>ลำดับ</t>
   </si>
@@ -1659,6 +1659,9 @@
   </si>
   <si>
     <t>tunwit2458@gmail.com</t>
+  </si>
+  <si>
+    <t>namujlin@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1666,15 +1669,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="187" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="188" formatCode="0.0"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -1702,7 +1705,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -1736,7 +1739,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -1744,7 +1747,7 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1856,7 +1859,7 @@
       <u/>
       <sz val="18"/>
       <color theme="10"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -1920,7 +1923,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -2341,7 +2344,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="187" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="380">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2363,7 +2366,7 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2372,13 +2375,13 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2453,7 +2456,7 @@
     <xf numFmtId="4" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2471,7 +2474,7 @@
     <xf numFmtId="4" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2561,7 +2564,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2573,7 +2576,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2597,7 +2600,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2663,10 +2666,10 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2753,7 +2756,7 @@
     <xf numFmtId="2" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2762,13 +2765,13 @@
     <xf numFmtId="4" fontId="24" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="24" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2795,7 +2798,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2946,10 +2949,10 @@
     <xf numFmtId="4" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -3102,7 +3105,7 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3255,7 +3258,7 @@
     <xf numFmtId="0" fontId="22" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="24" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3276,7 +3279,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3384,28 +3387,28 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="5" fillId="11" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="11" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="5" fillId="9" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="9" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8552,8 +8555,8 @@
     <v>QR Promtpay</v>
   </rv>
   <rv s="1">
-    <v>9</v>
-    <v>0</v>
+    <v>10</v>
+    <v>12</v>
   </rv>
   <rv s="0">
     <v>33</v>
@@ -9150,33 +9153,33 @@
       <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.5" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.5" defaultRowHeight="22.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="29" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.875" style="46" customWidth="1"/>
-    <col min="17" max="20" width="10.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.83203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.83203125" style="46" customWidth="1"/>
+    <col min="17" max="20" width="10.83203125" style="1" customWidth="1"/>
     <col min="21" max="21" width="12.5" style="1" customWidth="1"/>
-    <col min="22" max="22" width="33.375" style="1" customWidth="1"/>
-    <col min="23" max="27" width="10.875" style="5" customWidth="1"/>
-    <col min="28" max="28" width="9.25" style="5" customWidth="1"/>
-    <col min="29" max="29" width="12.25" style="5" customWidth="1"/>
+    <col min="22" max="22" width="33.33203125" style="1" customWidth="1"/>
+    <col min="23" max="27" width="10.83203125" style="5" customWidth="1"/>
+    <col min="28" max="28" width="9.1640625" style="5" customWidth="1"/>
+    <col min="29" max="29" width="12.1640625" style="5" customWidth="1"/>
     <col min="30" max="30" width="18.5" style="104" customWidth="1"/>
-    <col min="31" max="32" width="9.125" style="1" customWidth="1"/>
-    <col min="33" max="33" width="19.375" style="1" customWidth="1"/>
+    <col min="31" max="32" width="9.1640625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="19.33203125" style="1" customWidth="1"/>
     <col min="34" max="16384" width="7.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="31.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" ht="31.25" customHeight="1">
       <c r="A1" s="372" t="s">
         <v>363</v>
       </c>
       <c r="B1" s="373"/>
     </row>
-    <row r="2" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" ht="22" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -9277,7 +9280,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" ht="22" customHeight="1">
       <c r="A3" s="102">
         <v>100</v>
       </c>
@@ -9357,7 +9360,7 @@
       <c r="AF3" s="22"/>
       <c r="AG3" s="185"/>
     </row>
-    <row r="4" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" ht="22" customHeight="1">
       <c r="A4" s="102">
         <v>2</v>
       </c>
@@ -9430,7 +9433,7 @@
       <c r="AF4" s="22"/>
       <c r="AG4" s="182"/>
     </row>
-    <row r="5" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" ht="22" customHeight="1">
       <c r="A5" s="102">
         <v>3</v>
       </c>
@@ -9511,7 +9514,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" ht="22" customHeight="1">
       <c r="A6" s="102">
         <v>4</v>
       </c>
@@ -9590,7 +9593,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:33" ht="22" customHeight="1">
       <c r="A7" s="102">
         <v>5</v>
       </c>
@@ -9671,7 +9674,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" ht="22" customHeight="1">
       <c r="A8" s="102">
         <v>6</v>
       </c>
@@ -9750,7 +9753,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" ht="22" customHeight="1">
       <c r="A9" s="102">
         <v>7</v>
       </c>
@@ -9827,7 +9830,7 @@
       <c r="AF9" s="22"/>
       <c r="AG9" s="185"/>
     </row>
-    <row r="10" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" ht="22" customHeight="1">
       <c r="A10" s="102">
         <v>8</v>
       </c>
@@ -9905,7 +9908,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="11" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" ht="22" customHeight="1">
       <c r="A11" s="102">
         <v>9</v>
       </c>
@@ -9981,7 +9984,7 @@
       <c r="AF11" s="22"/>
       <c r="AG11" s="182"/>
     </row>
-    <row r="12" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" ht="22" customHeight="1">
       <c r="A12" s="102">
         <v>10</v>
       </c>
@@ -10062,7 +10065,7 @@
       <c r="AF12" s="22"/>
       <c r="AG12" s="182"/>
     </row>
-    <row r="13" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" ht="22" customHeight="1">
       <c r="A13" s="102">
         <v>11</v>
       </c>
@@ -10140,7 +10143,7 @@
       <c r="AF13" s="22"/>
       <c r="AG13" s="185"/>
     </row>
-    <row r="14" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" ht="22" customHeight="1">
       <c r="A14" s="102">
         <v>12</v>
       </c>
@@ -10215,7 +10218,7 @@
       <c r="AF14" s="22"/>
       <c r="AG14" s="182"/>
     </row>
-    <row r="15" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:33" ht="22" customHeight="1">
       <c r="A15" s="102">
         <v>13</v>
       </c>
@@ -10292,7 +10295,7 @@
       </c>
       <c r="AG15" s="252"/>
     </row>
-    <row r="16" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" ht="22" customHeight="1">
       <c r="A16" s="102">
         <v>14</v>
       </c>
@@ -10368,7 +10371,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:33" ht="22" customHeight="1">
       <c r="A17" s="102">
         <v>15</v>
       </c>
@@ -10447,7 +10450,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:33" ht="22" customHeight="1">
       <c r="A18" s="102">
         <v>16</v>
       </c>
@@ -10523,7 +10526,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:33" ht="22" customHeight="1">
       <c r="A19" s="102">
         <v>17</v>
       </c>
@@ -10599,7 +10602,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="20" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:33" ht="22" customHeight="1">
       <c r="A20" s="102">
         <v>18</v>
       </c>
@@ -10673,7 +10676,7 @@
       <c r="AF20" s="22"/>
       <c r="AG20" s="182"/>
     </row>
-    <row r="21" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:33" ht="22" customHeight="1">
       <c r="A21" s="102">
         <v>19</v>
       </c>
@@ -10749,7 +10752,7 @@
       <c r="AF21" s="22"/>
       <c r="AG21" s="185"/>
     </row>
-    <row r="22" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:33" ht="22" customHeight="1">
       <c r="A22" s="102">
         <v>20</v>
       </c>
@@ -10827,7 +10830,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="23" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:33" ht="22" customHeight="1">
       <c r="A23" s="102">
         <v>21</v>
       </c>
@@ -10905,7 +10908,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="24" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:33" ht="22" customHeight="1">
       <c r="A24" s="102">
         <v>22</v>
       </c>
@@ -10985,7 +10988,7 @@
       <c r="AF24" s="22"/>
       <c r="AG24" s="185"/>
     </row>
-    <row r="25" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:33" ht="22" customHeight="1">
       <c r="A25" s="102">
         <v>23</v>
       </c>
@@ -11057,7 +11060,7 @@
       </c>
       <c r="AG25" s="252"/>
     </row>
-    <row r="26" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:33" ht="22" customHeight="1">
       <c r="A26" s="102">
         <v>24</v>
       </c>
@@ -11133,7 +11136,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="27" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:33" ht="22" customHeight="1">
       <c r="A27" s="102">
         <v>25</v>
       </c>
@@ -11209,7 +11212,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="28" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:33" ht="22" customHeight="1">
       <c r="A28" s="102">
         <v>26</v>
       </c>
@@ -11283,7 +11286,7 @@
       <c r="AF28" s="22"/>
       <c r="AG28" s="182"/>
     </row>
-    <row r="29" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:33" ht="22" customHeight="1">
       <c r="A29" s="102">
         <v>27</v>
       </c>
@@ -11363,7 +11366,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="30" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:33" ht="22" customHeight="1">
       <c r="A30" s="102">
         <v>28</v>
       </c>
@@ -11437,7 +11440,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="31" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:33" ht="22" customHeight="1">
       <c r="A31" s="102">
         <v>29</v>
       </c>
@@ -11509,7 +11512,7 @@
       </c>
       <c r="AG31" s="252"/>
     </row>
-    <row r="32" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:33" ht="22" customHeight="1">
       <c r="A32" s="102">
         <v>30</v>
       </c>
@@ -11583,7 +11586,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="33" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:33" ht="22" customHeight="1">
       <c r="A33" s="5"/>
       <c r="B33" s="314"/>
       <c r="C33" s="256"/>
@@ -11610,7 +11613,7 @@
       <c r="AF33" s="20"/>
       <c r="AG33" s="185"/>
     </row>
-    <row r="34" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:33" ht="22" customHeight="1">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5" t="s">
@@ -11664,10 +11667,10 @@
       <c r="AE34" s="5"/>
       <c r="AF34" s="5"/>
     </row>
-    <row r="35" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:33" ht="22" customHeight="1">
       <c r="H35" s="137"/>
     </row>
-    <row r="36" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:33" ht="22" customHeight="1">
       <c r="B36" s="148" t="s">
         <v>115</v>
       </c>
@@ -11680,7 +11683,7 @@
         <v>158981</v>
       </c>
     </row>
-    <row r="37" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:33" ht="22" customHeight="1">
       <c r="B37" s="148" t="s">
         <v>202</v>
       </c>
@@ -11689,7 +11692,7 @@
         <v>37831</v>
       </c>
     </row>
-    <row r="38" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:33" ht="22" customHeight="1">
       <c r="B38" s="148" t="s">
         <v>203</v>
       </c>
@@ -11706,7 +11709,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="1:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:33" ht="22.5" customHeight="1">
       <c r="D39" s="89">
         <f>D38-C38</f>
         <v>0</v>
@@ -11770,47 +11773,46 @@
       <selection activeCell="AD15" sqref="AD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="20.45" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="20.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.25" style="5" customWidth="1"/>
-    <col min="2" max="2" width="27.375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="13.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="5" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" style="5" customWidth="1"/>
     <col min="6" max="6" width="10.5" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="6" customWidth="1"/>
-    <col min="8" max="9" width="13.75" style="7" customWidth="1"/>
-    <col min="10" max="10" width="12.25" style="7" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="6" customWidth="1"/>
+    <col min="8" max="9" width="13.6640625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" style="7" customWidth="1"/>
     <col min="11" max="11" width="13.5" style="7" customWidth="1"/>
-    <col min="12" max="12" width="10.375" style="7" customWidth="1"/>
-    <col min="13" max="13" width="11.875" style="7" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="11.83203125" style="7" customWidth="1"/>
     <col min="14" max="14" width="10.5" style="7" customWidth="1"/>
-    <col min="15" max="15" width="9.625" style="6" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" style="6" customWidth="1"/>
     <col min="16" max="16" width="11.5" style="6" customWidth="1"/>
-    <col min="17" max="17" width="9.75" style="6" customWidth="1"/>
-    <col min="18" max="18" width="12.25" style="6" customWidth="1"/>
-    <col min="19" max="20" width="11.75" style="6" customWidth="1"/>
-    <col min="21" max="21" width="17.375" style="6" customWidth="1"/>
-    <col min="22" max="22" width="38.25" style="5" customWidth="1"/>
-    <col min="23" max="23" width="9.125" style="5" customWidth="1"/>
-    <col min="24" max="26" width="9.25" style="5" customWidth="1"/>
-    <col min="27" max="27" width="10.875" style="5" customWidth="1"/>
-    <col min="28" max="28" width="9.25" style="5" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="12.1640625" style="6" customWidth="1"/>
+    <col min="19" max="20" width="11.6640625" style="6" customWidth="1"/>
+    <col min="21" max="21" width="17.33203125" style="6" customWidth="1"/>
+    <col min="22" max="22" width="38.1640625" style="5" customWidth="1"/>
+    <col min="23" max="26" width="9.1640625" style="5" customWidth="1"/>
+    <col min="27" max="27" width="10.83203125" style="5" customWidth="1"/>
+    <col min="28" max="28" width="9.1640625" style="5" customWidth="1"/>
     <col min="29" max="29" width="13.5" style="5" customWidth="1"/>
-    <col min="30" max="30" width="17.375" style="104" customWidth="1"/>
-    <col min="31" max="31" width="9.25" style="5" customWidth="1"/>
-    <col min="32" max="32" width="9.125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="17.33203125" style="104" customWidth="1"/>
+    <col min="31" max="31" width="9.1640625" style="5" customWidth="1"/>
+    <col min="32" max="32" width="9.1640625" style="1" customWidth="1"/>
     <col min="33" max="33" width="17.5" style="5" customWidth="1"/>
-    <col min="34" max="16384" width="9.25" style="5"/>
+    <col min="34" max="16384" width="9.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" ht="20.5" customHeight="1">
       <c r="A1" s="372" t="s">
         <v>363</v>
       </c>
       <c r="B1" s="373"/>
     </row>
-    <row r="2" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" ht="22" customHeight="1">
       <c r="A2" s="163" t="s">
         <v>0</v>
       </c>
@@ -11911,7 +11913,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" ht="22" customHeight="1">
       <c r="A3" s="164">
         <v>1</v>
       </c>
@@ -11990,7 +11992,7 @@
       <c r="AF3" s="22"/>
       <c r="AG3" s="183"/>
     </row>
-    <row r="4" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" ht="22" customHeight="1">
       <c r="A4" s="164">
         <v>2</v>
       </c>
@@ -12075,7 +12077,7 @@
       <c r="AF4" s="22"/>
       <c r="AG4" s="184"/>
     </row>
-    <row r="5" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" ht="22" customHeight="1">
       <c r="A5" s="164">
         <v>3</v>
       </c>
@@ -12156,7 +12158,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" ht="22" customHeight="1">
       <c r="A6" s="164">
         <v>4</v>
       </c>
@@ -12232,7 +12234,7 @@
       <c r="AF6" s="22"/>
       <c r="AG6" s="186"/>
     </row>
-    <row r="7" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" ht="22" customHeight="1">
       <c r="A7" s="164">
         <v>5</v>
       </c>
@@ -12311,7 +12313,7 @@
       <c r="AF7" s="22"/>
       <c r="AG7" s="186"/>
     </row>
-    <row r="8" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" ht="22" customHeight="1">
       <c r="A8" s="164">
         <v>6</v>
       </c>
@@ -12394,7 +12396,7 @@
       <c r="AF8" s="22"/>
       <c r="AG8" s="186"/>
     </row>
-    <row r="9" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" ht="22" customHeight="1">
       <c r="A9" s="164">
         <v>7</v>
       </c>
@@ -12470,7 +12472,7 @@
       <c r="AF9" s="22"/>
       <c r="AG9" s="186"/>
     </row>
-    <row r="10" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" ht="22" customHeight="1">
       <c r="A10" s="164">
         <v>8</v>
       </c>
@@ -12548,7 +12550,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="11" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" ht="22" customHeight="1">
       <c r="A11" s="164">
         <v>9</v>
       </c>
@@ -12622,7 +12624,7 @@
       <c r="AF11" s="22"/>
       <c r="AG11" s="186"/>
     </row>
-    <row r="12" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" ht="21.75" customHeight="1">
       <c r="A12" s="164">
         <v>10</v>
       </c>
@@ -12698,7 +12700,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="13" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" ht="21.75" customHeight="1">
       <c r="A13" s="164">
         <v>11</v>
       </c>
@@ -12776,7 +12778,7 @@
       <c r="AF13" s="22"/>
       <c r="AG13" s="186"/>
     </row>
-    <row r="14" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" ht="21.75" customHeight="1">
       <c r="A14" s="164">
         <v>12</v>
       </c>
@@ -12857,7 +12859,7 @@
       <c r="AF14" s="22"/>
       <c r="AG14" s="186"/>
     </row>
-    <row r="15" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" ht="21.75" customHeight="1">
       <c r="A15" s="164">
         <v>13</v>
       </c>
@@ -12939,7 +12941,7 @@
       <c r="AF15" s="22"/>
       <c r="AG15" s="184"/>
     </row>
-    <row r="16" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" ht="21.75" customHeight="1">
       <c r="A16" s="164">
         <v>14</v>
       </c>
@@ -13018,7 +13020,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="17" spans="1:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34" ht="21.75" customHeight="1">
       <c r="A17" s="220">
         <v>15</v>
       </c>
@@ -13097,7 +13099,7 @@
       <c r="AG17" s="227"/>
       <c r="AH17" s="104"/>
     </row>
-    <row r="18" spans="1:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:34" ht="21.75" customHeight="1">
       <c r="A18" s="164">
         <v>16</v>
       </c>
@@ -13175,7 +13177,7 @@
       <c r="AF18" s="22"/>
       <c r="AG18" s="186"/>
     </row>
-    <row r="19" spans="1:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:34" ht="21.75" customHeight="1">
       <c r="A19" s="228">
         <v>17</v>
       </c>
@@ -13251,7 +13253,7 @@
       </c>
       <c r="AG19" s="242"/>
     </row>
-    <row r="20" spans="1:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:34" ht="21.75" customHeight="1">
       <c r="A20" s="164">
         <v>18</v>
       </c>
@@ -13331,7 +13333,7 @@
       <c r="AF20" s="22"/>
       <c r="AG20" s="184"/>
     </row>
-    <row r="21" spans="1:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:34" ht="21.75" customHeight="1">
       <c r="A21" s="164">
         <v>19</v>
       </c>
@@ -13399,7 +13401,7 @@
       <c r="AF21" s="22"/>
       <c r="AG21" s="186"/>
     </row>
-    <row r="22" spans="1:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34" ht="21.75" customHeight="1">
       <c r="A22" s="164">
         <v>20</v>
       </c>
@@ -13475,7 +13477,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="23" spans="1:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:34" ht="21.75" customHeight="1">
       <c r="A23" s="220">
         <v>21</v>
       </c>
@@ -13555,7 +13557,7 @@
       </c>
       <c r="AG23" s="346"/>
     </row>
-    <row r="24" spans="1:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:34" ht="21.75" customHeight="1">
       <c r="A24" s="164">
         <v>22</v>
       </c>
@@ -13633,7 +13635,7 @@
       <c r="AF24" s="22"/>
       <c r="AG24" s="184"/>
     </row>
-    <row r="25" spans="1:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:34" ht="21.75" customHeight="1">
       <c r="A25" s="164">
         <v>23</v>
       </c>
@@ -13710,7 +13712,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="26" spans="1:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:34" ht="21.75" customHeight="1">
       <c r="A26" s="164">
         <v>24</v>
       </c>
@@ -13784,7 +13786,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="27" spans="1:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:34" ht="21.75" customHeight="1">
       <c r="A27" s="164">
         <v>25</v>
       </c>
@@ -13862,7 +13864,7 @@
       <c r="AF27" s="22"/>
       <c r="AG27" s="186"/>
     </row>
-    <row r="28" spans="1:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:34" ht="21.75" customHeight="1">
       <c r="A28" s="164">
         <v>26</v>
       </c>
@@ -13938,7 +13940,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="29" spans="1:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:34" ht="21.75" customHeight="1">
       <c r="A29" s="164">
         <v>27</v>
       </c>
@@ -14016,7 +14018,7 @@
       <c r="AF29" s="22"/>
       <c r="AG29" s="189"/>
     </row>
-    <row r="30" spans="1:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:34" ht="21.75" customHeight="1">
       <c r="A30" s="164">
         <v>28</v>
       </c>
@@ -14090,7 +14092,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="31" spans="1:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:34" ht="21.75" customHeight="1">
       <c r="A31" s="371">
         <v>31</v>
       </c>
@@ -14164,7 +14166,7 @@
       </c>
       <c r="AG31" s="294"/>
     </row>
-    <row r="32" spans="1:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:34" ht="21.75" customHeight="1">
       <c r="A32" s="228">
         <v>29</v>
       </c>
@@ -14246,7 +14248,7 @@
       </c>
       <c r="AG32" s="294"/>
     </row>
-    <row r="33" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:33" ht="21.75" customHeight="1">
       <c r="A33" s="266">
         <v>30</v>
       </c>
@@ -14322,7 +14324,7 @@
       </c>
       <c r="AG33" s="276"/>
     </row>
-    <row r="34" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:33" ht="21.75" customHeight="1">
       <c r="A34" s="298">
         <v>32</v>
       </c>
@@ -14394,7 +14396,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="35" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:33" ht="21.75" customHeight="1">
       <c r="B35" s="314"/>
       <c r="C35" s="256"/>
       <c r="D35" s="315"/>
@@ -14427,7 +14429,7 @@
       <c r="AF35" s="200"/>
       <c r="AG35" s="352"/>
     </row>
-    <row r="36" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:33" ht="21.75" customHeight="1">
       <c r="B36" s="18"/>
       <c r="E36" s="47">
         <f>SUM(E3:E25)</f>
@@ -14469,10 +14471,10 @@
       </c>
       <c r="AF36" s="22"/>
     </row>
-    <row r="37" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:33" ht="22" customHeight="1">
       <c r="AF37" s="5"/>
     </row>
-    <row r="38" spans="1:33" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:33" ht="20.5" customHeight="1">
       <c r="B38" s="148" t="s">
         <v>115</v>
       </c>
@@ -14485,7 +14487,7 @@
         <v>208225</v>
       </c>
     </row>
-    <row r="39" spans="1:33" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:33" ht="20.5" customHeight="1">
       <c r="B39" s="148" t="s">
         <v>202</v>
       </c>
@@ -14495,7 +14497,7 @@
       </c>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:33" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:33" ht="20.5" customHeight="1">
       <c r="B40" s="148" t="s">
         <v>203</v>
       </c>
@@ -14516,7 +14518,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="1:33" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:33" ht="20.5" customHeight="1">
       <c r="D41" s="6">
         <f>D40-C40</f>
         <v>20380</v>
@@ -14575,43 +14577,43 @@
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="20.45" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="20.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11" style="5" customWidth="1"/>
-    <col min="2" max="2" width="27.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" style="5" customWidth="1"/>
     <col min="3" max="3" width="17" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="19.125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="15.875" style="6" customWidth="1"/>
-    <col min="8" max="9" width="13.75" style="7" customWidth="1"/>
-    <col min="10" max="10" width="12.25" style="7" customWidth="1"/>
-    <col min="11" max="11" width="12.375" style="7" customWidth="1"/>
-    <col min="12" max="12" width="7.75" style="7" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" style="6" customWidth="1"/>
+    <col min="8" max="9" width="13.6640625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" style="7" customWidth="1"/>
     <col min="13" max="13" width="12.5" style="7" customWidth="1"/>
-    <col min="14" max="14" width="12.25" style="7" customWidth="1"/>
-    <col min="15" max="15" width="13.125" style="6" customWidth="1"/>
-    <col min="16" max="16" width="10.875" style="6" customWidth="1"/>
-    <col min="17" max="17" width="11.375" style="6" customWidth="1"/>
-    <col min="18" max="18" width="13.375" style="6" customWidth="1"/>
-    <col min="19" max="20" width="11.75" style="6" customWidth="1"/>
-    <col min="21" max="21" width="15.125" style="6" customWidth="1"/>
-    <col min="22" max="22" width="27.25" style="5" customWidth="1"/>
-    <col min="23" max="23" width="9.75" style="5" customWidth="1"/>
-    <col min="24" max="24" width="9.875" style="5" customWidth="1"/>
-    <col min="25" max="25" width="10.625" style="5" customWidth="1"/>
-    <col min="26" max="26" width="9.625" style="5" customWidth="1"/>
-    <col min="27" max="27" width="12.625" style="5" customWidth="1"/>
-    <col min="28" max="28" width="9.25" style="5" customWidth="1"/>
+    <col min="14" max="14" width="12.1640625" style="7" customWidth="1"/>
+    <col min="15" max="15" width="13.1640625" style="6" customWidth="1"/>
+    <col min="16" max="16" width="10.83203125" style="6" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" style="6" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" style="6" customWidth="1"/>
+    <col min="19" max="20" width="11.6640625" style="6" customWidth="1"/>
+    <col min="21" max="21" width="15.1640625" style="6" customWidth="1"/>
+    <col min="22" max="22" width="27.1640625" style="5" customWidth="1"/>
+    <col min="23" max="23" width="9.6640625" style="5" customWidth="1"/>
+    <col min="24" max="24" width="9.83203125" style="5" customWidth="1"/>
+    <col min="25" max="25" width="10.6640625" style="5" customWidth="1"/>
+    <col min="26" max="26" width="9.6640625" style="5" customWidth="1"/>
+    <col min="27" max="27" width="12.6640625" style="5" customWidth="1"/>
+    <col min="28" max="28" width="9.1640625" style="5" customWidth="1"/>
     <col min="29" max="29" width="15.5" style="5" customWidth="1"/>
     <col min="30" max="30" width="19.5" style="104" customWidth="1"/>
-    <col min="31" max="31" width="9.25" style="5" customWidth="1"/>
-    <col min="32" max="32" width="8.75" style="1" customWidth="1"/>
-    <col min="33" max="33" width="15.875" style="5" customWidth="1"/>
-    <col min="34" max="16384" width="9.25" style="5"/>
+    <col min="31" max="31" width="9.1640625" style="5" customWidth="1"/>
+    <col min="32" max="32" width="8.6640625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="15.83203125" style="5" customWidth="1"/>
+    <col min="34" max="16384" width="9.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" ht="22" customHeight="1">
       <c r="A1" s="372" t="s">
         <v>363</v>
       </c>
@@ -14621,7 +14623,7 @@
       </c>
       <c r="AF1" s="5"/>
     </row>
-    <row r="2" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" ht="22" customHeight="1">
       <c r="A2" s="163" t="s">
         <v>0</v>
       </c>
@@ -14722,7 +14724,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" ht="22" customHeight="1">
       <c r="A3" s="164">
         <v>1</v>
       </c>
@@ -14803,7 +14805,7 @@
       <c r="AF3" s="166"/>
       <c r="AG3" s="187"/>
     </row>
-    <row r="4" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" ht="22" customHeight="1">
       <c r="A4" s="164">
         <v>3</v>
       </c>
@@ -14884,7 +14886,7 @@
       <c r="AF4" s="166"/>
       <c r="AG4" s="187"/>
     </row>
-    <row r="5" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" ht="22" customHeight="1">
       <c r="A5" s="164">
         <v>4</v>
       </c>
@@ -14957,7 +14959,7 @@
       <c r="AF5" s="166"/>
       <c r="AG5" s="187"/>
     </row>
-    <row r="6" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" ht="22" customHeight="1">
       <c r="A6" s="164">
         <v>5</v>
       </c>
@@ -15032,7 +15034,7 @@
       <c r="AF6" s="166"/>
       <c r="AG6" s="188"/>
     </row>
-    <row r="7" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" ht="22" customHeight="1">
       <c r="A7" s="164">
         <v>6</v>
       </c>
@@ -15104,7 +15106,7 @@
       <c r="AF7" s="166"/>
       <c r="AG7" s="187"/>
     </row>
-    <row r="8" spans="1:33" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" customFormat="1" ht="22" customHeight="1">
       <c r="A8" s="5"/>
       <c r="B8" s="18"/>
       <c r="C8" s="5"/>
@@ -15168,10 +15170,10 @@
       <c r="AE8" s="5"/>
       <c r="AF8" s="20"/>
     </row>
-    <row r="9" spans="1:33" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" ht="20.5" customHeight="1">
       <c r="AF9" s="20"/>
     </row>
-    <row r="10" spans="1:33" ht="34.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" ht="34.25" customHeight="1">
       <c r="B10" s="148" t="s">
         <v>115</v>
       </c>
@@ -15185,7 +15187,7 @@
       </c>
       <c r="AF10" s="20"/>
     </row>
-    <row r="11" spans="1:33" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" ht="20.5" customHeight="1">
       <c r="B11" s="148" t="s">
         <v>202</v>
       </c>
@@ -15196,7 +15198,7 @@
       <c r="D11" s="1"/>
       <c r="AF11" s="20"/>
     </row>
-    <row r="12" spans="1:33" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" ht="20.5" customHeight="1">
       <c r="B12" s="148" t="s">
         <v>203</v>
       </c>
@@ -15211,7 +15213,7 @@
       <c r="E12" s="153"/>
       <c r="AF12" s="20"/>
     </row>
-    <row r="13" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" ht="42.75" customHeight="1">
       <c r="B13" s="155"/>
       <c r="C13" s="154"/>
       <c r="D13" s="155"/>
@@ -15219,73 +15221,73 @@
       <c r="F13" s="155"/>
       <c r="AF13" s="20"/>
     </row>
-    <row r="14" spans="1:33" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" ht="20.5" customHeight="1">
       <c r="AF14" s="20"/>
     </row>
-    <row r="15" spans="1:33" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" ht="20.5" customHeight="1">
       <c r="AF15" s="20"/>
     </row>
-    <row r="16" spans="1:33" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" ht="20.5" customHeight="1">
       <c r="AF16" s="20"/>
     </row>
-    <row r="17" spans="32:32" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="32:32" ht="20.5" customHeight="1">
       <c r="AF17" s="20"/>
     </row>
-    <row r="18" spans="32:32" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="32:32" ht="20.5" customHeight="1">
       <c r="AF18" s="20"/>
     </row>
-    <row r="19" spans="32:32" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="32:32" ht="20.5" customHeight="1">
       <c r="AF19" s="20"/>
     </row>
-    <row r="20" spans="32:32" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="32:32" ht="20.5" customHeight="1">
       <c r="AF20" s="20"/>
     </row>
-    <row r="21" spans="32:32" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="32:32" ht="20.5" customHeight="1">
       <c r="AF21" s="20"/>
     </row>
-    <row r="22" spans="32:32" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="32:32" ht="20.5" customHeight="1">
       <c r="AF22" s="20"/>
     </row>
-    <row r="23" spans="32:32" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="32:32" ht="20.5" customHeight="1">
       <c r="AF23" s="20"/>
     </row>
-    <row r="24" spans="32:32" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="32:32" ht="20.5" customHeight="1">
       <c r="AF24" s="20"/>
     </row>
-    <row r="25" spans="32:32" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="32:32" ht="20.5" customHeight="1">
       <c r="AF25" s="20"/>
     </row>
-    <row r="26" spans="32:32" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="32:32" ht="20.5" customHeight="1">
       <c r="AF26" s="20"/>
     </row>
-    <row r="27" spans="32:32" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="32:32" ht="20.5" customHeight="1">
       <c r="AF27" s="20"/>
     </row>
-    <row r="28" spans="32:32" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="32:32" ht="20.5" customHeight="1">
       <c r="AF28" s="20"/>
     </row>
-    <row r="29" spans="32:32" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="32:32" ht="20.5" customHeight="1">
       <c r="AF29" s="20"/>
     </row>
-    <row r="30" spans="32:32" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="32:32" ht="20.5" customHeight="1">
       <c r="AF30" s="20"/>
     </row>
-    <row r="31" spans="32:32" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="32:32" ht="20.5" customHeight="1">
       <c r="AF31" s="20"/>
     </row>
-    <row r="32" spans="32:32" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="32:32" ht="20.5" customHeight="1">
       <c r="AF32" s="20"/>
     </row>
-    <row r="33" spans="32:32" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="32:32" ht="20.5" customHeight="1">
       <c r="AF33" s="20"/>
     </row>
-    <row r="34" spans="32:32" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="32:32" ht="20.5" customHeight="1">
       <c r="AF34" s="20"/>
     </row>
-    <row r="35" spans="32:32" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="32:32" ht="20.5" customHeight="1">
       <c r="AF35" s="20"/>
     </row>
-    <row r="36" spans="32:32" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="32:32" ht="20.5" customHeight="1">
       <c r="AF36" s="5"/>
     </row>
   </sheetData>
@@ -15342,47 +15344,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034D65E4-C91B-4E94-88A2-8CBF471DE0E8}">
   <dimension ref="A1:AH42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" zoomScaleSheetLayoutView="78" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="Z13" sqref="Z13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L1" zoomScale="156" zoomScaleNormal="100" zoomScaleSheetLayoutView="78" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="20.45" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="20.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.75" style="5" customWidth="1"/>
-    <col min="2" max="2" width="27.375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="5" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="5" customWidth="1"/>
     <col min="6" max="6" width="10.5" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="6" customWidth="1"/>
-    <col min="8" max="9" width="13.75" style="7" customWidth="1"/>
-    <col min="10" max="10" width="12.25" style="7" customWidth="1"/>
-    <col min="11" max="11" width="12.375" style="7" customWidth="1"/>
-    <col min="12" max="12" width="7.75" style="7" customWidth="1"/>
-    <col min="13" max="13" width="11.75" style="7" customWidth="1"/>
-    <col min="14" max="14" width="10.125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="6" customWidth="1"/>
+    <col min="8" max="9" width="13.6640625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" style="7" customWidth="1"/>
+    <col min="14" max="14" width="10.1640625" style="7" customWidth="1"/>
     <col min="15" max="15" width="11.5" style="6" customWidth="1"/>
-    <col min="16" max="16" width="8.375" style="6" customWidth="1"/>
-    <col min="17" max="17" width="7.75" style="6" customWidth="1"/>
+    <col min="16" max="16" width="8.33203125" style="6" customWidth="1"/>
+    <col min="17" max="17" width="7.6640625" style="6" customWidth="1"/>
     <col min="18" max="18" width="10" style="6" customWidth="1"/>
-    <col min="19" max="20" width="11.75" style="6" customWidth="1"/>
-    <col min="21" max="21" width="17.75" style="6" customWidth="1"/>
+    <col min="19" max="20" width="11.6640625" style="6" customWidth="1"/>
+    <col min="21" max="21" width="17.6640625" style="6" customWidth="1"/>
     <col min="22" max="22" width="39" style="5" customWidth="1"/>
     <col min="23" max="23" width="9" style="5" customWidth="1"/>
-    <col min="24" max="24" width="9.625" style="5" customWidth="1"/>
-    <col min="25" max="25" width="10.625" style="5" customWidth="1"/>
-    <col min="26" max="26" width="9.625" style="5" customWidth="1"/>
+    <col min="24" max="24" width="9.6640625" style="5" customWidth="1"/>
+    <col min="25" max="25" width="10.6640625" style="5" customWidth="1"/>
+    <col min="26" max="26" width="9.6640625" style="5" customWidth="1"/>
     <col min="27" max="27" width="12.5" style="5" customWidth="1"/>
-    <col min="28" max="28" width="9.25" style="5" customWidth="1"/>
-    <col min="29" max="29" width="15.375" style="5" customWidth="1"/>
-    <col min="30" max="30" width="17.875" style="104" customWidth="1"/>
-    <col min="31" max="31" width="9.25" style="5" customWidth="1"/>
-    <col min="32" max="32" width="8.75" style="1" customWidth="1"/>
-    <col min="33" max="33" width="23.375" style="5" customWidth="1"/>
-    <col min="34" max="16384" width="9.25" style="5"/>
+    <col min="28" max="28" width="9.1640625" style="5" customWidth="1"/>
+    <col min="29" max="29" width="15.33203125" style="5" customWidth="1"/>
+    <col min="30" max="30" width="17.83203125" style="104" customWidth="1"/>
+    <col min="31" max="31" width="9.1640625" style="5" customWidth="1"/>
+    <col min="32" max="32" width="8.6640625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="23.33203125" style="5" customWidth="1"/>
+    <col min="34" max="16384" width="9.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" ht="22" customHeight="1">
       <c r="A1" s="372" t="s">
         <v>363</v>
       </c>
@@ -15392,7 +15394,7 @@
       </c>
       <c r="AF1" s="5"/>
     </row>
-    <row r="2" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" ht="22" customHeight="1">
       <c r="A2" s="163" t="s">
         <v>0</v>
       </c>
@@ -15493,7 +15495,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:33" ht="22" customHeight="1">
       <c r="A3" s="164">
         <v>1</v>
       </c>
@@ -15554,7 +15556,7 @@
         <v>19530</v>
       </c>
       <c r="V3" s="119" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="W3" s="121"/>
       <c r="X3" s="121"/>
@@ -15574,7 +15576,7 @@
       <c r="AF3" s="166"/>
       <c r="AG3" s="187"/>
     </row>
-    <row r="4" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:33" ht="22" customHeight="1">
       <c r="A4" s="164">
         <v>2</v>
       </c>
@@ -15649,7 +15651,7 @@
       <c r="AF4" s="166"/>
       <c r="AG4" s="187"/>
     </row>
-    <row r="5" spans="1:33" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:33" ht="22" customHeight="1">
       <c r="A5" s="164">
         <v>3</v>
       </c>
@@ -15726,7 +15728,7 @@
       <c r="AF5" s="166"/>
       <c r="AG5" s="187"/>
     </row>
-    <row r="6" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:33" ht="21.75" customHeight="1">
       <c r="A6" s="164">
         <v>4</v>
       </c>
@@ -15804,7 +15806,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:33" ht="21.75" customHeight="1">
       <c r="A7" s="164">
         <v>5</v>
       </c>
@@ -15878,7 +15880,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:33" ht="21.75" customHeight="1">
       <c r="A8" s="164">
         <v>6</v>
       </c>
@@ -15959,7 +15961,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:33" ht="21.75" customHeight="1">
       <c r="A9" s="164">
         <v>7</v>
       </c>
@@ -16038,7 +16040,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="10" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:33" ht="21.75" customHeight="1">
       <c r="A10" s="164">
         <v>8</v>
       </c>
@@ -16117,7 +16119,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="11" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:33" ht="21.75" customHeight="1">
       <c r="A11" s="164">
         <v>9</v>
       </c>
@@ -16191,7 +16193,7 @@
       <c r="AF11" s="166"/>
       <c r="AG11" s="188"/>
     </row>
-    <row r="12" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:33" ht="21.75" customHeight="1">
       <c r="A12" s="164">
         <v>10</v>
       </c>
@@ -16263,7 +16265,7 @@
       <c r="AF12" s="166"/>
       <c r="AG12" s="188"/>
     </row>
-    <row r="13" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:33" ht="21.75" customHeight="1">
       <c r="A13" s="164">
         <v>11</v>
       </c>
@@ -16337,7 +16339,7 @@
       <c r="AF13" s="166"/>
       <c r="AG13" s="187"/>
     </row>
-    <row r="14" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" ht="21.75" customHeight="1">
       <c r="A14" s="164">
         <v>12</v>
       </c>
@@ -16411,7 +16413,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="15" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" ht="21.75" customHeight="1">
       <c r="A15" s="164">
         <v>13</v>
       </c>
@@ -16487,7 +16489,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" ht="21.75" customHeight="1">
       <c r="A16" s="164">
         <v>14</v>
       </c>
@@ -16557,7 +16559,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="17" spans="1:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34" ht="21.75" customHeight="1">
       <c r="A17" s="164">
         <v>15</v>
       </c>
@@ -16639,7 +16641,7 @@
       </c>
       <c r="AG17" s="226"/>
     </row>
-    <row r="18" spans="1:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:34" ht="21.75" customHeight="1">
       <c r="A18" s="164">
         <v>16</v>
       </c>
@@ -16714,7 +16716,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="19" spans="1:34" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:34" ht="20.5" customHeight="1">
       <c r="A19" s="164">
         <v>17</v>
       </c>
@@ -16796,7 +16798,7 @@
       </c>
       <c r="AG19" s="279"/>
     </row>
-    <row r="20" spans="1:34" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:34" ht="20.5" customHeight="1">
       <c r="A20" s="164">
         <v>18</v>
       </c>
@@ -16872,7 +16874,7 @@
       </c>
       <c r="AG20" s="226"/>
     </row>
-    <row r="21" spans="1:34" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:34" ht="20.5" customHeight="1">
       <c r="A21" s="164">
         <v>19</v>
       </c>
@@ -16946,7 +16948,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="22" spans="1:34" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34" ht="20.5" customHeight="1">
       <c r="A22" s="164">
         <v>20</v>
       </c>
@@ -17017,7 +17019,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="23" spans="1:34" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:34" ht="20.5" customHeight="1">
       <c r="A23" s="164">
         <v>21</v>
       </c>
@@ -17094,7 +17096,7 @@
       <c r="AF23" s="203"/>
       <c r="AG23" s="187"/>
     </row>
-    <row r="24" spans="1:34" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:34" ht="20.5" customHeight="1">
       <c r="A24" s="164">
         <v>22</v>
       </c>
@@ -17166,7 +17168,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="25" spans="1:34" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:34" ht="20.5" customHeight="1">
       <c r="A25" s="164">
         <v>23</v>
       </c>
@@ -17238,7 +17240,7 @@
       </c>
       <c r="AG25" s="279"/>
     </row>
-    <row r="26" spans="1:34" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:34" ht="20.5" customHeight="1">
       <c r="A26" s="164">
         <v>24</v>
       </c>
@@ -17306,7 +17308,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="27" spans="1:34" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:34" ht="20.5" customHeight="1">
       <c r="A27" s="164">
         <v>25</v>
       </c>
@@ -17380,7 +17382,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="28" spans="1:34" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:34" ht="20.5" customHeight="1">
       <c r="A28" s="164">
         <v>26</v>
       </c>
@@ -17450,7 +17452,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="29" spans="1:34" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:34" ht="20.5" customHeight="1">
       <c r="A29" s="164">
         <v>27</v>
       </c>
@@ -17518,7 +17520,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="30" spans="1:34" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:34" ht="20.5" customHeight="1">
       <c r="A30" s="164">
         <v>28</v>
       </c>
@@ -17590,7 +17592,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="31" spans="1:34" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:34" ht="20.5" customHeight="1">
       <c r="A31" s="298">
         <v>29</v>
       </c>
@@ -17662,7 +17664,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="32" spans="1:34" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:34" ht="20.5" customHeight="1">
       <c r="B32" s="314"/>
       <c r="C32" s="256"/>
       <c r="D32" s="315"/>
@@ -17695,7 +17697,7 @@
       <c r="AF32" s="203"/>
       <c r="AG32" s="187"/>
     </row>
-    <row r="33" spans="2:33" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:33" ht="20.5" customHeight="1">
       <c r="B33" s="18"/>
       <c r="E33" s="209">
         <f>SUM(E3:E31)</f>
@@ -17738,10 +17740,10 @@
       <c r="AF33" s="22"/>
       <c r="AG33" s="187"/>
     </row>
-    <row r="34" spans="2:33" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:33" ht="20.5" customHeight="1">
       <c r="AF34" s="5"/>
     </row>
-    <row r="35" spans="2:33" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:33" ht="20.5" customHeight="1">
       <c r="B35" s="148" t="s">
         <v>115</v>
       </c>
@@ -17754,7 +17756,7 @@
         <v>98966</v>
       </c>
     </row>
-    <row r="36" spans="2:33" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:33" ht="20.5" customHeight="1">
       <c r="B36" s="148" t="s">
         <v>202</v>
       </c>
@@ -17767,7 +17769,7 @@
         <v>28079</v>
       </c>
     </row>
-    <row r="37" spans="2:33" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:33" ht="20.5" customHeight="1">
       <c r="B37" s="148" t="s">
         <v>203</v>
       </c>
@@ -17784,16 +17786,16 @@
         <v>91812</v>
       </c>
     </row>
-    <row r="38" spans="2:33" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:33" ht="20.5" customHeight="1">
       <c r="D38" s="6">
         <f>D37-C37</f>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:33" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:33" ht="20.5" customHeight="1">
       <c r="C40" s="6"/>
     </row>
-    <row r="42" spans="2:33" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:33" ht="20.5" customHeight="1">
       <c r="G42" s="6">
         <v>21250</v>
       </c>
@@ -17808,13 +17810,14 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="V3" r:id="rId1" xr:uid="{6B9AB21B-F2D8-4827-A7C2-359BF4E63634}"/>
-    <hyperlink ref="V4:V31" r:id="rId2" display="tunwit2458@gmail.com" xr:uid="{39B7772E-1CC5-4D42-914A-E83C3DA19262}"/>
+    <hyperlink ref="V4:V31" r:id="rId1" display="tunwit2458@gmail.com" xr:uid="{39B7772E-1CC5-4D42-914A-E83C3DA19262}"/>
+    <hyperlink ref="V4" r:id="rId2" xr:uid="{FB9185E0-EBFD-7543-B003-1B110DF2D399}"/>
+    <hyperlink ref="V3" r:id="rId3" xr:uid="{EFFE1335-3091-4647-8202-946A06542E30}"/>
   </hyperlinks>
   <pageMargins left="0.12" right="0.11" top="0.56499999999999995" bottom="0.12" header="0.13" footer="0.13"/>
-  <pageSetup paperSize="9" scale="65" fitToWidth="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="360" r:id="rId3"/>
+  <pageSetup paperSize="9" scale="65" fitToWidth="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="360" r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
@@ -17827,25 +17830,25 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="1" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="32.75" style="2" customWidth="1"/>
-    <col min="4" max="5" width="0.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="32.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="0.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="0.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="32.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="0.6640625" style="2" customWidth="1"/>
     <col min="9" max="9" width="1.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="0.875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.75" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="0.83203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" style="2" customWidth="1"/>
     <col min="13" max="13" width="4.5" style="2" customWidth="1"/>
-    <col min="14" max="14" width="0.875" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9.125" style="2"/>
+    <col min="14" max="14" width="0.83203125" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" ht="24" customHeight="1">
       <c r="B1" s="2" t="s">
         <v>67</v>
       </c>
@@ -17865,7 +17868,7 @@
       <c r="L1" s="376"/>
       <c r="M1" s="376"/>
     </row>
-    <row r="2" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:14" ht="24" customHeight="1">
       <c r="C2" s="377" t="s">
         <v>104</v>
       </c>
@@ -17879,7 +17882,7 @@
       <c r="K2" s="378"/>
       <c r="L2" s="58"/>
     </row>
-    <row r="3" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" ht="24" customHeight="1">
       <c r="C3" s="34" t="s">
         <v>105</v>
       </c>
@@ -17892,7 +17895,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" ht="24" customHeight="1">
       <c r="B4" s="33" t="s">
         <v>106</v>
       </c>
@@ -17903,7 +17906,7 @@
       <c r="E4" s="3"/>
       <c r="G4" s="34"/>
     </row>
-    <row r="5" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:14" ht="24" customHeight="1">
       <c r="B5" s="61" t="s">
         <v>107</v>
       </c>
@@ -17917,7 +17920,7 @@
       <c r="K5" s="62"/>
       <c r="L5" s="58"/>
     </row>
-    <row r="6" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" ht="24" customHeight="1">
       <c r="B6" s="61" t="s">
         <v>108</v>
       </c>
@@ -17929,7 +17932,7 @@
       <c r="E6" s="3"/>
       <c r="G6" s="34"/>
     </row>
-    <row r="7" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" ht="24" customHeight="1">
       <c r="B7" s="61" t="s">
         <v>109</v>
       </c>
@@ -17944,14 +17947,14 @@
       <c r="K7" s="62"/>
       <c r="L7" s="62"/>
     </row>
-    <row r="8" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" ht="24" customHeight="1">
       <c r="B8" s="3" t="s">
         <v>110</v>
       </c>
       <c r="F8" s="63"/>
       <c r="G8" s="63"/>
     </row>
-    <row r="9" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" ht="24" customHeight="1">
       <c r="A9" s="64"/>
       <c r="B9" s="379" t="s">
         <v>111</v>
@@ -17973,7 +17976,7 @@
       <c r="M9" s="379"/>
       <c r="N9" s="69"/>
     </row>
-    <row r="10" spans="1:14" ht="5.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" ht="5.25" customHeight="1">
       <c r="A10" s="70"/>
       <c r="D10" s="71"/>
       <c r="I10" s="70"/>
@@ -17983,7 +17986,7 @@
       <c r="M10" s="73"/>
       <c r="N10" s="71"/>
     </row>
-    <row r="11" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" ht="24" customHeight="1">
       <c r="A11" s="70"/>
       <c r="B11" s="74" t="s">
         <v>4</v>
@@ -18016,7 +18019,7 @@
       </c>
       <c r="N11" s="71"/>
     </row>
-    <row r="12" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" ht="24" customHeight="1">
       <c r="A12" s="70"/>
       <c r="B12" s="74" t="s">
         <v>5</v>
@@ -18048,7 +18051,7 @@
       </c>
       <c r="N12" s="71"/>
     </row>
-    <row r="13" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" ht="24" customHeight="1">
       <c r="A13" s="70"/>
       <c r="B13" s="74" t="s">
         <v>26</v>
@@ -18080,7 +18083,7 @@
       </c>
       <c r="N13" s="71"/>
     </row>
-    <row r="14" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" ht="24" customHeight="1">
       <c r="A14" s="70"/>
       <c r="B14" s="74" t="s">
         <v>118</v>
@@ -18112,7 +18115,7 @@
       </c>
       <c r="N14" s="71"/>
     </row>
-    <row r="15" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" ht="24" customHeight="1">
       <c r="A15" s="70"/>
       <c r="B15" s="74" t="s">
         <v>172</v>
@@ -18144,7 +18147,7 @@
       </c>
       <c r="N15" s="71"/>
     </row>
-    <row r="16" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" ht="24" customHeight="1">
       <c r="A16" s="70"/>
       <c r="B16" s="74" t="s">
         <v>8</v>
@@ -18176,7 +18179,7 @@
       </c>
       <c r="N16" s="71"/>
     </row>
-    <row r="17" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" ht="24" customHeight="1">
       <c r="A17" s="70"/>
       <c r="B17" s="74" t="s">
         <v>13</v>
@@ -18208,7 +18211,7 @@
       </c>
       <c r="N17" s="71"/>
     </row>
-    <row r="18" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" ht="24" customHeight="1">
       <c r="A18" s="70"/>
       <c r="B18" s="74" t="s">
         <v>17</v>
@@ -18233,7 +18236,7 @@
       </c>
       <c r="N18" s="71"/>
     </row>
-    <row r="19" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" ht="24" customHeight="1">
       <c r="A19" s="70"/>
       <c r="B19" s="74" t="s">
         <v>18</v>
@@ -18250,7 +18253,7 @@
       <c r="K19" s="78"/>
       <c r="N19" s="71"/>
     </row>
-    <row r="20" spans="1:14" ht="10.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" ht="10.5" customHeight="1">
       <c r="A20" s="70"/>
       <c r="B20" s="74"/>
       <c r="C20" s="79"/>
@@ -18264,7 +18267,7 @@
       <c r="M20" s="81"/>
       <c r="N20" s="82"/>
     </row>
-    <row r="21" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" ht="20.25" customHeight="1">
       <c r="A21" s="83"/>
       <c r="B21" s="133" t="s">
         <v>123</v>
@@ -18286,7 +18289,7 @@
       <c r="I21" s="70"/>
       <c r="M21" s="89"/>
     </row>
-    <row r="22" spans="1:14" ht="2.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" ht="2.25" customHeight="1">
       <c r="A22" s="80"/>
       <c r="B22" s="90"/>
       <c r="C22" s="91">
@@ -18301,7 +18304,7 @@
       <c r="I22" s="70"/>
       <c r="M22" s="89"/>
     </row>
-    <row r="23" spans="1:14" s="20" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" s="20" customFormat="1" ht="28.25" customHeight="1">
       <c r="B23" s="74" t="s">
         <v>19</v>
       </c>
@@ -18310,7 +18313,7 @@
         <v>16125</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="5.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" ht="5.5" customHeight="1">
       <c r="A24" s="81"/>
       <c r="B24" s="81"/>
       <c r="C24" s="81"/>
@@ -18326,7 +18329,7 @@
       <c r="M24" s="63"/>
       <c r="N24" s="81"/>
     </row>
-    <row r="25" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" ht="24" customHeight="1">
       <c r="A25" s="374" t="s">
         <v>125</v>
       </c>
@@ -18344,7 +18347,7 @@
       <c r="M25" s="374"/>
       <c r="N25" s="374"/>
     </row>
-    <row r="26" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" ht="24" customHeight="1">
       <c r="A26" s="375"/>
       <c r="B26" s="375"/>
       <c r="C26" s="375"/>
@@ -18360,7 +18363,7 @@
       <c r="M26" s="375"/>
       <c r="N26" s="375"/>
     </row>
-    <row r="27" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" ht="24" customHeight="1">
       <c r="A27" s="375"/>
       <c r="B27" s="375"/>
       <c r="C27" s="375"/>
@@ -18376,10 +18379,10 @@
       <c r="M27" s="375"/>
       <c r="N27" s="375"/>
     </row>
-    <row r="62" spans="3:3" ht="24" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="62" spans="3:3" ht="24" customHeight="1">
       <c r="C62" s="94"/>
     </row>
-    <row r="63" spans="3:3" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="3:3" ht="24" customHeight="1">
       <c r="C63" s="95"/>
     </row>
   </sheetData>
@@ -18413,34 +18416,34 @@
       <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="27" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="23"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="167"/>
-    <col min="2" max="2" width="39.75" style="337" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="167"/>
+    <col min="2" max="2" width="39.6640625" style="337" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="180" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="167" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="169" customWidth="1"/>
-    <col min="6" max="7" width="11.375" style="167" customWidth="1"/>
-    <col min="8" max="8" width="37.625" style="167" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="167" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" style="169" customWidth="1"/>
+    <col min="6" max="7" width="11.33203125" style="167" customWidth="1"/>
+    <col min="8" max="8" width="37.6640625" style="167" customWidth="1"/>
     <col min="9" max="9" width="11.5" style="167" customWidth="1"/>
     <col min="10" max="10" width="14.5" style="167" customWidth="1"/>
     <col min="11" max="11" width="12" style="169" customWidth="1"/>
-    <col min="12" max="12" width="9.75" style="167" customWidth="1"/>
-    <col min="13" max="13" width="8.875" style="167"/>
-    <col min="14" max="14" width="35.625" style="167" customWidth="1"/>
-    <col min="15" max="15" width="12.125" style="169" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" style="167" customWidth="1"/>
+    <col min="13" max="13" width="8.83203125" style="167"/>
+    <col min="14" max="14" width="35.6640625" style="167" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" style="169" customWidth="1"/>
     <col min="16" max="16" width="15.5" style="167" customWidth="1"/>
     <col min="17" max="17" width="12.5" style="169" customWidth="1"/>
     <col min="18" max="18" width="2.5" style="167" customWidth="1"/>
-    <col min="19" max="19" width="8.875" style="169"/>
+    <col min="19" max="19" width="8.83203125" style="169"/>
     <col min="20" max="20" width="34.5" style="167" customWidth="1"/>
-    <col min="21" max="21" width="12.25" style="167" customWidth="1"/>
-    <col min="22" max="22" width="11.875" style="169" customWidth="1"/>
-    <col min="23" max="23" width="11.375" style="169" customWidth="1"/>
-    <col min="24" max="16384" width="8.875" style="167"/>
+    <col min="21" max="21" width="12.1640625" style="167" customWidth="1"/>
+    <col min="22" max="22" width="11.83203125" style="169" customWidth="1"/>
+    <col min="23" max="23" width="11.33203125" style="169" customWidth="1"/>
+    <col min="24" max="16384" width="8.83203125" style="167"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="30.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:23" ht="30.5" customHeight="1">
       <c r="B1" s="333" t="s">
         <v>231</v>
       </c>
@@ -18452,7 +18455,7 @@
       <c r="T1" s="169"/>
       <c r="U1" s="169"/>
     </row>
-    <row r="2" spans="1:23" ht="34.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:23" ht="35" customHeight="1">
       <c r="A2" s="170" t="s">
         <v>0</v>
       </c>
@@ -18514,7 +18517,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:23" ht="50.5" customHeight="1">
       <c r="A3" s="171" cm="1">
         <f t="array" ref="A3:A32">Tableram[ลำดับ]</f>
         <v>100</v>
@@ -18601,7 +18604,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:23" ht="50.5" customHeight="1">
       <c r="A4" s="171">
         <v>2</v>
       </c>
@@ -18670,7 +18673,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:23" ht="50.5" customHeight="1">
       <c r="A5" s="171">
         <v>3</v>
       </c>
@@ -18739,7 +18742,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:23" ht="50.5" customHeight="1">
       <c r="A6" s="171">
         <v>4</v>
       </c>
@@ -18808,7 +18811,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:23" ht="50.5" customHeight="1">
       <c r="A7" s="171">
         <v>5</v>
       </c>
@@ -18879,7 +18882,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:23" ht="50.5" customHeight="1">
       <c r="A8" s="171">
         <v>6</v>
       </c>
@@ -18936,7 +18939,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:23" ht="50.5" customHeight="1">
       <c r="A9" s="171">
         <v>7</v>
       </c>
@@ -18993,7 +18996,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:23" ht="50.5" customHeight="1">
       <c r="A10" s="171">
         <v>8</v>
       </c>
@@ -19050,7 +19053,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:23" ht="50.5" customHeight="1">
       <c r="A11" s="171">
         <v>9</v>
       </c>
@@ -19107,7 +19110,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:23" ht="50.5" customHeight="1">
       <c r="A12" s="171">
         <v>10</v>
       </c>
@@ -19164,7 +19167,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:23" ht="50.5" customHeight="1">
       <c r="A13" s="171">
         <v>11</v>
       </c>
@@ -19221,7 +19224,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:23" ht="50.5" customHeight="1">
       <c r="A14" s="171">
         <v>12</v>
       </c>
@@ -19278,7 +19281,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:23" ht="50.5" customHeight="1">
       <c r="A15" s="171">
         <v>13</v>
       </c>
@@ -19335,7 +19338,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:23" ht="50.5" customHeight="1">
       <c r="A16" s="171">
         <v>14</v>
       </c>
@@ -19392,7 +19395,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:23" ht="50.5" customHeight="1">
       <c r="A17" s="171">
         <v>15</v>
       </c>
@@ -19449,7 +19452,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:23" ht="50.5" customHeight="1">
       <c r="A18" s="171">
         <v>16</v>
       </c>
@@ -19506,7 +19509,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:23" ht="50.5" customHeight="1">
       <c r="A19" s="171">
         <v>17</v>
       </c>
@@ -19563,7 +19566,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:23" ht="50.5" customHeight="1">
       <c r="A20" s="171">
         <v>18</v>
       </c>
@@ -19620,7 +19623,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:23" ht="50.5" customHeight="1">
       <c r="A21" s="171">
         <v>19</v>
       </c>
@@ -19677,7 +19680,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:23" ht="50.5" customHeight="1">
       <c r="A22" s="171">
         <v>20</v>
       </c>
@@ -19734,7 +19737,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:23" ht="50.5" customHeight="1">
       <c r="A23" s="171">
         <v>21</v>
       </c>
@@ -19791,7 +19794,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:23" ht="50.5" customHeight="1">
       <c r="A24" s="171">
         <v>22</v>
       </c>
@@ -19848,7 +19851,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:23" ht="50.5" customHeight="1">
       <c r="A25" s="171">
         <v>23</v>
       </c>
@@ -19905,7 +19908,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:23" ht="50.5" customHeight="1">
       <c r="A26" s="171">
         <v>24</v>
       </c>
@@ -19962,7 +19965,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:23" ht="50.5" customHeight="1">
       <c r="A27" s="171">
         <v>25</v>
       </c>
@@ -20019,7 +20022,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:23" ht="50.5" customHeight="1">
       <c r="A28" s="171">
         <v>26</v>
       </c>
@@ -20076,7 +20079,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:23" ht="50.5" customHeight="1">
       <c r="A29" s="171">
         <v>27</v>
       </c>
@@ -20133,7 +20136,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:23" ht="50.5" customHeight="1">
       <c r="A30" s="171">
         <v>28</v>
       </c>
@@ -20190,7 +20193,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:23" ht="50.5" customHeight="1">
       <c r="A31" s="171">
         <v>29</v>
       </c>
@@ -20247,7 +20250,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:23" ht="50.5" customHeight="1">
       <c r="A32" s="171">
         <v>30</v>
       </c>
@@ -20288,7 +20291,7 @@
       <c r="O32" s="178"/>
       <c r="P32" s="149"/>
     </row>
-    <row r="33" spans="1:16" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:16" ht="50.5" customHeight="1">
       <c r="A33" s="171"/>
       <c r="B33" s="334"/>
       <c r="C33" s="173"/>
@@ -20318,7 +20321,7 @@
       <c r="O33" s="178"/>
       <c r="P33" s="149"/>
     </row>
-    <row r="34" spans="1:16" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:16" ht="50.5" customHeight="1">
       <c r="A34" s="171"/>
       <c r="B34" s="334"/>
       <c r="C34" s="173"/>
@@ -20348,7 +20351,7 @@
       <c r="O34" s="178"/>
       <c r="P34" s="149"/>
     </row>
-    <row r="35" spans="1:16" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:16" ht="50.5" customHeight="1">
       <c r="A35" s="171"/>
       <c r="B35" s="334"/>
       <c r="C35" s="173"/>
@@ -20363,222 +20366,222 @@
       <c r="O35" s="178"/>
       <c r="P35" s="149"/>
     </row>
-    <row r="36" spans="1:16" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:16" ht="50.5" customHeight="1">
       <c r="B36" s="336"/>
       <c r="C36" s="177"/>
       <c r="D36" s="179"/>
       <c r="E36" s="148"/>
     </row>
-    <row r="37" spans="1:16" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:16" ht="50.5" customHeight="1">
       <c r="B37" s="336"/>
       <c r="C37" s="177"/>
       <c r="D37" s="179"/>
       <c r="E37" s="148"/>
     </row>
-    <row r="38" spans="1:16" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:16" ht="50.5" customHeight="1">
       <c r="B38" s="336"/>
       <c r="C38" s="177"/>
       <c r="D38" s="179"/>
       <c r="E38" s="148"/>
     </row>
-    <row r="39" spans="1:16" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:16" ht="50.5" customHeight="1">
       <c r="B39" s="336"/>
       <c r="C39" s="177"/>
       <c r="D39" s="179"/>
       <c r="E39" s="148"/>
     </row>
-    <row r="40" spans="1:16" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:16" ht="50.5" customHeight="1">
       <c r="B40" s="336"/>
       <c r="C40" s="177"/>
       <c r="D40" s="179"/>
       <c r="E40" s="148"/>
     </row>
-    <row r="41" spans="1:16" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:16" ht="50.5" customHeight="1">
       <c r="B41" s="336"/>
       <c r="C41" s="177"/>
       <c r="D41" s="179"/>
       <c r="E41" s="148"/>
     </row>
-    <row r="42" spans="1:16" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:16" ht="50.5" customHeight="1">
       <c r="B42" s="336"/>
       <c r="C42" s="177"/>
       <c r="D42" s="179"/>
       <c r="E42" s="148"/>
     </row>
-    <row r="43" spans="1:16" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:16" ht="50.5" customHeight="1">
       <c r="B43" s="336"/>
       <c r="C43" s="177"/>
       <c r="D43" s="179"/>
       <c r="E43" s="148"/>
     </row>
-    <row r="44" spans="1:16" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:16" ht="50.5" customHeight="1">
       <c r="B44" s="336"/>
       <c r="C44" s="177"/>
       <c r="D44" s="179"/>
       <c r="E44" s="148"/>
     </row>
-    <row r="45" spans="1:16" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:16" ht="50.5" customHeight="1">
       <c r="B45" s="336"/>
       <c r="C45" s="177"/>
       <c r="D45" s="179"/>
       <c r="E45" s="148"/>
     </row>
-    <row r="46" spans="1:16" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:16" ht="50.5" customHeight="1">
       <c r="B46" s="336"/>
       <c r="C46" s="177"/>
       <c r="D46" s="179"/>
       <c r="E46" s="148"/>
     </row>
-    <row r="47" spans="1:16" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:16" ht="50.5" customHeight="1">
       <c r="B47" s="336"/>
       <c r="C47" s="177"/>
       <c r="D47" s="179"/>
       <c r="E47" s="148"/>
     </row>
-    <row r="48" spans="1:16" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:16" ht="50.5" customHeight="1">
       <c r="B48" s="336"/>
       <c r="C48" s="177"/>
       <c r="D48" s="179"/>
       <c r="E48" s="148"/>
     </row>
-    <row r="49" spans="2:5" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="2:5" ht="50.5" customHeight="1">
       <c r="B49" s="336"/>
       <c r="C49" s="177"/>
       <c r="D49" s="179"/>
       <c r="E49" s="148"/>
     </row>
-    <row r="50" spans="2:5" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="2:5" ht="50.5" customHeight="1">
       <c r="B50" s="336"/>
       <c r="C50" s="177"/>
       <c r="D50" s="179"/>
       <c r="E50" s="148"/>
     </row>
-    <row r="51" spans="2:5" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="2:5" ht="50.5" customHeight="1">
       <c r="B51" s="336"/>
       <c r="C51" s="177"/>
       <c r="D51" s="179"/>
       <c r="E51" s="148"/>
     </row>
-    <row r="52" spans="2:5" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="2:5" ht="50.5" customHeight="1">
       <c r="B52" s="336"/>
       <c r="C52" s="177"/>
       <c r="D52" s="179"/>
       <c r="E52" s="148"/>
     </row>
-    <row r="53" spans="2:5" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="2:5" ht="50.5" customHeight="1">
       <c r="B53" s="336"/>
       <c r="C53" s="177"/>
       <c r="D53" s="179"/>
       <c r="E53" s="148"/>
     </row>
-    <row r="54" spans="2:5" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="2:5" ht="50.5" customHeight="1">
       <c r="B54" s="336"/>
       <c r="C54" s="177"/>
       <c r="D54" s="179"/>
       <c r="E54" s="148"/>
     </row>
-    <row r="55" spans="2:5" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="2:5" ht="50.5" customHeight="1">
       <c r="B55" s="336"/>
       <c r="C55" s="177"/>
       <c r="D55" s="179"/>
       <c r="E55" s="148"/>
     </row>
-    <row r="56" spans="2:5" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="2:5" ht="50.5" customHeight="1">
       <c r="B56" s="336"/>
       <c r="C56" s="177"/>
       <c r="D56" s="179"/>
       <c r="E56" s="148"/>
     </row>
-    <row r="57" spans="2:5" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="2:5" ht="50.5" customHeight="1">
       <c r="B57" s="336"/>
       <c r="C57" s="177"/>
       <c r="D57" s="179"/>
       <c r="E57" s="148"/>
     </row>
-    <row r="58" spans="2:5" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="2:5" ht="50.5" customHeight="1">
       <c r="B58" s="336"/>
       <c r="C58" s="177"/>
       <c r="D58" s="179"/>
       <c r="E58" s="148"/>
     </row>
-    <row r="59" spans="2:5" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="2:5" ht="50.5" customHeight="1">
       <c r="B59" s="336"/>
       <c r="C59" s="177"/>
       <c r="D59" s="179"/>
       <c r="E59" s="148"/>
     </row>
-    <row r="60" spans="2:5" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="2:5" ht="50.5" customHeight="1">
       <c r="B60" s="336"/>
       <c r="C60" s="177"/>
       <c r="D60" s="179"/>
       <c r="E60" s="148"/>
     </row>
-    <row r="61" spans="2:5" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="2:5" ht="50.5" customHeight="1">
       <c r="B61" s="336"/>
       <c r="C61" s="177"/>
       <c r="D61" s="179"/>
       <c r="E61" s="148"/>
     </row>
-    <row r="62" spans="2:5" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="2:5" ht="50.5" customHeight="1">
       <c r="B62" s="336"/>
       <c r="C62" s="177"/>
       <c r="D62" s="179"/>
       <c r="E62" s="148"/>
     </row>
-    <row r="63" spans="2:5" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="2:5" ht="50.5" customHeight="1">
       <c r="B63" s="336"/>
       <c r="C63" s="177"/>
       <c r="D63" s="179"/>
       <c r="E63" s="148"/>
     </row>
-    <row r="64" spans="2:5" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="2:5" ht="50.5" customHeight="1">
       <c r="B64" s="336"/>
       <c r="C64" s="177"/>
       <c r="D64" s="179"/>
       <c r="E64" s="148"/>
     </row>
-    <row r="65" spans="2:5" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="2:5" ht="50.5" customHeight="1">
       <c r="B65" s="336"/>
       <c r="C65" s="177"/>
       <c r="D65" s="179"/>
       <c r="E65" s="148"/>
     </row>
-    <row r="66" spans="2:5" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="2:5" ht="50.5" customHeight="1">
       <c r="B66" s="336"/>
       <c r="C66" s="177"/>
       <c r="D66" s="179"/>
     </row>
-    <row r="67" spans="2:5" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="2:5" ht="50.5" customHeight="1">
       <c r="B67" s="336"/>
       <c r="C67" s="177"/>
       <c r="D67" s="179"/>
     </row>
-    <row r="68" spans="2:5" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="2:5" ht="50.5" customHeight="1">
       <c r="B68" s="336"/>
       <c r="C68" s="177"/>
       <c r="D68" s="179"/>
     </row>
-    <row r="69" spans="2:5" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="2:5" ht="50.5" customHeight="1">
       <c r="B69" s="336"/>
       <c r="C69" s="177"/>
       <c r="D69" s="179"/>
     </row>
-    <row r="70" spans="2:5" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="2:5" ht="50.5" customHeight="1">
       <c r="B70" s="336"/>
       <c r="C70" s="177"/>
       <c r="D70" s="179"/>
     </row>
-    <row r="71" spans="2:5" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="2:5" ht="50.5" customHeight="1">
       <c r="B71" s="336"/>
       <c r="C71" s="177"/>
       <c r="D71" s="179"/>
     </row>
-    <row r="72" spans="2:5" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="2:5" ht="50.5" customHeight="1">
       <c r="B72" s="336"/>
       <c r="C72" s="177"/>
       <c r="D72" s="179"/>
     </row>
-    <row r="73" spans="2:5" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="2:5" ht="50.5" customHeight="1">
       <c r="B73" s="336"/>
       <c r="C73" s="177"/>
       <c r="D73" s="179"/>

--- a/5.68.xlsx
+++ b/5.68.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/littlebirdd/Desktop/project/slipper_rework/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\slipper_rework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBDECC6-66BF-3B4C-A831-8FC55A1F7C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E2D019-76AF-4ECC-AC8B-19EEB162A5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="34200" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="468" yWindow="708" windowWidth="21324" windowHeight="11184" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dรามอินทรา" sheetId="16" r:id="rId1"/>
@@ -1661,7 +1661,7 @@
     <t>tunwit2458@gmail.com</t>
   </si>
   <si>
-    <t>namujlin@gmail.com</t>
+    <t>en</t>
   </si>
 </sst>
 </file>
@@ -1669,8 +1669,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="38">
@@ -2344,7 +2344,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="380">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2366,7 +2366,7 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2375,13 +2375,13 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2456,7 +2456,7 @@
     <xf numFmtId="4" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2474,7 +2474,7 @@
     <xf numFmtId="4" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2564,7 +2564,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2576,7 +2576,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2600,7 +2600,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2666,10 +2666,10 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2756,7 +2756,7 @@
     <xf numFmtId="2" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2765,13 +2765,13 @@
     <xf numFmtId="4" fontId="24" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="24" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2798,7 +2798,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2949,10 +2949,10 @@
     <xf numFmtId="4" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -3105,7 +3105,7 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3279,7 +3279,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3387,22 +3387,22 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="11" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="11" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="9" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9153,33 +9153,33 @@
       <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7.5" defaultRowHeight="22.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="7.44140625" defaultRowHeight="22.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" style="1" customWidth="1"/>
     <col min="2" max="2" width="29" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.83203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.83203125" style="46" customWidth="1"/>
-    <col min="17" max="20" width="10.83203125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="12.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.77734375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.77734375" style="46" customWidth="1"/>
+    <col min="17" max="20" width="10.77734375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="12.44140625" style="1" customWidth="1"/>
     <col min="22" max="22" width="33.33203125" style="1" customWidth="1"/>
-    <col min="23" max="27" width="10.83203125" style="5" customWidth="1"/>
-    <col min="28" max="28" width="9.1640625" style="5" customWidth="1"/>
-    <col min="29" max="29" width="12.1640625" style="5" customWidth="1"/>
-    <col min="30" max="30" width="18.5" style="104" customWidth="1"/>
-    <col min="31" max="32" width="9.1640625" style="1" customWidth="1"/>
+    <col min="23" max="27" width="10.77734375" style="5" customWidth="1"/>
+    <col min="28" max="28" width="9.109375" style="5" customWidth="1"/>
+    <col min="29" max="29" width="12.109375" style="5" customWidth="1"/>
+    <col min="30" max="30" width="18.44140625" style="104" customWidth="1"/>
+    <col min="31" max="32" width="9.109375" style="1" customWidth="1"/>
     <col min="33" max="33" width="19.33203125" style="1" customWidth="1"/>
-    <col min="34" max="16384" width="7.5" style="1"/>
+    <col min="34" max="16384" width="7.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="31.25" customHeight="1">
+    <row r="1" spans="1:33" ht="31.2" customHeight="1">
       <c r="A1" s="372" t="s">
         <v>363</v>
       </c>
       <c r="B1" s="373"/>
     </row>
-    <row r="2" spans="1:33" ht="22" customHeight="1">
+    <row r="2" spans="1:33" ht="22.05" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -9280,7 +9280,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="22" customHeight="1">
+    <row r="3" spans="1:33" ht="22.05" customHeight="1">
       <c r="A3" s="102">
         <v>100</v>
       </c>
@@ -9360,7 +9360,7 @@
       <c r="AF3" s="22"/>
       <c r="AG3" s="185"/>
     </row>
-    <row r="4" spans="1:33" ht="22" customHeight="1">
+    <row r="4" spans="1:33" ht="22.05" customHeight="1">
       <c r="A4" s="102">
         <v>2</v>
       </c>
@@ -9433,7 +9433,7 @@
       <c r="AF4" s="22"/>
       <c r="AG4" s="182"/>
     </row>
-    <row r="5" spans="1:33" ht="22" customHeight="1">
+    <row r="5" spans="1:33" ht="22.05" customHeight="1">
       <c r="A5" s="102">
         <v>3</v>
       </c>
@@ -9514,7 +9514,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="22" customHeight="1">
+    <row r="6" spans="1:33" ht="22.05" customHeight="1">
       <c r="A6" s="102">
         <v>4</v>
       </c>
@@ -9593,7 +9593,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="22" customHeight="1">
+    <row r="7" spans="1:33" ht="22.05" customHeight="1">
       <c r="A7" s="102">
         <v>5</v>
       </c>
@@ -9674,7 +9674,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="22" customHeight="1">
+    <row r="8" spans="1:33" ht="22.05" customHeight="1">
       <c r="A8" s="102">
         <v>6</v>
       </c>
@@ -9753,7 +9753,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="22" customHeight="1">
+    <row r="9" spans="1:33" ht="22.05" customHeight="1">
       <c r="A9" s="102">
         <v>7</v>
       </c>
@@ -9830,7 +9830,7 @@
       <c r="AF9" s="22"/>
       <c r="AG9" s="185"/>
     </row>
-    <row r="10" spans="1:33" ht="22" customHeight="1">
+    <row r="10" spans="1:33" ht="22.05" customHeight="1">
       <c r="A10" s="102">
         <v>8</v>
       </c>
@@ -9908,7 +9908,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="11" spans="1:33" ht="22" customHeight="1">
+    <row r="11" spans="1:33" ht="22.05" customHeight="1">
       <c r="A11" s="102">
         <v>9</v>
       </c>
@@ -9984,7 +9984,7 @@
       <c r="AF11" s="22"/>
       <c r="AG11" s="182"/>
     </row>
-    <row r="12" spans="1:33" ht="22" customHeight="1">
+    <row r="12" spans="1:33" ht="22.05" customHeight="1">
       <c r="A12" s="102">
         <v>10</v>
       </c>
@@ -10065,7 +10065,7 @@
       <c r="AF12" s="22"/>
       <c r="AG12" s="182"/>
     </row>
-    <row r="13" spans="1:33" ht="22" customHeight="1">
+    <row r="13" spans="1:33" ht="22.05" customHeight="1">
       <c r="A13" s="102">
         <v>11</v>
       </c>
@@ -10143,7 +10143,7 @@
       <c r="AF13" s="22"/>
       <c r="AG13" s="185"/>
     </row>
-    <row r="14" spans="1:33" ht="22" customHeight="1">
+    <row r="14" spans="1:33" ht="22.05" customHeight="1">
       <c r="A14" s="102">
         <v>12</v>
       </c>
@@ -10218,7 +10218,7 @@
       <c r="AF14" s="22"/>
       <c r="AG14" s="182"/>
     </row>
-    <row r="15" spans="1:33" ht="22" customHeight="1">
+    <row r="15" spans="1:33" ht="22.05" customHeight="1">
       <c r="A15" s="102">
         <v>13</v>
       </c>
@@ -10295,7 +10295,7 @@
       </c>
       <c r="AG15" s="252"/>
     </row>
-    <row r="16" spans="1:33" ht="22" customHeight="1">
+    <row r="16" spans="1:33" ht="22.05" customHeight="1">
       <c r="A16" s="102">
         <v>14</v>
       </c>
@@ -10371,7 +10371,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="22" customHeight="1">
+    <row r="17" spans="1:33" ht="22.05" customHeight="1">
       <c r="A17" s="102">
         <v>15</v>
       </c>
@@ -10450,7 +10450,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="22" customHeight="1">
+    <row r="18" spans="1:33" ht="22.05" customHeight="1">
       <c r="A18" s="102">
         <v>16</v>
       </c>
@@ -10526,7 +10526,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="22" customHeight="1">
+    <row r="19" spans="1:33" ht="22.05" customHeight="1">
       <c r="A19" s="102">
         <v>17</v>
       </c>
@@ -10602,7 +10602,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="20" spans="1:33" ht="22" customHeight="1">
+    <row r="20" spans="1:33" ht="22.05" customHeight="1">
       <c r="A20" s="102">
         <v>18</v>
       </c>
@@ -10676,7 +10676,7 @@
       <c r="AF20" s="22"/>
       <c r="AG20" s="182"/>
     </row>
-    <row r="21" spans="1:33" ht="22" customHeight="1">
+    <row r="21" spans="1:33" ht="22.05" customHeight="1">
       <c r="A21" s="102">
         <v>19</v>
       </c>
@@ -10752,7 +10752,7 @@
       <c r="AF21" s="22"/>
       <c r="AG21" s="185"/>
     </row>
-    <row r="22" spans="1:33" ht="22" customHeight="1">
+    <row r="22" spans="1:33" ht="22.05" customHeight="1">
       <c r="A22" s="102">
         <v>20</v>
       </c>
@@ -10830,7 +10830,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="23" spans="1:33" ht="22" customHeight="1">
+    <row r="23" spans="1:33" ht="22.05" customHeight="1">
       <c r="A23" s="102">
         <v>21</v>
       </c>
@@ -10908,7 +10908,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="24" spans="1:33" ht="22" customHeight="1">
+    <row r="24" spans="1:33" ht="22.05" customHeight="1">
       <c r="A24" s="102">
         <v>22</v>
       </c>
@@ -10988,7 +10988,7 @@
       <c r="AF24" s="22"/>
       <c r="AG24" s="185"/>
     </row>
-    <row r="25" spans="1:33" ht="22" customHeight="1">
+    <row r="25" spans="1:33" ht="22.05" customHeight="1">
       <c r="A25" s="102">
         <v>23</v>
       </c>
@@ -11060,7 +11060,7 @@
       </c>
       <c r="AG25" s="252"/>
     </row>
-    <row r="26" spans="1:33" ht="22" customHeight="1">
+    <row r="26" spans="1:33" ht="22.05" customHeight="1">
       <c r="A26" s="102">
         <v>24</v>
       </c>
@@ -11136,7 +11136,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="27" spans="1:33" ht="22" customHeight="1">
+    <row r="27" spans="1:33" ht="22.05" customHeight="1">
       <c r="A27" s="102">
         <v>25</v>
       </c>
@@ -11212,7 +11212,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="28" spans="1:33" ht="22" customHeight="1">
+    <row r="28" spans="1:33" ht="22.05" customHeight="1">
       <c r="A28" s="102">
         <v>26</v>
       </c>
@@ -11286,7 +11286,7 @@
       <c r="AF28" s="22"/>
       <c r="AG28" s="182"/>
     </row>
-    <row r="29" spans="1:33" ht="22" customHeight="1">
+    <row r="29" spans="1:33" ht="22.05" customHeight="1">
       <c r="A29" s="102">
         <v>27</v>
       </c>
@@ -11366,7 +11366,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="30" spans="1:33" ht="22" customHeight="1">
+    <row r="30" spans="1:33" ht="22.05" customHeight="1">
       <c r="A30" s="102">
         <v>28</v>
       </c>
@@ -11440,7 +11440,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="31" spans="1:33" ht="22" customHeight="1">
+    <row r="31" spans="1:33" ht="22.05" customHeight="1">
       <c r="A31" s="102">
         <v>29</v>
       </c>
@@ -11512,7 +11512,7 @@
       </c>
       <c r="AG31" s="252"/>
     </row>
-    <row r="32" spans="1:33" ht="22" customHeight="1">
+    <row r="32" spans="1:33" ht="22.05" customHeight="1">
       <c r="A32" s="102">
         <v>30</v>
       </c>
@@ -11586,7 +11586,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="33" spans="1:33" ht="22" customHeight="1">
+    <row r="33" spans="1:33" ht="22.05" customHeight="1">
       <c r="A33" s="5"/>
       <c r="B33" s="314"/>
       <c r="C33" s="256"/>
@@ -11613,7 +11613,7 @@
       <c r="AF33" s="20"/>
       <c r="AG33" s="185"/>
     </row>
-    <row r="34" spans="1:33" ht="22" customHeight="1">
+    <row r="34" spans="1:33" ht="22.05" customHeight="1">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5" t="s">
@@ -11667,10 +11667,10 @@
       <c r="AE34" s="5"/>
       <c r="AF34" s="5"/>
     </row>
-    <row r="35" spans="1:33" ht="22" customHeight="1">
+    <row r="35" spans="1:33" ht="22.05" customHeight="1">
       <c r="H35" s="137"/>
     </row>
-    <row r="36" spans="1:33" ht="22" customHeight="1">
+    <row r="36" spans="1:33" ht="22.05" customHeight="1">
       <c r="B36" s="148" t="s">
         <v>115</v>
       </c>
@@ -11683,7 +11683,7 @@
         <v>158981</v>
       </c>
     </row>
-    <row r="37" spans="1:33" ht="22" customHeight="1">
+    <row r="37" spans="1:33" ht="22.05" customHeight="1">
       <c r="B37" s="148" t="s">
         <v>202</v>
       </c>
@@ -11692,7 +11692,7 @@
         <v>37831</v>
       </c>
     </row>
-    <row r="38" spans="1:33" ht="22" customHeight="1">
+    <row r="38" spans="1:33" ht="22.05" customHeight="1">
       <c r="B38" s="148" t="s">
         <v>203</v>
       </c>
@@ -11773,46 +11773,46 @@
       <selection activeCell="AD15" sqref="AD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="20.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="20.55" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="5" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" style="5" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" style="5" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" style="6" customWidth="1"/>
     <col min="8" max="9" width="13.6640625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="13.5" style="7" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" style="7" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" style="7" customWidth="1"/>
     <col min="12" max="12" width="10.33203125" style="7" customWidth="1"/>
-    <col min="13" max="13" width="11.83203125" style="7" customWidth="1"/>
-    <col min="14" max="14" width="10.5" style="7" customWidth="1"/>
+    <col min="13" max="13" width="11.77734375" style="7" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" style="7" customWidth="1"/>
     <col min="15" max="15" width="9.6640625" style="6" customWidth="1"/>
-    <col min="16" max="16" width="11.5" style="6" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" style="6" customWidth="1"/>
     <col min="17" max="17" width="9.6640625" style="6" customWidth="1"/>
-    <col min="18" max="18" width="12.1640625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="12.109375" style="6" customWidth="1"/>
     <col min="19" max="20" width="11.6640625" style="6" customWidth="1"/>
     <col min="21" max="21" width="17.33203125" style="6" customWidth="1"/>
-    <col min="22" max="22" width="38.1640625" style="5" customWidth="1"/>
-    <col min="23" max="26" width="9.1640625" style="5" customWidth="1"/>
-    <col min="27" max="27" width="10.83203125" style="5" customWidth="1"/>
-    <col min="28" max="28" width="9.1640625" style="5" customWidth="1"/>
-    <col min="29" max="29" width="13.5" style="5" customWidth="1"/>
+    <col min="22" max="22" width="38.109375" style="5" customWidth="1"/>
+    <col min="23" max="26" width="9.109375" style="5" customWidth="1"/>
+    <col min="27" max="27" width="10.77734375" style="5" customWidth="1"/>
+    <col min="28" max="28" width="9.109375" style="5" customWidth="1"/>
+    <col min="29" max="29" width="13.44140625" style="5" customWidth="1"/>
     <col min="30" max="30" width="17.33203125" style="104" customWidth="1"/>
-    <col min="31" max="31" width="9.1640625" style="5" customWidth="1"/>
-    <col min="32" max="32" width="9.1640625" style="1" customWidth="1"/>
-    <col min="33" max="33" width="17.5" style="5" customWidth="1"/>
-    <col min="34" max="16384" width="9.1640625" style="5"/>
+    <col min="31" max="31" width="9.109375" style="5" customWidth="1"/>
+    <col min="32" max="32" width="9.109375" style="1" customWidth="1"/>
+    <col min="33" max="33" width="17.44140625" style="5" customWidth="1"/>
+    <col min="34" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="20.5" customHeight="1">
+    <row r="1" spans="1:33" ht="20.55" customHeight="1">
       <c r="A1" s="372" t="s">
         <v>363</v>
       </c>
       <c r="B1" s="373"/>
     </row>
-    <row r="2" spans="1:33" ht="22" customHeight="1">
+    <row r="2" spans="1:33" ht="22.05" customHeight="1">
       <c r="A2" s="163" t="s">
         <v>0</v>
       </c>
@@ -11913,7 +11913,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="22" customHeight="1">
+    <row r="3" spans="1:33" ht="22.05" customHeight="1">
       <c r="A3" s="164">
         <v>1</v>
       </c>
@@ -11992,7 +11992,7 @@
       <c r="AF3" s="22"/>
       <c r="AG3" s="183"/>
     </row>
-    <row r="4" spans="1:33" ht="22" customHeight="1">
+    <row r="4" spans="1:33" ht="22.05" customHeight="1">
       <c r="A4" s="164">
         <v>2</v>
       </c>
@@ -12077,7 +12077,7 @@
       <c r="AF4" s="22"/>
       <c r="AG4" s="184"/>
     </row>
-    <row r="5" spans="1:33" ht="22" customHeight="1">
+    <row r="5" spans="1:33" ht="22.05" customHeight="1">
       <c r="A5" s="164">
         <v>3</v>
       </c>
@@ -12158,7 +12158,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="22" customHeight="1">
+    <row r="6" spans="1:33" ht="22.05" customHeight="1">
       <c r="A6" s="164">
         <v>4</v>
       </c>
@@ -12234,7 +12234,7 @@
       <c r="AF6" s="22"/>
       <c r="AG6" s="186"/>
     </row>
-    <row r="7" spans="1:33" ht="22" customHeight="1">
+    <row r="7" spans="1:33" ht="22.05" customHeight="1">
       <c r="A7" s="164">
         <v>5</v>
       </c>
@@ -12313,7 +12313,7 @@
       <c r="AF7" s="22"/>
       <c r="AG7" s="186"/>
     </row>
-    <row r="8" spans="1:33" ht="22" customHeight="1">
+    <row r="8" spans="1:33" ht="22.05" customHeight="1">
       <c r="A8" s="164">
         <v>6</v>
       </c>
@@ -12396,7 +12396,7 @@
       <c r="AF8" s="22"/>
       <c r="AG8" s="186"/>
     </row>
-    <row r="9" spans="1:33" ht="22" customHeight="1">
+    <row r="9" spans="1:33" ht="22.05" customHeight="1">
       <c r="A9" s="164">
         <v>7</v>
       </c>
@@ -12472,7 +12472,7 @@
       <c r="AF9" s="22"/>
       <c r="AG9" s="186"/>
     </row>
-    <row r="10" spans="1:33" ht="22" customHeight="1">
+    <row r="10" spans="1:33" ht="22.05" customHeight="1">
       <c r="A10" s="164">
         <v>8</v>
       </c>
@@ -12550,7 +12550,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="11" spans="1:33" ht="22" customHeight="1">
+    <row r="11" spans="1:33" ht="22.05" customHeight="1">
       <c r="A11" s="164">
         <v>9</v>
       </c>
@@ -14471,10 +14471,10 @@
       </c>
       <c r="AF36" s="22"/>
     </row>
-    <row r="37" spans="1:33" ht="22" customHeight="1">
+    <row r="37" spans="1:33" ht="22.05" customHeight="1">
       <c r="AF37" s="5"/>
     </row>
-    <row r="38" spans="1:33" ht="20.5" customHeight="1">
+    <row r="38" spans="1:33" ht="20.55" customHeight="1">
       <c r="B38" s="148" t="s">
         <v>115</v>
       </c>
@@ -14487,7 +14487,7 @@
         <v>208225</v>
       </c>
     </row>
-    <row r="39" spans="1:33" ht="20.5" customHeight="1">
+    <row r="39" spans="1:33" ht="20.55" customHeight="1">
       <c r="B39" s="148" t="s">
         <v>202</v>
       </c>
@@ -14497,7 +14497,7 @@
       </c>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:33" ht="20.5" customHeight="1">
+    <row r="40" spans="1:33" ht="20.55" customHeight="1">
       <c r="B40" s="148" t="s">
         <v>203</v>
       </c>
@@ -14518,7 +14518,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="1:33" ht="20.5" customHeight="1">
+    <row r="41" spans="1:33" ht="20.55" customHeight="1">
       <c r="D41" s="6">
         <f>D40-C40</f>
         <v>20380</v>
@@ -14577,43 +14577,43 @@
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="20.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="20.55" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11" style="5" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" style="5" customWidth="1"/>
     <col min="3" max="3" width="17" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" style="5" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" style="6" customWidth="1"/>
     <col min="8" max="9" width="13.6640625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" style="7" customWidth="1"/>
     <col min="11" max="11" width="12.33203125" style="7" customWidth="1"/>
     <col min="12" max="12" width="7.6640625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="12.5" style="7" customWidth="1"/>
-    <col min="14" max="14" width="12.1640625" style="7" customWidth="1"/>
-    <col min="15" max="15" width="13.1640625" style="6" customWidth="1"/>
-    <col min="16" max="16" width="10.83203125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" style="7" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" style="7" customWidth="1"/>
+    <col min="15" max="15" width="13.109375" style="6" customWidth="1"/>
+    <col min="16" max="16" width="10.77734375" style="6" customWidth="1"/>
     <col min="17" max="17" width="11.33203125" style="6" customWidth="1"/>
     <col min="18" max="18" width="13.33203125" style="6" customWidth="1"/>
     <col min="19" max="20" width="11.6640625" style="6" customWidth="1"/>
-    <col min="21" max="21" width="15.1640625" style="6" customWidth="1"/>
-    <col min="22" max="22" width="27.1640625" style="5" customWidth="1"/>
+    <col min="21" max="21" width="15.109375" style="6" customWidth="1"/>
+    <col min="22" max="22" width="27.109375" style="5" customWidth="1"/>
     <col min="23" max="23" width="9.6640625" style="5" customWidth="1"/>
-    <col min="24" max="24" width="9.83203125" style="5" customWidth="1"/>
+    <col min="24" max="24" width="9.77734375" style="5" customWidth="1"/>
     <col min="25" max="25" width="10.6640625" style="5" customWidth="1"/>
     <col min="26" max="26" width="9.6640625" style="5" customWidth="1"/>
     <col min="27" max="27" width="12.6640625" style="5" customWidth="1"/>
-    <col min="28" max="28" width="9.1640625" style="5" customWidth="1"/>
-    <col min="29" max="29" width="15.5" style="5" customWidth="1"/>
-    <col min="30" max="30" width="19.5" style="104" customWidth="1"/>
-    <col min="31" max="31" width="9.1640625" style="5" customWidth="1"/>
+    <col min="28" max="28" width="9.109375" style="5" customWidth="1"/>
+    <col min="29" max="29" width="15.44140625" style="5" customWidth="1"/>
+    <col min="30" max="30" width="19.44140625" style="104" customWidth="1"/>
+    <col min="31" max="31" width="9.109375" style="5" customWidth="1"/>
     <col min="32" max="32" width="8.6640625" style="1" customWidth="1"/>
-    <col min="33" max="33" width="15.83203125" style="5" customWidth="1"/>
-    <col min="34" max="16384" width="9.1640625" style="5"/>
+    <col min="33" max="33" width="15.77734375" style="5" customWidth="1"/>
+    <col min="34" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="22" customHeight="1">
+    <row r="1" spans="1:33" ht="22.05" customHeight="1">
       <c r="A1" s="372" t="s">
         <v>363</v>
       </c>
@@ -14623,7 +14623,7 @@
       </c>
       <c r="AF1" s="5"/>
     </row>
-    <row r="2" spans="1:33" ht="22" customHeight="1">
+    <row r="2" spans="1:33" ht="22.05" customHeight="1">
       <c r="A2" s="163" t="s">
         <v>0</v>
       </c>
@@ -14724,7 +14724,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="22" customHeight="1">
+    <row r="3" spans="1:33" ht="22.05" customHeight="1">
       <c r="A3" s="164">
         <v>1</v>
       </c>
@@ -14805,7 +14805,7 @@
       <c r="AF3" s="166"/>
       <c r="AG3" s="187"/>
     </row>
-    <row r="4" spans="1:33" ht="22" customHeight="1">
+    <row r="4" spans="1:33" ht="22.05" customHeight="1">
       <c r="A4" s="164">
         <v>3</v>
       </c>
@@ -14886,7 +14886,7 @@
       <c r="AF4" s="166"/>
       <c r="AG4" s="187"/>
     </row>
-    <row r="5" spans="1:33" ht="22" customHeight="1">
+    <row r="5" spans="1:33" ht="22.05" customHeight="1">
       <c r="A5" s="164">
         <v>4</v>
       </c>
@@ -14959,7 +14959,7 @@
       <c r="AF5" s="166"/>
       <c r="AG5" s="187"/>
     </row>
-    <row r="6" spans="1:33" ht="22" customHeight="1">
+    <row r="6" spans="1:33" ht="22.05" customHeight="1">
       <c r="A6" s="164">
         <v>5</v>
       </c>
@@ -15034,7 +15034,7 @@
       <c r="AF6" s="166"/>
       <c r="AG6" s="188"/>
     </row>
-    <row r="7" spans="1:33" ht="22" customHeight="1">
+    <row r="7" spans="1:33" ht="22.05" customHeight="1">
       <c r="A7" s="164">
         <v>6</v>
       </c>
@@ -15106,7 +15106,7 @@
       <c r="AF7" s="166"/>
       <c r="AG7" s="187"/>
     </row>
-    <row r="8" spans="1:33" customFormat="1" ht="22" customHeight="1">
+    <row r="8" spans="1:33" customFormat="1" ht="22.05" customHeight="1">
       <c r="A8" s="5"/>
       <c r="B8" s="18"/>
       <c r="C8" s="5"/>
@@ -15170,10 +15170,10 @@
       <c r="AE8" s="5"/>
       <c r="AF8" s="20"/>
     </row>
-    <row r="9" spans="1:33" ht="20.5" customHeight="1">
+    <row r="9" spans="1:33" ht="20.55" customHeight="1">
       <c r="AF9" s="20"/>
     </row>
-    <row r="10" spans="1:33" ht="34.25" customHeight="1">
+    <row r="10" spans="1:33" ht="34.200000000000003" customHeight="1">
       <c r="B10" s="148" t="s">
         <v>115</v>
       </c>
@@ -15187,7 +15187,7 @@
       </c>
       <c r="AF10" s="20"/>
     </row>
-    <row r="11" spans="1:33" ht="20.5" customHeight="1">
+    <row r="11" spans="1:33" ht="20.55" customHeight="1">
       <c r="B11" s="148" t="s">
         <v>202</v>
       </c>
@@ -15198,7 +15198,7 @@
       <c r="D11" s="1"/>
       <c r="AF11" s="20"/>
     </row>
-    <row r="12" spans="1:33" ht="20.5" customHeight="1">
+    <row r="12" spans="1:33" ht="20.55" customHeight="1">
       <c r="B12" s="148" t="s">
         <v>203</v>
       </c>
@@ -15221,73 +15221,73 @@
       <c r="F13" s="155"/>
       <c r="AF13" s="20"/>
     </row>
-    <row r="14" spans="1:33" ht="20.5" customHeight="1">
+    <row r="14" spans="1:33" ht="20.55" customHeight="1">
       <c r="AF14" s="20"/>
     </row>
-    <row r="15" spans="1:33" ht="20.5" customHeight="1">
+    <row r="15" spans="1:33" ht="20.55" customHeight="1">
       <c r="AF15" s="20"/>
     </row>
-    <row r="16" spans="1:33" ht="20.5" customHeight="1">
+    <row r="16" spans="1:33" ht="20.55" customHeight="1">
       <c r="AF16" s="20"/>
     </row>
-    <row r="17" spans="32:32" ht="20.5" customHeight="1">
+    <row r="17" spans="32:32" ht="20.55" customHeight="1">
       <c r="AF17" s="20"/>
     </row>
-    <row r="18" spans="32:32" ht="20.5" customHeight="1">
+    <row r="18" spans="32:32" ht="20.55" customHeight="1">
       <c r="AF18" s="20"/>
     </row>
-    <row r="19" spans="32:32" ht="20.5" customHeight="1">
+    <row r="19" spans="32:32" ht="20.55" customHeight="1">
       <c r="AF19" s="20"/>
     </row>
-    <row r="20" spans="32:32" ht="20.5" customHeight="1">
+    <row r="20" spans="32:32" ht="20.55" customHeight="1">
       <c r="AF20" s="20"/>
     </row>
-    <row r="21" spans="32:32" ht="20.5" customHeight="1">
+    <row r="21" spans="32:32" ht="20.55" customHeight="1">
       <c r="AF21" s="20"/>
     </row>
-    <row r="22" spans="32:32" ht="20.5" customHeight="1">
+    <row r="22" spans="32:32" ht="20.55" customHeight="1">
       <c r="AF22" s="20"/>
     </row>
-    <row r="23" spans="32:32" ht="20.5" customHeight="1">
+    <row r="23" spans="32:32" ht="20.55" customHeight="1">
       <c r="AF23" s="20"/>
     </row>
-    <row r="24" spans="32:32" ht="20.5" customHeight="1">
+    <row r="24" spans="32:32" ht="20.55" customHeight="1">
       <c r="AF24" s="20"/>
     </row>
-    <row r="25" spans="32:32" ht="20.5" customHeight="1">
+    <row r="25" spans="32:32" ht="20.55" customHeight="1">
       <c r="AF25" s="20"/>
     </row>
-    <row r="26" spans="32:32" ht="20.5" customHeight="1">
+    <row r="26" spans="32:32" ht="20.55" customHeight="1">
       <c r="AF26" s="20"/>
     </row>
-    <row r="27" spans="32:32" ht="20.5" customHeight="1">
+    <row r="27" spans="32:32" ht="20.55" customHeight="1">
       <c r="AF27" s="20"/>
     </row>
-    <row r="28" spans="32:32" ht="20.5" customHeight="1">
+    <row r="28" spans="32:32" ht="20.55" customHeight="1">
       <c r="AF28" s="20"/>
     </row>
-    <row r="29" spans="32:32" ht="20.5" customHeight="1">
+    <row r="29" spans="32:32" ht="20.55" customHeight="1">
       <c r="AF29" s="20"/>
     </row>
-    <row r="30" spans="32:32" ht="20.5" customHeight="1">
+    <row r="30" spans="32:32" ht="20.55" customHeight="1">
       <c r="AF30" s="20"/>
     </row>
-    <row r="31" spans="32:32" ht="20.5" customHeight="1">
+    <row r="31" spans="32:32" ht="20.55" customHeight="1">
       <c r="AF31" s="20"/>
     </row>
-    <row r="32" spans="32:32" ht="20.5" customHeight="1">
+    <row r="32" spans="32:32" ht="20.55" customHeight="1">
       <c r="AF32" s="20"/>
     </row>
-    <row r="33" spans="32:32" ht="20.5" customHeight="1">
+    <row r="33" spans="32:32" ht="20.55" customHeight="1">
       <c r="AF33" s="20"/>
     </row>
-    <row r="34" spans="32:32" ht="20.5" customHeight="1">
+    <row r="34" spans="32:32" ht="20.55" customHeight="1">
       <c r="AF34" s="20"/>
     </row>
-    <row r="35" spans="32:32" ht="20.5" customHeight="1">
+    <row r="35" spans="32:32" ht="20.55" customHeight="1">
       <c r="AF35" s="20"/>
     </row>
-    <row r="36" spans="32:32" ht="20.5" customHeight="1">
+    <row r="36" spans="32:32" ht="20.55" customHeight="1">
       <c r="AF36" s="5"/>
     </row>
   </sheetData>
@@ -15344,26 +15344,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034D65E4-C91B-4E94-88A2-8CBF471DE0E8}">
   <dimension ref="A1:AH42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L1" zoomScale="156" zoomScaleNormal="100" zoomScaleSheetLayoutView="78" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Z1" zoomScale="156" zoomScaleNormal="100" zoomScaleSheetLayoutView="78" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="AG3" sqref="AG3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="20.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="20.55" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="7.6640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="5" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" style="5" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" style="6" customWidth="1"/>
     <col min="8" max="9" width="13.6640625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" style="7" customWidth="1"/>
     <col min="11" max="11" width="12.33203125" style="7" customWidth="1"/>
     <col min="12" max="12" width="7.6640625" style="7" customWidth="1"/>
     <col min="13" max="13" width="11.6640625" style="7" customWidth="1"/>
-    <col min="14" max="14" width="10.1640625" style="7" customWidth="1"/>
-    <col min="15" max="15" width="11.5" style="6" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" style="7" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" style="6" customWidth="1"/>
     <col min="16" max="16" width="8.33203125" style="6" customWidth="1"/>
     <col min="17" max="17" width="7.6640625" style="6" customWidth="1"/>
     <col min="18" max="18" width="10" style="6" customWidth="1"/>
@@ -15374,17 +15374,17 @@
     <col min="24" max="24" width="9.6640625" style="5" customWidth="1"/>
     <col min="25" max="25" width="10.6640625" style="5" customWidth="1"/>
     <col min="26" max="26" width="9.6640625" style="5" customWidth="1"/>
-    <col min="27" max="27" width="12.5" style="5" customWidth="1"/>
-    <col min="28" max="28" width="9.1640625" style="5" customWidth="1"/>
+    <col min="27" max="27" width="12.44140625" style="5" customWidth="1"/>
+    <col min="28" max="28" width="9.109375" style="5" customWidth="1"/>
     <col min="29" max="29" width="15.33203125" style="5" customWidth="1"/>
-    <col min="30" max="30" width="17.83203125" style="104" customWidth="1"/>
-    <col min="31" max="31" width="9.1640625" style="5" customWidth="1"/>
+    <col min="30" max="30" width="17.77734375" style="104" customWidth="1"/>
+    <col min="31" max="31" width="9.109375" style="5" customWidth="1"/>
     <col min="32" max="32" width="8.6640625" style="1" customWidth="1"/>
     <col min="33" max="33" width="23.33203125" style="5" customWidth="1"/>
-    <col min="34" max="16384" width="9.1640625" style="5"/>
+    <col min="34" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="22" customHeight="1">
+    <row r="1" spans="1:33" ht="22.05" customHeight="1">
       <c r="A1" s="372" t="s">
         <v>363</v>
       </c>
@@ -15394,7 +15394,7 @@
       </c>
       <c r="AF1" s="5"/>
     </row>
-    <row r="2" spans="1:33" ht="22" customHeight="1">
+    <row r="2" spans="1:33" ht="22.05" customHeight="1">
       <c r="A2" s="163" t="s">
         <v>0</v>
       </c>
@@ -15495,7 +15495,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="22" customHeight="1">
+    <row r="3" spans="1:33" ht="22.05" customHeight="1">
       <c r="A3" s="164">
         <v>1</v>
       </c>
@@ -15556,7 +15556,7 @@
         <v>19530</v>
       </c>
       <c r="V3" s="119" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W3" s="121"/>
       <c r="X3" s="121"/>
@@ -15571,12 +15571,12 @@
       <c r="AC3" s="22"/>
       <c r="AD3" s="106"/>
       <c r="AE3" s="4" t="s">
-        <v>33</v>
+        <v>381</v>
       </c>
       <c r="AF3" s="166"/>
       <c r="AG3" s="187"/>
     </row>
-    <row r="4" spans="1:33" ht="22" customHeight="1">
+    <row r="4" spans="1:33" ht="22.05" customHeight="1">
       <c r="A4" s="164">
         <v>2</v>
       </c>
@@ -15651,7 +15651,7 @@
       <c r="AF4" s="166"/>
       <c r="AG4" s="187"/>
     </row>
-    <row r="5" spans="1:33" ht="22" customHeight="1">
+    <row r="5" spans="1:33" ht="22.05" customHeight="1">
       <c r="A5" s="164">
         <v>3</v>
       </c>
@@ -16716,7 +16716,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="19" spans="1:34" ht="20.5" customHeight="1">
+    <row r="19" spans="1:34" ht="20.55" customHeight="1">
       <c r="A19" s="164">
         <v>17</v>
       </c>
@@ -16798,7 +16798,7 @@
       </c>
       <c r="AG19" s="279"/>
     </row>
-    <row r="20" spans="1:34" ht="20.5" customHeight="1">
+    <row r="20" spans="1:34" ht="20.55" customHeight="1">
       <c r="A20" s="164">
         <v>18</v>
       </c>
@@ -16874,7 +16874,7 @@
       </c>
       <c r="AG20" s="226"/>
     </row>
-    <row r="21" spans="1:34" ht="20.5" customHeight="1">
+    <row r="21" spans="1:34" ht="20.55" customHeight="1">
       <c r="A21" s="164">
         <v>19</v>
       </c>
@@ -16948,7 +16948,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="22" spans="1:34" ht="20.5" customHeight="1">
+    <row r="22" spans="1:34" ht="20.55" customHeight="1">
       <c r="A22" s="164">
         <v>20</v>
       </c>
@@ -17019,7 +17019,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="23" spans="1:34" ht="20.5" customHeight="1">
+    <row r="23" spans="1:34" ht="20.55" customHeight="1">
       <c r="A23" s="164">
         <v>21</v>
       </c>
@@ -17096,7 +17096,7 @@
       <c r="AF23" s="203"/>
       <c r="AG23" s="187"/>
     </row>
-    <row r="24" spans="1:34" ht="20.5" customHeight="1">
+    <row r="24" spans="1:34" ht="20.55" customHeight="1">
       <c r="A24" s="164">
         <v>22</v>
       </c>
@@ -17168,7 +17168,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="25" spans="1:34" ht="20.5" customHeight="1">
+    <row r="25" spans="1:34" ht="20.55" customHeight="1">
       <c r="A25" s="164">
         <v>23</v>
       </c>
@@ -17240,7 +17240,7 @@
       </c>
       <c r="AG25" s="279"/>
     </row>
-    <row r="26" spans="1:34" ht="20.5" customHeight="1">
+    <row r="26" spans="1:34" ht="20.55" customHeight="1">
       <c r="A26" s="164">
         <v>24</v>
       </c>
@@ -17308,7 +17308,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="27" spans="1:34" ht="20.5" customHeight="1">
+    <row r="27" spans="1:34" ht="20.55" customHeight="1">
       <c r="A27" s="164">
         <v>25</v>
       </c>
@@ -17382,7 +17382,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="28" spans="1:34" ht="20.5" customHeight="1">
+    <row r="28" spans="1:34" ht="20.55" customHeight="1">
       <c r="A28" s="164">
         <v>26</v>
       </c>
@@ -17452,7 +17452,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="29" spans="1:34" ht="20.5" customHeight="1">
+    <row r="29" spans="1:34" ht="20.55" customHeight="1">
       <c r="A29" s="164">
         <v>27</v>
       </c>
@@ -17520,7 +17520,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="30" spans="1:34" ht="20.5" customHeight="1">
+    <row r="30" spans="1:34" ht="20.55" customHeight="1">
       <c r="A30" s="164">
         <v>28</v>
       </c>
@@ -17592,7 +17592,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="31" spans="1:34" ht="20.5" customHeight="1">
+    <row r="31" spans="1:34" ht="20.55" customHeight="1">
       <c r="A31" s="298">
         <v>29</v>
       </c>
@@ -17664,7 +17664,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="32" spans="1:34" ht="20.5" customHeight="1">
+    <row r="32" spans="1:34" ht="20.55" customHeight="1">
       <c r="B32" s="314"/>
       <c r="C32" s="256"/>
       <c r="D32" s="315"/>
@@ -17697,7 +17697,7 @@
       <c r="AF32" s="203"/>
       <c r="AG32" s="187"/>
     </row>
-    <row r="33" spans="2:33" ht="20.5" customHeight="1">
+    <row r="33" spans="2:33" ht="20.55" customHeight="1">
       <c r="B33" s="18"/>
       <c r="E33" s="209">
         <f>SUM(E3:E31)</f>
@@ -17740,10 +17740,10 @@
       <c r="AF33" s="22"/>
       <c r="AG33" s="187"/>
     </row>
-    <row r="34" spans="2:33" ht="20.5" customHeight="1">
+    <row r="34" spans="2:33" ht="20.55" customHeight="1">
       <c r="AF34" s="5"/>
     </row>
-    <row r="35" spans="2:33" ht="20.5" customHeight="1">
+    <row r="35" spans="2:33" ht="20.55" customHeight="1">
       <c r="B35" s="148" t="s">
         <v>115</v>
       </c>
@@ -17756,7 +17756,7 @@
         <v>98966</v>
       </c>
     </row>
-    <row r="36" spans="2:33" ht="20.5" customHeight="1">
+    <row r="36" spans="2:33" ht="20.55" customHeight="1">
       <c r="B36" s="148" t="s">
         <v>202</v>
       </c>
@@ -17769,7 +17769,7 @@
         <v>28079</v>
       </c>
     </row>
-    <row r="37" spans="2:33" ht="20.5" customHeight="1">
+    <row r="37" spans="2:33" ht="20.55" customHeight="1">
       <c r="B37" s="148" t="s">
         <v>203</v>
       </c>
@@ -17786,16 +17786,16 @@
         <v>91812</v>
       </c>
     </row>
-    <row r="38" spans="2:33" ht="20.5" customHeight="1">
+    <row r="38" spans="2:33" ht="20.55" customHeight="1">
       <c r="D38" s="6">
         <f>D37-C37</f>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:33" ht="20.5" customHeight="1">
+    <row r="40" spans="2:33" ht="20.55" customHeight="1">
       <c r="C40" s="6"/>
     </row>
-    <row r="42" spans="2:33" ht="20.5" customHeight="1">
+    <row r="42" spans="2:33" ht="20.55" customHeight="1">
       <c r="G42" s="6">
         <v>21250</v>
       </c>
@@ -17811,13 +17811,12 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="V4:V31" r:id="rId1" display="tunwit2458@gmail.com" xr:uid="{39B7772E-1CC5-4D42-914A-E83C3DA19262}"/>
-    <hyperlink ref="V4" r:id="rId2" xr:uid="{FB9185E0-EBFD-7543-B003-1B110DF2D399}"/>
-    <hyperlink ref="V3" r:id="rId3" xr:uid="{EFFE1335-3091-4647-8202-946A06542E30}"/>
+    <hyperlink ref="V3:V4" r:id="rId2" display="tunwit2458@gmail.com" xr:uid="{0916A24B-35C4-4220-BE58-E1637F05721E}"/>
   </hyperlinks>
   <pageMargins left="0.12" right="0.11" top="0.56499999999999995" bottom="0.12" header="0.13" footer="0.13"/>
-  <pageSetup paperSize="9" scale="65" fitToWidth="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="360" r:id="rId4"/>
+  <pageSetup paperSize="9" scale="65" fitToWidth="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="360" r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -17830,22 +17829,22 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18.600000000000001"/>
   <cols>
     <col min="1" max="1" width="1" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="32.6640625" style="2" customWidth="1"/>
-    <col min="4" max="5" width="0.83203125" style="2" customWidth="1"/>
+    <col min="4" max="5" width="0.77734375" style="2" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="32.6640625" style="2" customWidth="1"/>
     <col min="8" max="8" width="0.6640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="1.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="0.83203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="1.44140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="0.77734375" style="2" customWidth="1"/>
     <col min="11" max="11" width="11.6640625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12.83203125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="4.5" style="2" customWidth="1"/>
-    <col min="14" max="14" width="0.83203125" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9.1640625" style="2"/>
+    <col min="12" max="12" width="12.77734375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="4.44140625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="0.77734375" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24" customHeight="1">
@@ -18304,7 +18303,7 @@
       <c r="I22" s="70"/>
       <c r="M22" s="89"/>
     </row>
-    <row r="23" spans="1:14" s="20" customFormat="1" ht="28.25" customHeight="1">
+    <row r="23" spans="1:14" s="20" customFormat="1" ht="28.2" customHeight="1">
       <c r="B23" s="74" t="s">
         <v>19</v>
       </c>
@@ -18313,7 +18312,7 @@
         <v>16125</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="5.5" customHeight="1">
+    <row r="24" spans="1:14" ht="5.55" customHeight="1">
       <c r="A24" s="81"/>
       <c r="B24" s="81"/>
       <c r="C24" s="81"/>
@@ -18416,34 +18415,34 @@
       <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="23"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="27"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="167"/>
+    <col min="1" max="1" width="8.77734375" style="167"/>
     <col min="2" max="2" width="39.6640625" style="337" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="180" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" style="180" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" style="167" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" style="169" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" style="169" customWidth="1"/>
     <col min="6" max="7" width="11.33203125" style="167" customWidth="1"/>
     <col min="8" max="8" width="37.6640625" style="167" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="167" customWidth="1"/>
-    <col min="10" max="10" width="14.5" style="167" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" style="167" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" style="167" customWidth="1"/>
     <col min="11" max="11" width="12" style="169" customWidth="1"/>
     <col min="12" max="12" width="9.6640625" style="167" customWidth="1"/>
-    <col min="13" max="13" width="8.83203125" style="167"/>
+    <col min="13" max="13" width="8.77734375" style="167"/>
     <col min="14" max="14" width="35.6640625" style="167" customWidth="1"/>
-    <col min="15" max="15" width="12.1640625" style="169" customWidth="1"/>
-    <col min="16" max="16" width="15.5" style="167" customWidth="1"/>
-    <col min="17" max="17" width="12.5" style="169" customWidth="1"/>
-    <col min="18" max="18" width="2.5" style="167" customWidth="1"/>
-    <col min="19" max="19" width="8.83203125" style="169"/>
-    <col min="20" max="20" width="34.5" style="167" customWidth="1"/>
-    <col min="21" max="21" width="12.1640625" style="167" customWidth="1"/>
-    <col min="22" max="22" width="11.83203125" style="169" customWidth="1"/>
+    <col min="15" max="15" width="12.109375" style="169" customWidth="1"/>
+    <col min="16" max="16" width="15.44140625" style="167" customWidth="1"/>
+    <col min="17" max="17" width="12.44140625" style="169" customWidth="1"/>
+    <col min="18" max="18" width="2.44140625" style="167" customWidth="1"/>
+    <col min="19" max="19" width="8.77734375" style="169"/>
+    <col min="20" max="20" width="34.44140625" style="167" customWidth="1"/>
+    <col min="21" max="21" width="12.109375" style="167" customWidth="1"/>
+    <col min="22" max="22" width="11.77734375" style="169" customWidth="1"/>
     <col min="23" max="23" width="11.33203125" style="169" customWidth="1"/>
-    <col min="24" max="16384" width="8.83203125" style="167"/>
+    <col min="24" max="16384" width="8.77734375" style="167"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="30.5" customHeight="1">
+    <row r="1" spans="1:23" ht="30.45" customHeight="1">
       <c r="B1" s="333" t="s">
         <v>231</v>
       </c>
@@ -18455,7 +18454,7 @@
       <c r="T1" s="169"/>
       <c r="U1" s="169"/>
     </row>
-    <row r="2" spans="1:23" ht="35" customHeight="1">
+    <row r="2" spans="1:23" ht="34.950000000000003" customHeight="1">
       <c r="A2" s="170" t="s">
         <v>0</v>
       </c>
@@ -18517,7 +18516,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="50.5" customHeight="1">
+    <row r="3" spans="1:23" ht="50.55" customHeight="1">
       <c r="A3" s="171" cm="1">
         <f t="array" ref="A3:A32">Tableram[ลำดับ]</f>
         <v>100</v>
@@ -18604,7 +18603,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="50.5" customHeight="1">
+    <row r="4" spans="1:23" ht="50.55" customHeight="1">
       <c r="A4" s="171">
         <v>2</v>
       </c>
@@ -18673,7 +18672,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="50.5" customHeight="1">
+    <row r="5" spans="1:23" ht="50.55" customHeight="1">
       <c r="A5" s="171">
         <v>3</v>
       </c>
@@ -18742,7 +18741,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="50.5" customHeight="1">
+    <row r="6" spans="1:23" ht="50.55" customHeight="1">
       <c r="A6" s="171">
         <v>4</v>
       </c>
@@ -18811,7 +18810,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="50.5" customHeight="1">
+    <row r="7" spans="1:23" ht="50.55" customHeight="1">
       <c r="A7" s="171">
         <v>5</v>
       </c>
@@ -18882,7 +18881,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="50.5" customHeight="1">
+    <row r="8" spans="1:23" ht="50.55" customHeight="1">
       <c r="A8" s="171">
         <v>6</v>
       </c>
@@ -18939,7 +18938,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="50.5" customHeight="1">
+    <row r="9" spans="1:23" ht="50.55" customHeight="1">
       <c r="A9" s="171">
         <v>7</v>
       </c>
@@ -18996,7 +18995,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="50.5" customHeight="1">
+    <row r="10" spans="1:23" ht="50.55" customHeight="1">
       <c r="A10" s="171">
         <v>8</v>
       </c>
@@ -19053,7 +19052,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="50.5" customHeight="1">
+    <row r="11" spans="1:23" ht="50.55" customHeight="1">
       <c r="A11" s="171">
         <v>9</v>
       </c>
@@ -19110,7 +19109,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="50.5" customHeight="1">
+    <row r="12" spans="1:23" ht="50.55" customHeight="1">
       <c r="A12" s="171">
         <v>10</v>
       </c>
@@ -19167,7 +19166,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="50.5" customHeight="1">
+    <row r="13" spans="1:23" ht="50.55" customHeight="1">
       <c r="A13" s="171">
         <v>11</v>
       </c>
@@ -19224,7 +19223,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="50.5" customHeight="1">
+    <row r="14" spans="1:23" ht="50.55" customHeight="1">
       <c r="A14" s="171">
         <v>12</v>
       </c>
@@ -19281,7 +19280,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="50.5" customHeight="1">
+    <row r="15" spans="1:23" ht="50.55" customHeight="1">
       <c r="A15" s="171">
         <v>13</v>
       </c>
@@ -19338,7 +19337,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="50.5" customHeight="1">
+    <row r="16" spans="1:23" ht="50.55" customHeight="1">
       <c r="A16" s="171">
         <v>14</v>
       </c>
@@ -19395,7 +19394,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="50.5" customHeight="1">
+    <row r="17" spans="1:23" ht="50.55" customHeight="1">
       <c r="A17" s="171">
         <v>15</v>
       </c>
@@ -19452,7 +19451,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="50.5" customHeight="1">
+    <row r="18" spans="1:23" ht="50.55" customHeight="1">
       <c r="A18" s="171">
         <v>16</v>
       </c>
@@ -19509,7 +19508,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="50.5" customHeight="1">
+    <row r="19" spans="1:23" ht="50.55" customHeight="1">
       <c r="A19" s="171">
         <v>17</v>
       </c>
@@ -19566,7 +19565,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="50.5" customHeight="1">
+    <row r="20" spans="1:23" ht="50.55" customHeight="1">
       <c r="A20" s="171">
         <v>18</v>
       </c>
@@ -19623,7 +19622,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="50.5" customHeight="1">
+    <row r="21" spans="1:23" ht="50.55" customHeight="1">
       <c r="A21" s="171">
         <v>19</v>
       </c>
@@ -19680,7 +19679,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="50.5" customHeight="1">
+    <row r="22" spans="1:23" ht="50.55" customHeight="1">
       <c r="A22" s="171">
         <v>20</v>
       </c>
@@ -19737,7 +19736,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="50.5" customHeight="1">
+    <row r="23" spans="1:23" ht="50.55" customHeight="1">
       <c r="A23" s="171">
         <v>21</v>
       </c>
@@ -19794,7 +19793,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="50.5" customHeight="1">
+    <row r="24" spans="1:23" ht="50.55" customHeight="1">
       <c r="A24" s="171">
         <v>22</v>
       </c>
@@ -19851,7 +19850,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="50.5" customHeight="1">
+    <row r="25" spans="1:23" ht="50.55" customHeight="1">
       <c r="A25" s="171">
         <v>23</v>
       </c>
@@ -19908,7 +19907,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="50.5" customHeight="1">
+    <row r="26" spans="1:23" ht="50.55" customHeight="1">
       <c r="A26" s="171">
         <v>24</v>
       </c>
@@ -19965,7 +19964,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="50.5" customHeight="1">
+    <row r="27" spans="1:23" ht="50.55" customHeight="1">
       <c r="A27" s="171">
         <v>25</v>
       </c>
@@ -20022,7 +20021,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="50.5" customHeight="1">
+    <row r="28" spans="1:23" ht="50.55" customHeight="1">
       <c r="A28" s="171">
         <v>26</v>
       </c>
@@ -20079,7 +20078,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="50.5" customHeight="1">
+    <row r="29" spans="1:23" ht="50.55" customHeight="1">
       <c r="A29" s="171">
         <v>27</v>
       </c>
@@ -20136,7 +20135,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="50.5" customHeight="1">
+    <row r="30" spans="1:23" ht="50.55" customHeight="1">
       <c r="A30" s="171">
         <v>28</v>
       </c>
@@ -20193,7 +20192,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="50.5" customHeight="1">
+    <row r="31" spans="1:23" ht="50.55" customHeight="1">
       <c r="A31" s="171">
         <v>29</v>
       </c>
@@ -20250,7 +20249,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="50.5" customHeight="1">
+    <row r="32" spans="1:23" ht="50.55" customHeight="1">
       <c r="A32" s="171">
         <v>30</v>
       </c>
@@ -20291,7 +20290,7 @@
       <c r="O32" s="178"/>
       <c r="P32" s="149"/>
     </row>
-    <row r="33" spans="1:16" ht="50.5" customHeight="1">
+    <row r="33" spans="1:16" ht="50.55" customHeight="1">
       <c r="A33" s="171"/>
       <c r="B33" s="334"/>
       <c r="C33" s="173"/>
@@ -20321,7 +20320,7 @@
       <c r="O33" s="178"/>
       <c r="P33" s="149"/>
     </row>
-    <row r="34" spans="1:16" ht="50.5" customHeight="1">
+    <row r="34" spans="1:16" ht="50.55" customHeight="1">
       <c r="A34" s="171"/>
       <c r="B34" s="334"/>
       <c r="C34" s="173"/>
@@ -20351,7 +20350,7 @@
       <c r="O34" s="178"/>
       <c r="P34" s="149"/>
     </row>
-    <row r="35" spans="1:16" ht="50.5" customHeight="1">
+    <row r="35" spans="1:16" ht="50.55" customHeight="1">
       <c r="A35" s="171"/>
       <c r="B35" s="334"/>
       <c r="C35" s="173"/>
@@ -20366,222 +20365,222 @@
       <c r="O35" s="178"/>
       <c r="P35" s="149"/>
     </row>
-    <row r="36" spans="1:16" ht="50.5" customHeight="1">
+    <row r="36" spans="1:16" ht="50.55" customHeight="1">
       <c r="B36" s="336"/>
       <c r="C36" s="177"/>
       <c r="D36" s="179"/>
       <c r="E36" s="148"/>
     </row>
-    <row r="37" spans="1:16" ht="50.5" customHeight="1">
+    <row r="37" spans="1:16" ht="50.55" customHeight="1">
       <c r="B37" s="336"/>
       <c r="C37" s="177"/>
       <c r="D37" s="179"/>
       <c r="E37" s="148"/>
     </row>
-    <row r="38" spans="1:16" ht="50.5" customHeight="1">
+    <row r="38" spans="1:16" ht="50.55" customHeight="1">
       <c r="B38" s="336"/>
       <c r="C38" s="177"/>
       <c r="D38" s="179"/>
       <c r="E38" s="148"/>
     </row>
-    <row r="39" spans="1:16" ht="50.5" customHeight="1">
+    <row r="39" spans="1:16" ht="50.55" customHeight="1">
       <c r="B39" s="336"/>
       <c r="C39" s="177"/>
       <c r="D39" s="179"/>
       <c r="E39" s="148"/>
     </row>
-    <row r="40" spans="1:16" ht="50.5" customHeight="1">
+    <row r="40" spans="1:16" ht="50.55" customHeight="1">
       <c r="B40" s="336"/>
       <c r="C40" s="177"/>
       <c r="D40" s="179"/>
       <c r="E40" s="148"/>
     </row>
-    <row r="41" spans="1:16" ht="50.5" customHeight="1">
+    <row r="41" spans="1:16" ht="50.55" customHeight="1">
       <c r="B41" s="336"/>
       <c r="C41" s="177"/>
       <c r="D41" s="179"/>
       <c r="E41" s="148"/>
     </row>
-    <row r="42" spans="1:16" ht="50.5" customHeight="1">
+    <row r="42" spans="1:16" ht="50.55" customHeight="1">
       <c r="B42" s="336"/>
       <c r="C42" s="177"/>
       <c r="D42" s="179"/>
       <c r="E42" s="148"/>
     </row>
-    <row r="43" spans="1:16" ht="50.5" customHeight="1">
+    <row r="43" spans="1:16" ht="50.55" customHeight="1">
       <c r="B43" s="336"/>
       <c r="C43" s="177"/>
       <c r="D43" s="179"/>
       <c r="E43" s="148"/>
     </row>
-    <row r="44" spans="1:16" ht="50.5" customHeight="1">
+    <row r="44" spans="1:16" ht="50.55" customHeight="1">
       <c r="B44" s="336"/>
       <c r="C44" s="177"/>
       <c r="D44" s="179"/>
       <c r="E44" s="148"/>
     </row>
-    <row r="45" spans="1:16" ht="50.5" customHeight="1">
+    <row r="45" spans="1:16" ht="50.55" customHeight="1">
       <c r="B45" s="336"/>
       <c r="C45" s="177"/>
       <c r="D45" s="179"/>
       <c r="E45" s="148"/>
     </row>
-    <row r="46" spans="1:16" ht="50.5" customHeight="1">
+    <row r="46" spans="1:16" ht="50.55" customHeight="1">
       <c r="B46" s="336"/>
       <c r="C46" s="177"/>
       <c r="D46" s="179"/>
       <c r="E46" s="148"/>
     </row>
-    <row r="47" spans="1:16" ht="50.5" customHeight="1">
+    <row r="47" spans="1:16" ht="50.55" customHeight="1">
       <c r="B47" s="336"/>
       <c r="C47" s="177"/>
       <c r="D47" s="179"/>
       <c r="E47" s="148"/>
     </row>
-    <row r="48" spans="1:16" ht="50.5" customHeight="1">
+    <row r="48" spans="1:16" ht="50.55" customHeight="1">
       <c r="B48" s="336"/>
       <c r="C48" s="177"/>
       <c r="D48" s="179"/>
       <c r="E48" s="148"/>
     </row>
-    <row r="49" spans="2:5" ht="50.5" customHeight="1">
+    <row r="49" spans="2:5" ht="50.55" customHeight="1">
       <c r="B49" s="336"/>
       <c r="C49" s="177"/>
       <c r="D49" s="179"/>
       <c r="E49" s="148"/>
     </row>
-    <row r="50" spans="2:5" ht="50.5" customHeight="1">
+    <row r="50" spans="2:5" ht="50.55" customHeight="1">
       <c r="B50" s="336"/>
       <c r="C50" s="177"/>
       <c r="D50" s="179"/>
       <c r="E50" s="148"/>
     </row>
-    <row r="51" spans="2:5" ht="50.5" customHeight="1">
+    <row r="51" spans="2:5" ht="50.55" customHeight="1">
       <c r="B51" s="336"/>
       <c r="C51" s="177"/>
       <c r="D51" s="179"/>
       <c r="E51" s="148"/>
     </row>
-    <row r="52" spans="2:5" ht="50.5" customHeight="1">
+    <row r="52" spans="2:5" ht="50.55" customHeight="1">
       <c r="B52" s="336"/>
       <c r="C52" s="177"/>
       <c r="D52" s="179"/>
       <c r="E52" s="148"/>
     </row>
-    <row r="53" spans="2:5" ht="50.5" customHeight="1">
+    <row r="53" spans="2:5" ht="50.55" customHeight="1">
       <c r="B53" s="336"/>
       <c r="C53" s="177"/>
       <c r="D53" s="179"/>
       <c r="E53" s="148"/>
     </row>
-    <row r="54" spans="2:5" ht="50.5" customHeight="1">
+    <row r="54" spans="2:5" ht="50.55" customHeight="1">
       <c r="B54" s="336"/>
       <c r="C54" s="177"/>
       <c r="D54" s="179"/>
       <c r="E54" s="148"/>
     </row>
-    <row r="55" spans="2:5" ht="50.5" customHeight="1">
+    <row r="55" spans="2:5" ht="50.55" customHeight="1">
       <c r="B55" s="336"/>
       <c r="C55" s="177"/>
       <c r="D55" s="179"/>
       <c r="E55" s="148"/>
     </row>
-    <row r="56" spans="2:5" ht="50.5" customHeight="1">
+    <row r="56" spans="2:5" ht="50.55" customHeight="1">
       <c r="B56" s="336"/>
       <c r="C56" s="177"/>
       <c r="D56" s="179"/>
       <c r="E56" s="148"/>
     </row>
-    <row r="57" spans="2:5" ht="50.5" customHeight="1">
+    <row r="57" spans="2:5" ht="50.55" customHeight="1">
       <c r="B57" s="336"/>
       <c r="C57" s="177"/>
       <c r="D57" s="179"/>
       <c r="E57" s="148"/>
     </row>
-    <row r="58" spans="2:5" ht="50.5" customHeight="1">
+    <row r="58" spans="2:5" ht="50.55" customHeight="1">
       <c r="B58" s="336"/>
       <c r="C58" s="177"/>
       <c r="D58" s="179"/>
       <c r="E58" s="148"/>
     </row>
-    <row r="59" spans="2:5" ht="50.5" customHeight="1">
+    <row r="59" spans="2:5" ht="50.55" customHeight="1">
       <c r="B59" s="336"/>
       <c r="C59" s="177"/>
       <c r="D59" s="179"/>
       <c r="E59" s="148"/>
     </row>
-    <row r="60" spans="2:5" ht="50.5" customHeight="1">
+    <row r="60" spans="2:5" ht="50.55" customHeight="1">
       <c r="B60" s="336"/>
       <c r="C60" s="177"/>
       <c r="D60" s="179"/>
       <c r="E60" s="148"/>
     </row>
-    <row r="61" spans="2:5" ht="50.5" customHeight="1">
+    <row r="61" spans="2:5" ht="50.55" customHeight="1">
       <c r="B61" s="336"/>
       <c r="C61" s="177"/>
       <c r="D61" s="179"/>
       <c r="E61" s="148"/>
     </row>
-    <row r="62" spans="2:5" ht="50.5" customHeight="1">
+    <row r="62" spans="2:5" ht="50.55" customHeight="1">
       <c r="B62" s="336"/>
       <c r="C62" s="177"/>
       <c r="D62" s="179"/>
       <c r="E62" s="148"/>
     </row>
-    <row r="63" spans="2:5" ht="50.5" customHeight="1">
+    <row r="63" spans="2:5" ht="50.55" customHeight="1">
       <c r="B63" s="336"/>
       <c r="C63" s="177"/>
       <c r="D63" s="179"/>
       <c r="E63" s="148"/>
     </row>
-    <row r="64" spans="2:5" ht="50.5" customHeight="1">
+    <row r="64" spans="2:5" ht="50.55" customHeight="1">
       <c r="B64" s="336"/>
       <c r="C64" s="177"/>
       <c r="D64" s="179"/>
       <c r="E64" s="148"/>
     </row>
-    <row r="65" spans="2:5" ht="50.5" customHeight="1">
+    <row r="65" spans="2:5" ht="50.55" customHeight="1">
       <c r="B65" s="336"/>
       <c r="C65" s="177"/>
       <c r="D65" s="179"/>
       <c r="E65" s="148"/>
     </row>
-    <row r="66" spans="2:5" ht="50.5" customHeight="1">
+    <row r="66" spans="2:5" ht="50.55" customHeight="1">
       <c r="B66" s="336"/>
       <c r="C66" s="177"/>
       <c r="D66" s="179"/>
     </row>
-    <row r="67" spans="2:5" ht="50.5" customHeight="1">
+    <row r="67" spans="2:5" ht="50.55" customHeight="1">
       <c r="B67" s="336"/>
       <c r="C67" s="177"/>
       <c r="D67" s="179"/>
     </row>
-    <row r="68" spans="2:5" ht="50.5" customHeight="1">
+    <row r="68" spans="2:5" ht="50.55" customHeight="1">
       <c r="B68" s="336"/>
       <c r="C68" s="177"/>
       <c r="D68" s="179"/>
     </row>
-    <row r="69" spans="2:5" ht="50.5" customHeight="1">
+    <row r="69" spans="2:5" ht="50.55" customHeight="1">
       <c r="B69" s="336"/>
       <c r="C69" s="177"/>
       <c r="D69" s="179"/>
     </row>
-    <row r="70" spans="2:5" ht="50.5" customHeight="1">
+    <row r="70" spans="2:5" ht="50.55" customHeight="1">
       <c r="B70" s="336"/>
       <c r="C70" s="177"/>
       <c r="D70" s="179"/>
     </row>
-    <row r="71" spans="2:5" ht="50.5" customHeight="1">
+    <row r="71" spans="2:5" ht="50.55" customHeight="1">
       <c r="B71" s="336"/>
       <c r="C71" s="177"/>
       <c r="D71" s="179"/>
     </row>
-    <row r="72" spans="2:5" ht="50.5" customHeight="1">
+    <row r="72" spans="2:5" ht="50.55" customHeight="1">
       <c r="B72" s="336"/>
       <c r="C72" s="177"/>
       <c r="D72" s="179"/>
     </row>
-    <row r="73" spans="2:5" ht="50.5" customHeight="1">
+    <row r="73" spans="2:5" ht="50.55" customHeight="1">
       <c r="B73" s="336"/>
       <c r="C73" s="177"/>
       <c r="D73" s="179"/>
